--- a/helper ANN/MLP/simplified.weather.numeric.xlsx
+++ b/helper ANN/MLP/simplified.weather.numeric.xlsx
@@ -319,26 +319,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +357,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +719,7 @@
   <dimension ref="K1:CP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CU9" sqref="CU9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,236 +733,236 @@
   <sheetData>
     <row r="1" spans="11:94" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="13">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="15">
-        <v>0.1</v>
+      <c r="L3" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="16" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16"/>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16"/>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="16"/>
-      <c r="BD6" s="16"/>
-      <c r="BE6" s="16"/>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="16"/>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="16"/>
-      <c r="BK6" s="16"/>
-      <c r="BL6" s="16"/>
-      <c r="BM6" s="16"/>
-      <c r="BN6" s="16"/>
-      <c r="BO6" s="16"/>
-      <c r="BP6" s="16"/>
-      <c r="BQ6" s="16"/>
-      <c r="BR6" s="16"/>
-      <c r="BS6" s="16"/>
-      <c r="BT6" s="16"/>
-      <c r="BU6" s="16"/>
-      <c r="BV6" s="16"/>
-      <c r="BW6" s="16"/>
-      <c r="BX6" s="16"/>
-      <c r="BY6" s="16"/>
-      <c r="BZ6" s="16"/>
-      <c r="CA6" s="16"/>
-      <c r="CB6" s="16"/>
-      <c r="CC6" s="16"/>
-      <c r="CD6" s="16"/>
-      <c r="CE6" s="16"/>
-      <c r="CF6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CI6" s="16"/>
-      <c r="CJ6" s="16"/>
-      <c r="CK6" s="16"/>
-      <c r="CL6" s="16"/>
-      <c r="CM6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
-      <c r="CP6" s="16"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="21"/>
+      <c r="BQ6" s="21"/>
+      <c r="BR6" s="21"/>
+      <c r="BS6" s="21"/>
+      <c r="BT6" s="21"/>
+      <c r="BU6" s="21"/>
+      <c r="BV6" s="21"/>
+      <c r="BW6" s="21"/>
+      <c r="BX6" s="21"/>
+      <c r="BY6" s="21"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="21"/>
+      <c r="CC6" s="21"/>
+      <c r="CD6" s="21"/>
+      <c r="CE6" s="21"/>
+      <c r="CF6" s="21"/>
+      <c r="CG6" s="21"/>
+      <c r="CH6" s="21"/>
+      <c r="CI6" s="21"/>
+      <c r="CJ6" s="21"/>
+      <c r="CK6" s="21"/>
+      <c r="CL6" s="21"/>
+      <c r="CM6" s="21"/>
+      <c r="CN6" s="21"/>
+      <c r="CO6" s="21"/>
+      <c r="CP6" s="21"/>
     </row>
     <row r="7" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="17" t="s">
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17" t="s">
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17" t="s">
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="27" t="s">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="17" t="s">
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17" t="s">
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="20"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BJ7" s="17"/>
-      <c r="BK7" s="17"/>
-      <c r="BL7" s="17"/>
-      <c r="BM7" s="17"/>
-      <c r="BN7" s="17"/>
-      <c r="BO7" s="17"/>
-      <c r="BP7" s="17"/>
-      <c r="BQ7" s="17"/>
-      <c r="BR7" s="17"/>
-      <c r="BS7" s="17"/>
-      <c r="BT7" s="17"/>
-      <c r="BU7" s="17"/>
-      <c r="BV7" s="17"/>
-      <c r="BW7" s="17"/>
-      <c r="BX7" s="17"/>
-      <c r="BY7" s="17"/>
-      <c r="BZ7" s="17" t="s">
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
+      <c r="BM7" s="20"/>
+      <c r="BN7" s="20"/>
+      <c r="BO7" s="20"/>
+      <c r="BP7" s="20"/>
+      <c r="BQ7" s="20"/>
+      <c r="BR7" s="20"/>
+      <c r="BS7" s="20"/>
+      <c r="BT7" s="20"/>
+      <c r="BU7" s="20"/>
+      <c r="BV7" s="20"/>
+      <c r="BW7" s="20"/>
+      <c r="BX7" s="20"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CA7" s="17"/>
-      <c r="CB7" s="17"/>
-      <c r="CC7" s="17"/>
-      <c r="CD7" s="17"/>
-      <c r="CE7" s="17"/>
-      <c r="CF7" s="17"/>
-      <c r="CG7" s="17"/>
-      <c r="CH7" s="17"/>
-      <c r="CI7" s="17"/>
-      <c r="CJ7" s="17"/>
-      <c r="CK7" s="17"/>
-      <c r="CL7" s="17"/>
-      <c r="CM7" s="17"/>
-      <c r="CN7" s="17"/>
-      <c r="CO7" s="17"/>
-      <c r="CP7" s="17"/>
+      <c r="CA7" s="20"/>
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="20"/>
+      <c r="CE7" s="20"/>
+      <c r="CF7" s="20"/>
+      <c r="CG7" s="20"/>
+      <c r="CH7" s="20"/>
+      <c r="CI7" s="20"/>
+      <c r="CJ7" s="20"/>
+      <c r="CK7" s="20"/>
+      <c r="CL7" s="20"/>
+      <c r="CM7" s="20"/>
+      <c r="CN7" s="20"/>
+      <c r="CO7" s="20"/>
+      <c r="CP7" s="20"/>
     </row>
     <row r="8" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
       <c r="P8" s="2">
         <v>0</v>
       </c>
@@ -1047,162 +1047,162 @@
       <c r="AQ8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AR8" s="21" t="s">
+      <c r="AR8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AS8" s="21" t="s">
+      <c r="AS8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AT8" s="22" t="s">
+      <c r="AT8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AU8" s="22" t="s">
+      <c r="AU8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AV8" s="22" t="s">
+      <c r="AV8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AW8" s="22" t="s">
+      <c r="AW8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AX8" s="22" t="s">
+      <c r="AX8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AY8" s="22" t="s">
+      <c r="AY8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="AZ8" s="22" t="s">
+      <c r="AZ8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="BA8" s="22" t="s">
+      <c r="BA8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="BB8" s="22" t="s">
+      <c r="BB8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="BC8" s="22" t="s">
+      <c r="BC8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="BD8" s="22" t="s">
+      <c r="BD8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="BE8" s="22" t="s">
+      <c r="BE8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="BF8" s="22" t="s">
+      <c r="BF8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="BG8" s="22" t="s">
+      <c r="BG8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="BH8" s="22" t="s">
+      <c r="BH8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="BI8" s="21" t="s">
+      <c r="BI8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="BJ8" s="21" t="s">
+      <c r="BJ8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="BK8" s="22" t="s">
+      <c r="BK8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="BL8" s="22" t="s">
+      <c r="BL8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="BM8" s="22" t="s">
+      <c r="BM8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="BN8" s="22" t="s">
+      <c r="BN8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="BO8" s="22" t="s">
+      <c r="BO8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="BP8" s="22" t="s">
+      <c r="BP8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="BQ8" s="22" t="s">
+      <c r="BQ8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="BR8" s="22" t="s">
+      <c r="BR8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="BS8" s="22" t="s">
+      <c r="BS8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="BT8" s="22" t="s">
+      <c r="BT8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="BU8" s="22" t="s">
+      <c r="BU8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="BV8" s="22" t="s">
+      <c r="BV8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="BW8" s="22" t="s">
+      <c r="BW8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="BX8" s="22" t="s">
+      <c r="BX8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="BY8" s="22" t="s">
+      <c r="BY8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="BZ8" s="21" t="s">
+      <c r="BZ8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="CA8" s="21" t="s">
+      <c r="CA8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="CB8" s="22" t="s">
+      <c r="CB8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC8" s="22" t="s">
+      <c r="CC8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="CD8" s="22" t="s">
+      <c r="CD8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="CE8" s="22" t="s">
+      <c r="CE8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CF8" s="22" t="s">
+      <c r="CF8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="CG8" s="22" t="s">
+      <c r="CG8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="CH8" s="22" t="s">
+      <c r="CH8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="CI8" s="22" t="s">
+      <c r="CI8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="CJ8" s="22" t="s">
+      <c r="CJ8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="CK8" s="22" t="s">
+      <c r="CK8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="CL8" s="22" t="s">
+      <c r="CL8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="CM8" s="22" t="s">
+      <c r="CM8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="CN8" s="22" t="s">
+      <c r="CN8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="CO8" s="22" t="s">
+      <c r="CO8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="CP8" s="22" t="s">
+      <c r="CP8" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="14">
+      <c r="K9" s="29">
         <v>1</v>
       </c>
       <c r="L9" s="10">
@@ -1217,9 +1217,9 @@
       <c r="O9" s="10">
         <v>1</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="4">
         <f>AR9*W9+AT9*X9+AV9*Y9+$L$4*BE9</f>
         <v>0</v>
@@ -1264,11 +1264,11 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
       <c r="AI9" s="4">
         <v>0</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="BX9" s="4">
-        <f t="shared" ref="BX9:BY12" si="2">$L$2*AP9*$L$4</f>
+        <f t="shared" ref="BX9:BY9" si="2">$L$2*AP9*$L$4</f>
         <v>-1.2500000000000001E-2</v>
       </c>
       <c r="BY9" s="4">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="10" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="14"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="11">
         <v>80</v>
       </c>
@@ -1496,9 +1496,9 @@
       <c r="O10" s="11">
         <v>1</v>
       </c>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="8">
         <f t="shared" ref="S10:S12" si="4">AR10*W10+AT10*X10+AV10*Y10+$L$4*BE10</f>
         <v>0</v>
@@ -1543,11 +1543,11 @@
         <f t="shared" ref="AC10:AC12" si="14">1/(1+EXP(-V10))</f>
         <v>0.50468736267572623</v>
       </c>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
       <c r="AI10" s="8">
         <v>0</v>
       </c>
@@ -1676,30 +1676,30 @@
       </c>
       <c r="BO10" s="8">
         <f>$L$2*AP10*Z10+BO9*$L$3</f>
-        <v>-6.8158638317207913E-3</v>
+        <v>-6.1908638317207908E-3</v>
       </c>
       <c r="BP10" s="8">
         <f>$L$2*AQ10*Z10+BP9*$L$3</f>
-        <v>6.8158638317207931E-3</v>
+        <v>6.1908638317207925E-3</v>
       </c>
       <c r="BQ10" s="8">
         <f>$L$2*AP10*AA10+BQ9*$L$3</f>
-        <v>-6.8158638317207913E-3</v>
+        <v>-6.1908638317207908E-3</v>
       </c>
       <c r="BR10" s="8">
         <f>$L$2*AQ10*AA10+BR9*$L$3</f>
-        <v>6.8158638317207931E-3</v>
+        <v>6.1908638317207925E-3</v>
       </c>
       <c r="BS10" s="5">
-        <f t="shared" ref="BS10:BS12" si="38">$L$2*AX10*AG10</f>
+        <f t="shared" ref="BS10" si="38">$L$2*AX10*AG10</f>
         <v>0</v>
       </c>
       <c r="BT10" s="5">
-        <f t="shared" ref="BT10:BT12" si="39">$L$2*AY10*AH10</f>
+        <f t="shared" ref="BT10" si="39">$L$2*AY10*AH10</f>
         <v>0</v>
       </c>
       <c r="BU10" s="5">
-        <f t="shared" ref="BU10:BU12" si="40">$L$2*AZ10*AI10</f>
+        <f t="shared" ref="BU10" si="40">$L$2*AZ10*AI10</f>
         <v>0</v>
       </c>
       <c r="BV10" s="8">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="BX10" s="8">
         <f>$L$2*AP10*$L$4+BX9*$L$3</f>
-        <v>-1.3631727663441583E-2</v>
+        <v>-1.2381727663441582E-2</v>
       </c>
       <c r="BY10" s="8">
         <f>$L$2*AQ10*$L$4+BY9*$L$3</f>
-        <v>1.3631727663441586E-2</v>
+        <v>1.2381727663441585E-2</v>
       </c>
       <c r="BZ10" s="8">
         <f t="shared" ref="BZ10:BZ12" si="41">AR10+BI10</f>
@@ -1744,19 +1744,19 @@
       </c>
       <c r="CF10" s="8">
         <f t="shared" si="3"/>
-        <v>-1.3065863831720792E-2</v>
+        <v>-1.2440863831720791E-2</v>
       </c>
       <c r="CG10" s="8">
         <f t="shared" si="3"/>
-        <v>1.3065863831720793E-2</v>
+        <v>1.2440863831720793E-2</v>
       </c>
       <c r="CH10" s="8">
         <f t="shared" si="3"/>
-        <v>-1.3065863831720792E-2</v>
+        <v>-1.2440863831720791E-2</v>
       </c>
       <c r="CI10" s="8">
         <f t="shared" si="3"/>
-        <v>1.3065863831720793E-2</v>
+        <v>1.2440863831720793E-2</v>
       </c>
       <c r="CJ10" s="5">
         <f t="shared" si="3"/>
@@ -1780,15 +1780,15 @@
       </c>
       <c r="CO10" s="8">
         <f t="shared" si="3"/>
-        <v>-2.6131727663441583E-2</v>
+        <v>-2.4881727663441582E-2</v>
       </c>
       <c r="CP10" s="8">
         <f t="shared" si="3"/>
-        <v>2.6131727663441587E-2</v>
+        <v>2.4881727663441586E-2</v>
       </c>
     </row>
     <row r="11" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="14"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="11">
         <v>83</v>
       </c>
@@ -1801,9 +1801,9 @@
       <c r="O11" s="11">
         <v>0</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="8">
         <f t="shared" si="4"/>
         <v>0.55644257977485445</v>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="U11" s="8">
         <f t="shared" si="6"/>
-        <v>-4.2741812187511496E-2</v>
+        <v>-4.0697275908758886E-2</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="7"/>
-        <v>4.2741812187511496E-2</v>
+        <v>4.0697275908758893E-2</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="8"/>
@@ -1842,17 +1842,17 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>0.48931617339379146</v>
+        <v>0.4898270850737334</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" si="14"/>
-        <v>0.51068382660620859</v>
-      </c>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
+        <v>0.5101729149262666</v>
+      </c>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="15"/>
+      <c r="AF11" s="15"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
       <c r="AI11" s="8">
         <v>1</v>
       </c>
@@ -1861,11 +1861,11 @@
       </c>
       <c r="AK11" s="8">
         <f t="shared" si="15"/>
-        <v>3.2542625977694577E-2</v>
+        <v>3.0956283635477134E-2</v>
       </c>
       <c r="AL11" s="8">
         <f t="shared" si="16"/>
-        <v>3.9321542812821887E-2</v>
+        <v>3.7404751329305777E-2</v>
       </c>
       <c r="AM11" s="8">
         <f t="shared" si="17"/>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="AN11" s="8">
         <f t="shared" si="18"/>
-        <v>-7.723415478546017E-4</v>
+        <v>-7.346925240525493E-4</v>
       </c>
       <c r="AO11" s="8">
         <f t="shared" si="19"/>
-        <v>-7.723415478546017E-4</v>
+        <v>-7.346925240525493E-4</v>
       </c>
       <c r="AP11" s="8">
         <f t="shared" si="20"/>
-        <v>0.12761266507975952</v>
+        <v>0.12749043185588302</v>
       </c>
       <c r="AQ11" s="8">
         <f t="shared" si="21"/>
-        <v>-0.12761266507975949</v>
+        <v>-0.12749043185588302</v>
       </c>
       <c r="AR11" s="8">
         <f t="shared" ref="AR11:AR12" si="42">BZ10</f>
@@ -1913,19 +1913,19 @@
       </c>
       <c r="AX11" s="8">
         <f t="shared" si="27"/>
-        <v>-1.3065863831720792E-2</v>
+        <v>-1.2440863831720791E-2</v>
       </c>
       <c r="AY11" s="8">
         <f t="shared" si="28"/>
-        <v>1.3065863831720793E-2</v>
+        <v>1.2440863831720793E-2</v>
       </c>
       <c r="AZ11" s="8">
         <f t="shared" si="29"/>
-        <v>-1.3065863831720792E-2</v>
+        <v>-1.2440863831720791E-2</v>
       </c>
       <c r="BA11" s="8">
         <f t="shared" si="30"/>
-        <v>1.3065863831720793E-2</v>
+        <v>1.2440863831720793E-2</v>
       </c>
       <c r="BB11" s="5">
         <f t="shared" si="31"/>
@@ -1949,51 +1949,51 @@
       </c>
       <c r="BG11" s="8">
         <f t="shared" si="36"/>
-        <v>-2.6131727663441583E-2</v>
+        <v>-2.4881727663441582E-2</v>
       </c>
       <c r="BH11" s="8">
         <f t="shared" si="37"/>
-        <v>2.6131727663441587E-2</v>
+        <v>2.4881727663441586E-2</v>
       </c>
       <c r="BI11" s="8">
         <f t="shared" ref="BI11:BI12" si="43">$L$2*AN11*W11+$L$3*BI10</f>
-        <v>-6.1008916556071551E-3</v>
+        <v>-6.0979479496361599E-3</v>
       </c>
       <c r="BJ11" s="8">
         <f t="shared" ref="BJ11:BJ12" si="44">$L$2*AO11*W11+$L$3*BJ10</f>
-        <v>-6.1008916556071551E-3</v>
+        <v>-6.0979479496361599E-3</v>
       </c>
       <c r="BK11" s="8">
         <f t="shared" ref="BK11:BK12" si="45">$L$2*AN11*X11+BK10*$L$3</f>
-        <v>-6.2939012210152809E-3</v>
+        <v>-6.3183557068519245E-3</v>
       </c>
       <c r="BL11" s="8">
         <f t="shared" ref="BL11:BL12" si="46">$L$2*AO11*X11+BL10*$L$3</f>
-        <v>-6.2939012210152809E-3</v>
+        <v>-6.3183557068519245E-3</v>
       </c>
       <c r="BM11" s="8">
         <f t="shared" ref="BM11:BM12" si="47">$L$2*AN11*Y11+BM10*$L$3</f>
-        <v>-7.7234154785460178E-5</v>
+        <v>-7.3469252405254938E-5</v>
       </c>
       <c r="BN11" s="8">
         <f t="shared" ref="BN11:BN12" si="48">$L$2*AO11*Y11+BN10*$L$3</f>
-        <v>-7.7234154785460178E-5</v>
+        <v>-7.3469252405254938E-5</v>
       </c>
       <c r="BO11" s="8">
         <f t="shared" ref="BO11:BO12" si="49">$L$2*AP11*Z11+BO10*$L$3</f>
-        <v>7.4298449795618948E-3</v>
+        <v>8.1036618642668715E-3</v>
       </c>
       <c r="BP11" s="8">
         <f t="shared" ref="BP11:BP12" si="50">$L$2*AQ11*Z11+BP10*$L$3</f>
-        <v>-7.4298449795618905E-3</v>
+        <v>-8.1036618642668715E-3</v>
       </c>
       <c r="BQ11" s="8">
         <f t="shared" ref="BQ11:BQ12" si="51">$L$2*AP11*AA11+BQ10*$L$3</f>
-        <v>7.4298449795618948E-3</v>
+        <v>8.1036618642668715E-3</v>
       </c>
       <c r="BR11" s="8">
         <f t="shared" ref="BR11:BR12" si="52">$L$2*AQ11*AA11+BR10*$L$3</f>
-        <v>-7.4298449795618905E-3</v>
+        <v>-8.1036618642668715E-3</v>
       </c>
       <c r="BS11" s="5">
         <f t="shared" ref="BS11:BS12" si="53">$L$2*AX11*AG11</f>
@@ -2005,63 +2005,63 @@
       </c>
       <c r="BU11" s="5">
         <f t="shared" ref="BU11:BU12" si="55">$L$2*AZ11*AI11</f>
-        <v>-1.3065863831720793E-3</v>
+        <v>-1.2440863831720793E-3</v>
       </c>
       <c r="BV11" s="8">
         <f t="shared" ref="BV11:BV12" si="56">$L$2*AN11*$L$4+BV10*$L$3</f>
-        <v>-7.3364864890634681E-5</v>
+        <v>-7.3469252405254938E-5</v>
       </c>
       <c r="BW11" s="8">
         <f t="shared" ref="BW11:BW12" si="57">$L$2*AO11*$L$4+BW10*$L$3</f>
-        <v>-7.3364864890634681E-5</v>
+        <v>-7.3469252405254938E-5</v>
       </c>
       <c r="BX11" s="8">
         <f t="shared" ref="BX11:BX12" si="58">$L$2*AP11*$L$4+BX10*$L$3</f>
-        <v>1.1398093741631796E-2</v>
+        <v>1.2749043185588303E-2</v>
       </c>
       <c r="BY11" s="8">
         <f t="shared" ref="BY11:BY12" si="59">$L$2*AQ11*$L$4+BY10*$L$3</f>
-        <v>-1.139809374163179E-2</v>
+        <v>-1.2749043185588303E-2</v>
       </c>
       <c r="BZ11" s="8">
         <f t="shared" si="41"/>
-        <v>-3.0054597397467593E-3</v>
+        <v>-3.0025160337757641E-3</v>
       </c>
       <c r="CA11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.0054597397467593E-3</v>
+        <v>-3.0025160337757641E-3</v>
       </c>
       <c r="CB11" s="8">
         <f t="shared" si="3"/>
-        <v>-2.8115403156723355E-3</v>
+        <v>-2.8359948015089791E-3</v>
       </c>
       <c r="CC11" s="8">
         <f t="shared" si="3"/>
-        <v>-2.8115403156723355E-3</v>
+        <v>-2.8359948015089791E-3</v>
       </c>
       <c r="CD11" s="8">
         <f t="shared" si="3"/>
-        <v>-7.7234154785460178E-5</v>
+        <v>-7.3469252405254938E-5</v>
       </c>
       <c r="CE11" s="8">
         <f t="shared" si="3"/>
-        <v>-7.7234154785460178E-5</v>
+        <v>-7.3469252405254938E-5</v>
       </c>
       <c r="CF11" s="8">
         <f t="shared" si="3"/>
-        <v>-5.6360188521588968E-3</v>
+        <v>-4.3372019674539197E-3</v>
       </c>
       <c r="CG11" s="8">
         <f t="shared" si="3"/>
-        <v>5.6360188521589029E-3</v>
+        <v>4.3372019674539214E-3</v>
       </c>
       <c r="CH11" s="8">
         <f t="shared" si="3"/>
-        <v>-5.6360188521588968E-3</v>
+        <v>-4.3372019674539197E-3</v>
       </c>
       <c r="CI11" s="8">
         <f t="shared" si="3"/>
-        <v>5.6360188521589029E-3</v>
+        <v>4.3372019674539214E-3</v>
       </c>
       <c r="CJ11" s="5">
         <f t="shared" si="3"/>
@@ -2073,27 +2073,27 @@
       </c>
       <c r="CL11" s="5">
         <f t="shared" si="3"/>
-        <v>-1.3065863831720793E-3</v>
+        <v>-1.2440863831720793E-3</v>
       </c>
       <c r="CM11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.4671965942379733E-5</v>
+        <v>-3.477635345699999E-5</v>
       </c>
       <c r="CN11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.4671965942379733E-5</v>
+        <v>-3.477635345699999E-5</v>
       </c>
       <c r="CO11" s="8">
         <f t="shared" si="3"/>
-        <v>-1.4733633921809788E-2</v>
+        <v>-1.2132684477853279E-2</v>
       </c>
       <c r="CP11" s="8">
         <f t="shared" si="3"/>
-        <v>1.4733633921809796E-2</v>
+        <v>1.2132684477853282E-2</v>
       </c>
     </row>
     <row r="12" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="14"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="6">
         <v>70</v>
       </c>
@@ -2106,24 +2106,24 @@
       <c r="O12" s="6">
         <v>0</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
       <c r="S12" s="9">
         <f t="shared" si="4"/>
-        <v>-0.48040195820754522</v>
+        <v>-0.48253986891502776</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="5"/>
-        <v>-0.48040195820754522</v>
+        <v>-0.48253986891502776</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="6"/>
-        <v>-1.9041324437377535E-2</v>
+        <v>-1.544329287500092E-2</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="7"/>
-        <v>1.9041324437377549E-2</v>
+        <v>1.5443292875000927E-2</v>
       </c>
       <c r="W12" s="12">
         <f t="shared" si="8"/>
@@ -2139,25 +2139,25 @@
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="11"/>
-        <v>0.38215721314680051</v>
+        <v>0.38165255180531493</v>
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="12"/>
-        <v>0.38215721314680051</v>
+        <v>0.38165255180531493</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="13"/>
-        <v>0.49523981271568629</v>
+        <v>0.49613925351176752</v>
       </c>
       <c r="AC12" s="9">
         <f t="shared" si="14"/>
-        <v>0.50476018728431382</v>
-      </c>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
-      <c r="AF12" s="20"/>
-      <c r="AG12" s="20"/>
-      <c r="AH12" s="20"/>
+        <v>0.50386074648823254</v>
+      </c>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
       <c r="AI12" s="9">
         <v>1</v>
       </c>
@@ -2166,11 +2166,11 @@
       </c>
       <c r="AK12" s="9">
         <f t="shared" si="15"/>
-        <v>-9.7498122395020936E-3</v>
+        <v>-7.478723676312444E-3</v>
       </c>
       <c r="AL12" s="9">
         <f t="shared" si="16"/>
-        <v>-1.7221753172806952E-2</v>
+        <v>-1.3338140565415976E-2</v>
       </c>
       <c r="AM12" s="9">
         <f t="shared" si="17"/>
@@ -2178,59 +2178,59 @@
       </c>
       <c r="AN12" s="9">
         <f t="shared" si="18"/>
-        <v>-3.3582127883264668E-4</v>
+        <v>-2.5784874713035121E-4</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="19"/>
-        <v>-3.3582127883264668E-4</v>
+        <v>-2.5784874713035121E-4</v>
       </c>
       <c r="AP12" s="9">
         <f t="shared" si="20"/>
-        <v>0.12617860926668081</v>
+        <v>0.12595767639450536</v>
       </c>
       <c r="AQ12" s="9">
         <f t="shared" si="21"/>
-        <v>-0.12617860926668084</v>
+        <v>-0.12595767639450536</v>
       </c>
       <c r="AR12" s="9">
         <f t="shared" si="42"/>
-        <v>-3.0054597397467593E-3</v>
+        <v>-3.0025160337757641E-3</v>
       </c>
       <c r="AS12" s="9">
         <f t="shared" si="22"/>
-        <v>-3.0054597397467593E-3</v>
+        <v>-3.0025160337757641E-3</v>
       </c>
       <c r="AT12" s="9">
         <f t="shared" si="23"/>
-        <v>-2.8115403156723355E-3</v>
+        <v>-2.8359948015089791E-3</v>
       </c>
       <c r="AU12" s="9">
         <f t="shared" si="24"/>
-        <v>-2.8115403156723355E-3</v>
+        <v>-2.8359948015089791E-3</v>
       </c>
       <c r="AV12" s="9">
         <f t="shared" si="25"/>
-        <v>-7.7234154785460178E-5</v>
+        <v>-7.3469252405254938E-5</v>
       </c>
       <c r="AW12" s="9">
         <f t="shared" si="26"/>
-        <v>-7.7234154785460178E-5</v>
+        <v>-7.3469252405254938E-5</v>
       </c>
       <c r="AX12" s="9">
         <f t="shared" si="27"/>
-        <v>-5.6360188521588968E-3</v>
+        <v>-4.3372019674539197E-3</v>
       </c>
       <c r="AY12" s="9">
         <f t="shared" si="28"/>
-        <v>5.6360188521589029E-3</v>
+        <v>4.3372019674539214E-3</v>
       </c>
       <c r="AZ12" s="9">
         <f t="shared" si="29"/>
-        <v>-5.6360188521588968E-3</v>
+        <v>-4.3372019674539197E-3</v>
       </c>
       <c r="BA12" s="9">
         <f t="shared" si="30"/>
-        <v>5.6360188521589029E-3</v>
+        <v>4.3372019674539214E-3</v>
       </c>
       <c r="BB12" s="7">
         <f t="shared" si="31"/>
@@ -2242,63 +2242,63 @@
       </c>
       <c r="BD12" s="7">
         <f t="shared" si="33"/>
-        <v>-1.3065863831720793E-3</v>
+        <v>-1.2440863831720793E-3</v>
       </c>
       <c r="BE12" s="9">
         <f t="shared" si="34"/>
-        <v>-3.4671965942379733E-5</v>
+        <v>-3.477635345699999E-5</v>
       </c>
       <c r="BF12" s="9">
         <f t="shared" si="35"/>
-        <v>-3.4671965942379733E-5</v>
+        <v>-3.477635345699999E-5</v>
       </c>
       <c r="BG12" s="9">
         <f t="shared" si="36"/>
-        <v>-1.4733633921809788E-2</v>
+        <v>-1.2132684477853279E-2</v>
       </c>
       <c r="BH12" s="9">
         <f t="shared" si="37"/>
-        <v>1.4733633921809796E-2</v>
+        <v>1.2132684477853282E-2</v>
       </c>
       <c r="BI12" s="9">
         <f t="shared" si="43"/>
-        <v>-2.9608381173892428E-3</v>
+        <v>-1.8049412299124587E-3</v>
       </c>
       <c r="BJ12" s="9">
         <f t="shared" si="44"/>
-        <v>-2.9608381173892428E-3</v>
+        <v>-1.8049412299124587E-3</v>
       </c>
       <c r="BK12" s="9">
         <f t="shared" si="45"/>
-        <v>-3.8532743988949365E-3</v>
+        <v>-2.4753479724513717E-3</v>
       </c>
       <c r="BL12" s="9">
         <f t="shared" si="46"/>
-        <v>-3.8532743988949365E-3</v>
+        <v>-2.4753479724513717E-3</v>
       </c>
       <c r="BM12" s="9">
         <f t="shared" si="47"/>
-        <v>-4.130554336181069E-5</v>
+        <v>-2.5784874713035123E-5</v>
       </c>
       <c r="BN12" s="9">
         <f t="shared" si="48"/>
-        <v>-4.130554336181069E-5</v>
+        <v>-2.5784874713035123E-5</v>
       </c>
       <c r="BO12" s="9">
         <f t="shared" si="49"/>
-        <v>5.5649910655655695E-3</v>
+        <v>4.8072068615431056E-3</v>
       </c>
       <c r="BP12" s="9">
         <f t="shared" si="50"/>
-        <v>-5.5649910655655695E-3</v>
+        <v>-4.8072068615431056E-3</v>
       </c>
       <c r="BQ12" s="9">
         <f t="shared" si="51"/>
-        <v>5.5649910655655695E-3</v>
+        <v>4.8072068615431056E-3</v>
       </c>
       <c r="BR12" s="9">
         <f t="shared" si="52"/>
-        <v>-5.5649910655655695E-3</v>
+        <v>-4.8072068615431056E-3</v>
       </c>
       <c r="BS12" s="7">
         <f t="shared" si="53"/>
@@ -2310,63 +2310,63 @@
       </c>
       <c r="BU12" s="7">
         <f t="shared" si="55"/>
-        <v>-5.6360188521588968E-4</v>
+        <v>-4.3372019674539197E-4</v>
       </c>
       <c r="BV12" s="9">
         <f t="shared" si="56"/>
-        <v>-4.0918614372328141E-5</v>
+        <v>-2.5784874713035123E-5</v>
       </c>
       <c r="BW12" s="9">
         <f t="shared" si="57"/>
-        <v>-4.0918614372328141E-5</v>
+        <v>-2.5784874713035123E-5</v>
       </c>
       <c r="BX12" s="9">
         <f t="shared" si="58"/>
-        <v>1.3757670300831262E-2</v>
+        <v>1.2595767639450537E-2</v>
       </c>
       <c r="BY12" s="9">
         <f t="shared" si="59"/>
-        <v>-1.3757670300831262E-2</v>
+        <v>-1.2595767639450537E-2</v>
       </c>
       <c r="BZ12" s="9">
         <f t="shared" si="41"/>
-        <v>-5.9662978571360017E-3</v>
+        <v>-4.8074572636882225E-3</v>
       </c>
       <c r="CA12" s="9">
         <f t="shared" si="3"/>
-        <v>-5.9662978571360017E-3</v>
+        <v>-4.8074572636882225E-3</v>
       </c>
       <c r="CB12" s="9">
         <f t="shared" si="3"/>
-        <v>-6.6648147145672715E-3</v>
+        <v>-5.3113427739603508E-3</v>
       </c>
       <c r="CC12" s="9">
         <f t="shared" si="3"/>
-        <v>-6.6648147145672715E-3</v>
+        <v>-5.3113427739603508E-3</v>
       </c>
       <c r="CD12" s="9">
         <f t="shared" si="3"/>
-        <v>-1.1853969814727087E-4</v>
+        <v>-9.9254127118290065E-5</v>
       </c>
       <c r="CE12" s="9">
         <f t="shared" si="3"/>
-        <v>-1.1853969814727087E-4</v>
+        <v>-9.9254127118290065E-5</v>
       </c>
       <c r="CF12" s="9">
         <f t="shared" si="3"/>
-        <v>-7.1027786593327348E-5</v>
+        <v>4.7000489408918593E-4</v>
       </c>
       <c r="CG12" s="9">
         <f t="shared" si="3"/>
-        <v>7.102778659333342E-5</v>
+        <v>-4.7000489408918419E-4</v>
       </c>
       <c r="CH12" s="9">
         <f t="shared" si="3"/>
-        <v>-7.1027786593327348E-5</v>
+        <v>4.7000489408918593E-4</v>
       </c>
       <c r="CI12" s="9">
         <f t="shared" si="3"/>
-        <v>7.102778659333342E-5</v>
+        <v>-4.7000489408918419E-4</v>
       </c>
       <c r="CJ12" s="7">
         <f t="shared" si="3"/>
@@ -2378,28 +2378,34 @@
       </c>
       <c r="CL12" s="7">
         <f t="shared" si="3"/>
-        <v>-1.870188268387969E-3</v>
+        <v>-1.6778065799174713E-3</v>
       </c>
       <c r="CM12" s="9">
         <f t="shared" si="3"/>
-        <v>-7.5590580314707881E-5</v>
+        <v>-6.0561228170035117E-5</v>
       </c>
       <c r="CN12" s="9">
         <f t="shared" si="3"/>
-        <v>-7.5590580314707881E-5</v>
+        <v>-6.0561228170035117E-5</v>
       </c>
       <c r="CO12" s="9">
         <f t="shared" si="3"/>
-        <v>-9.7596362097852538E-4</v>
+        <v>4.6308316159725769E-4</v>
       </c>
       <c r="CP12" s="9">
         <f t="shared" si="3"/>
-        <v>9.7596362097853405E-4</v>
+        <v>-4.6308316159725423E-4</v>
       </c>
     </row>
     <row r="13" spans="11:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="K6:K8"/>
     <mergeCell ref="BZ7:CP7"/>
     <mergeCell ref="AR6:CP6"/>
     <mergeCell ref="P6:AQ6"/>
@@ -2409,12 +2415,6 @@
     <mergeCell ref="AD7:AJ7"/>
     <mergeCell ref="AR7:BH7"/>
     <mergeCell ref="BI7:BY7"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K9:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/helper ANN/MLP/simplified.weather.numeric.xlsx
+++ b/helper ANN/MLP/simplified.weather.numeric.xlsx
@@ -334,6 +334,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,12 +363,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +719,7 @@
   <dimension ref="K1:CP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="K9" sqref="K9:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,211 +758,211 @@
     </row>
     <row r="5" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="28" t="s">
+      <c r="K6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="21" t="s">
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BX6" s="21"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
-      <c r="CM6" s="21"/>
-      <c r="CN6" s="21"/>
-      <c r="CO6" s="21"/>
-      <c r="CP6" s="21"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="23"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="23"/>
+      <c r="BH6" s="23"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="23"/>
+      <c r="BK6" s="23"/>
+      <c r="BL6" s="23"/>
+      <c r="BM6" s="23"/>
+      <c r="BN6" s="23"/>
+      <c r="BO6" s="23"/>
+      <c r="BP6" s="23"/>
+      <c r="BQ6" s="23"/>
+      <c r="BR6" s="23"/>
+      <c r="BS6" s="23"/>
+      <c r="BT6" s="23"/>
+      <c r="BU6" s="23"/>
+      <c r="BV6" s="23"/>
+      <c r="BW6" s="23"/>
+      <c r="BX6" s="23"/>
+      <c r="BY6" s="23"/>
+      <c r="BZ6" s="23"/>
+      <c r="CA6" s="23"/>
+      <c r="CB6" s="23"/>
+      <c r="CC6" s="23"/>
+      <c r="CD6" s="23"/>
+      <c r="CE6" s="23"/>
+      <c r="CF6" s="23"/>
+      <c r="CG6" s="23"/>
+      <c r="CH6" s="23"/>
+      <c r="CI6" s="23"/>
+      <c r="CJ6" s="23"/>
+      <c r="CK6" s="23"/>
+      <c r="CL6" s="23"/>
+      <c r="CM6" s="23"/>
+      <c r="CN6" s="23"/>
+      <c r="CO6" s="23"/>
+      <c r="CP6" s="23"/>
     </row>
     <row r="7" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="20" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20" t="s">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20" t="s">
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="25" t="s">
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="20" t="s">
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="20"/>
-      <c r="BB7" s="20"/>
-      <c r="BC7" s="20"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="20"/>
-      <c r="BF7" s="20"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="20"/>
-      <c r="BI7" s="20" t="s">
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
+      <c r="BD7" s="22"/>
+      <c r="BE7" s="22"/>
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="22"/>
+      <c r="BH7" s="22"/>
+      <c r="BI7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="BJ7" s="20"/>
-      <c r="BK7" s="20"/>
-      <c r="BL7" s="20"/>
-      <c r="BM7" s="20"/>
-      <c r="BN7" s="20"/>
-      <c r="BO7" s="20"/>
-      <c r="BP7" s="20"/>
-      <c r="BQ7" s="20"/>
-      <c r="BR7" s="20"/>
-      <c r="BS7" s="20"/>
-      <c r="BT7" s="20"/>
-      <c r="BU7" s="20"/>
-      <c r="BV7" s="20"/>
-      <c r="BW7" s="20"/>
-      <c r="BX7" s="20"/>
-      <c r="BY7" s="20"/>
-      <c r="BZ7" s="20" t="s">
+      <c r="BJ7" s="22"/>
+      <c r="BK7" s="22"/>
+      <c r="BL7" s="22"/>
+      <c r="BM7" s="22"/>
+      <c r="BN7" s="22"/>
+      <c r="BO7" s="22"/>
+      <c r="BP7" s="22"/>
+      <c r="BQ7" s="22"/>
+      <c r="BR7" s="22"/>
+      <c r="BS7" s="22"/>
+      <c r="BT7" s="22"/>
+      <c r="BU7" s="22"/>
+      <c r="BV7" s="22"/>
+      <c r="BW7" s="22"/>
+      <c r="BX7" s="22"/>
+      <c r="BY7" s="22"/>
+      <c r="BZ7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CA7" s="20"/>
-      <c r="CB7" s="20"/>
-      <c r="CC7" s="20"/>
-      <c r="CD7" s="20"/>
-      <c r="CE7" s="20"/>
-      <c r="CF7" s="20"/>
-      <c r="CG7" s="20"/>
-      <c r="CH7" s="20"/>
-      <c r="CI7" s="20"/>
-      <c r="CJ7" s="20"/>
-      <c r="CK7" s="20"/>
-      <c r="CL7" s="20"/>
-      <c r="CM7" s="20"/>
-      <c r="CN7" s="20"/>
-      <c r="CO7" s="20"/>
-      <c r="CP7" s="20"/>
+      <c r="CA7" s="22"/>
+      <c r="CB7" s="22"/>
+      <c r="CC7" s="22"/>
+      <c r="CD7" s="22"/>
+      <c r="CE7" s="22"/>
+      <c r="CF7" s="22"/>
+      <c r="CG7" s="22"/>
+      <c r="CH7" s="22"/>
+      <c r="CI7" s="22"/>
+      <c r="CJ7" s="22"/>
+      <c r="CK7" s="22"/>
+      <c r="CL7" s="22"/>
+      <c r="CM7" s="22"/>
+      <c r="CN7" s="22"/>
+      <c r="CO7" s="22"/>
+      <c r="CP7" s="22"/>
     </row>
     <row r="8" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="2">
         <v>0</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="9" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="29">
+      <c r="K9" s="20">
         <v>1</v>
       </c>
       <c r="L9" s="10">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="10" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="29"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="11">
         <v>80</v>
       </c>
@@ -1788,7 +1788,7 @@
       </c>
     </row>
     <row r="11" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="29"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="11">
         <v>83</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="12" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="29"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="6">
         <v>70</v>
       </c>
@@ -2400,12 +2400,6 @@
     <row r="13" spans="11:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="K6:K8"/>
     <mergeCell ref="BZ7:CP7"/>
     <mergeCell ref="AR6:CP6"/>
     <mergeCell ref="P6:AQ6"/>
@@ -2415,6 +2409,12 @@
     <mergeCell ref="AD7:AJ7"/>
     <mergeCell ref="AR7:BH7"/>
     <mergeCell ref="BI7:BY7"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/helper ANN/MLP/simplified.weather.numeric.xlsx
+++ b/helper ANN/MLP/simplified.weather.numeric.xlsx
@@ -334,12 +334,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,6 +357,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K1:CP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K12"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -758,211 +758,211 @@
     </row>
     <row r="5" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="23" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="23"/>
-      <c r="AW6" s="23"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="23"/>
-      <c r="AZ6" s="23"/>
-      <c r="BA6" s="23"/>
-      <c r="BB6" s="23"/>
-      <c r="BC6" s="23"/>
-      <c r="BD6" s="23"/>
-      <c r="BE6" s="23"/>
-      <c r="BF6" s="23"/>
-      <c r="BG6" s="23"/>
-      <c r="BH6" s="23"/>
-      <c r="BI6" s="23"/>
-      <c r="BJ6" s="23"/>
-      <c r="BK6" s="23"/>
-      <c r="BL6" s="23"/>
-      <c r="BM6" s="23"/>
-      <c r="BN6" s="23"/>
-      <c r="BO6" s="23"/>
-      <c r="BP6" s="23"/>
-      <c r="BQ6" s="23"/>
-      <c r="BR6" s="23"/>
-      <c r="BS6" s="23"/>
-      <c r="BT6" s="23"/>
-      <c r="BU6" s="23"/>
-      <c r="BV6" s="23"/>
-      <c r="BW6" s="23"/>
-      <c r="BX6" s="23"/>
-      <c r="BY6" s="23"/>
-      <c r="BZ6" s="23"/>
-      <c r="CA6" s="23"/>
-      <c r="CB6" s="23"/>
-      <c r="CC6" s="23"/>
-      <c r="CD6" s="23"/>
-      <c r="CE6" s="23"/>
-      <c r="CF6" s="23"/>
-      <c r="CG6" s="23"/>
-      <c r="CH6" s="23"/>
-      <c r="CI6" s="23"/>
-      <c r="CJ6" s="23"/>
-      <c r="CK6" s="23"/>
-      <c r="CL6" s="23"/>
-      <c r="CM6" s="23"/>
-      <c r="CN6" s="23"/>
-      <c r="CO6" s="23"/>
-      <c r="CP6" s="23"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="21"/>
+      <c r="BQ6" s="21"/>
+      <c r="BR6" s="21"/>
+      <c r="BS6" s="21"/>
+      <c r="BT6" s="21"/>
+      <c r="BU6" s="21"/>
+      <c r="BV6" s="21"/>
+      <c r="BW6" s="21"/>
+      <c r="BX6" s="21"/>
+      <c r="BY6" s="21"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="21"/>
+      <c r="CC6" s="21"/>
+      <c r="CD6" s="21"/>
+      <c r="CE6" s="21"/>
+      <c r="CF6" s="21"/>
+      <c r="CG6" s="21"/>
+      <c r="CH6" s="21"/>
+      <c r="CI6" s="21"/>
+      <c r="CJ6" s="21"/>
+      <c r="CK6" s="21"/>
+      <c r="CL6" s="21"/>
+      <c r="CM6" s="21"/>
+      <c r="CN6" s="21"/>
+      <c r="CO6" s="21"/>
+      <c r="CP6" s="21"/>
     </row>
     <row r="7" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22" t="s">
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22" t="s">
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="27" t="s">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="22" t="s">
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
-      <c r="BC7" s="22"/>
-      <c r="BD7" s="22"/>
-      <c r="BE7" s="22"/>
-      <c r="BF7" s="22"/>
-      <c r="BG7" s="22"/>
-      <c r="BH7" s="22"/>
-      <c r="BI7" s="22" t="s">
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="20"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BJ7" s="22"/>
-      <c r="BK7" s="22"/>
-      <c r="BL7" s="22"/>
-      <c r="BM7" s="22"/>
-      <c r="BN7" s="22"/>
-      <c r="BO7" s="22"/>
-      <c r="BP7" s="22"/>
-      <c r="BQ7" s="22"/>
-      <c r="BR7" s="22"/>
-      <c r="BS7" s="22"/>
-      <c r="BT7" s="22"/>
-      <c r="BU7" s="22"/>
-      <c r="BV7" s="22"/>
-      <c r="BW7" s="22"/>
-      <c r="BX7" s="22"/>
-      <c r="BY7" s="22"/>
-      <c r="BZ7" s="22" t="s">
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
+      <c r="BM7" s="20"/>
+      <c r="BN7" s="20"/>
+      <c r="BO7" s="20"/>
+      <c r="BP7" s="20"/>
+      <c r="BQ7" s="20"/>
+      <c r="BR7" s="20"/>
+      <c r="BS7" s="20"/>
+      <c r="BT7" s="20"/>
+      <c r="BU7" s="20"/>
+      <c r="BV7" s="20"/>
+      <c r="BW7" s="20"/>
+      <c r="BX7" s="20"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CA7" s="22"/>
-      <c r="CB7" s="22"/>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="22"/>
-      <c r="CE7" s="22"/>
-      <c r="CF7" s="22"/>
-      <c r="CG7" s="22"/>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="22"/>
-      <c r="CK7" s="22"/>
-      <c r="CL7" s="22"/>
-      <c r="CM7" s="22"/>
-      <c r="CN7" s="22"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
+      <c r="CA7" s="20"/>
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="20"/>
+      <c r="CE7" s="20"/>
+      <c r="CF7" s="20"/>
+      <c r="CG7" s="20"/>
+      <c r="CH7" s="20"/>
+      <c r="CI7" s="20"/>
+      <c r="CJ7" s="20"/>
+      <c r="CK7" s="20"/>
+      <c r="CL7" s="20"/>
+      <c r="CM7" s="20"/>
+      <c r="CN7" s="20"/>
+      <c r="CO7" s="20"/>
+      <c r="CP7" s="20"/>
     </row>
     <row r="8" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="2">
         <v>0</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="9" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="20">
+      <c r="K9" s="28">
         <v>1</v>
       </c>
       <c r="L9" s="10">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="10" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="20"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="11">
         <v>80</v>
       </c>
@@ -1676,19 +1676,19 @@
       </c>
       <c r="BO10" s="8">
         <f>$L$2*AP10*Z10+BO9*$L$3</f>
-        <v>-6.1908638317207908E-3</v>
+        <v>-6.8158638317207913E-3</v>
       </c>
       <c r="BP10" s="8">
         <f>$L$2*AQ10*Z10+BP9*$L$3</f>
-        <v>6.1908638317207925E-3</v>
+        <v>6.8158638317207931E-3</v>
       </c>
       <c r="BQ10" s="8">
         <f>$L$2*AP10*AA10+BQ9*$L$3</f>
-        <v>-6.1908638317207908E-3</v>
+        <v>-6.8158638317207913E-3</v>
       </c>
       <c r="BR10" s="8">
         <f>$L$2*AQ10*AA10+BR9*$L$3</f>
-        <v>6.1908638317207925E-3</v>
+        <v>6.8158638317207931E-3</v>
       </c>
       <c r="BS10" s="5">
         <f t="shared" ref="BS10" si="38">$L$2*AX10*AG10</f>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="BX10" s="8">
         <f>$L$2*AP10*$L$4+BX9*$L$3</f>
-        <v>-1.2381727663441582E-2</v>
+        <v>-1.3631727663441583E-2</v>
       </c>
       <c r="BY10" s="8">
         <f>$L$2*AQ10*$L$4+BY9*$L$3</f>
-        <v>1.2381727663441585E-2</v>
+        <v>1.3631727663441586E-2</v>
       </c>
       <c r="BZ10" s="8">
         <f t="shared" ref="BZ10:BZ12" si="41">AR10+BI10</f>
@@ -1744,19 +1744,19 @@
       </c>
       <c r="CF10" s="8">
         <f t="shared" si="3"/>
-        <v>-1.2440863831720791E-2</v>
+        <v>-1.3065863831720792E-2</v>
       </c>
       <c r="CG10" s="8">
         <f t="shared" si="3"/>
-        <v>1.2440863831720793E-2</v>
+        <v>1.3065863831720793E-2</v>
       </c>
       <c r="CH10" s="8">
         <f t="shared" si="3"/>
-        <v>-1.2440863831720791E-2</v>
+        <v>-1.3065863831720792E-2</v>
       </c>
       <c r="CI10" s="8">
         <f t="shared" si="3"/>
-        <v>1.2440863831720793E-2</v>
+        <v>1.3065863831720793E-2</v>
       </c>
       <c r="CJ10" s="5">
         <f t="shared" si="3"/>
@@ -1780,15 +1780,15 @@
       </c>
       <c r="CO10" s="8">
         <f t="shared" si="3"/>
-        <v>-2.4881727663441582E-2</v>
+        <v>-2.6131727663441583E-2</v>
       </c>
       <c r="CP10" s="8">
         <f t="shared" si="3"/>
-        <v>2.4881727663441586E-2</v>
+        <v>2.6131727663441587E-2</v>
       </c>
     </row>
     <row r="11" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="20"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="11">
         <v>83</v>
       </c>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="U11" s="8">
         <f t="shared" si="6"/>
-        <v>-4.0697275908758886E-2</v>
+        <v>-4.2741812187511496E-2</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="7"/>
-        <v>4.0697275908758893E-2</v>
+        <v>4.2741812187511496E-2</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="8"/>
@@ -1842,11 +1842,11 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>0.4898270850737334</v>
+        <v>0.48931617339379146</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" si="14"/>
-        <v>0.5101729149262666</v>
+        <v>0.51068382660620859</v>
       </c>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
@@ -1861,11 +1861,11 @@
       </c>
       <c r="AK11" s="8">
         <f t="shared" si="15"/>
-        <v>3.0956283635477134E-2</v>
+        <v>3.2542625977694577E-2</v>
       </c>
       <c r="AL11" s="8">
         <f t="shared" si="16"/>
-        <v>3.7404751329305777E-2</v>
+        <v>3.9321542812821887E-2</v>
       </c>
       <c r="AM11" s="8">
         <f t="shared" si="17"/>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="AN11" s="8">
         <f t="shared" si="18"/>
-        <v>-7.346925240525493E-4</v>
+        <v>-7.723415478546017E-4</v>
       </c>
       <c r="AO11" s="8">
         <f t="shared" si="19"/>
-        <v>-7.346925240525493E-4</v>
+        <v>-7.723415478546017E-4</v>
       </c>
       <c r="AP11" s="8">
         <f t="shared" si="20"/>
-        <v>0.12749043185588302</v>
+        <v>0.12761266507975952</v>
       </c>
       <c r="AQ11" s="8">
         <f t="shared" si="21"/>
-        <v>-0.12749043185588302</v>
+        <v>-0.12761266507975949</v>
       </c>
       <c r="AR11" s="8">
         <f t="shared" ref="AR11:AR12" si="42">BZ10</f>
@@ -1913,19 +1913,19 @@
       </c>
       <c r="AX11" s="8">
         <f t="shared" si="27"/>
-        <v>-1.2440863831720791E-2</v>
+        <v>-1.3065863831720792E-2</v>
       </c>
       <c r="AY11" s="8">
         <f t="shared" si="28"/>
-        <v>1.2440863831720793E-2</v>
+        <v>1.3065863831720793E-2</v>
       </c>
       <c r="AZ11" s="8">
         <f t="shared" si="29"/>
-        <v>-1.2440863831720791E-2</v>
+        <v>-1.3065863831720792E-2</v>
       </c>
       <c r="BA11" s="8">
         <f t="shared" si="30"/>
-        <v>1.2440863831720793E-2</v>
+        <v>1.3065863831720793E-2</v>
       </c>
       <c r="BB11" s="5">
         <f t="shared" si="31"/>
@@ -1949,51 +1949,51 @@
       </c>
       <c r="BG11" s="8">
         <f t="shared" si="36"/>
-        <v>-2.4881727663441582E-2</v>
+        <v>-2.6131727663441583E-2</v>
       </c>
       <c r="BH11" s="8">
         <f t="shared" si="37"/>
-        <v>2.4881727663441586E-2</v>
+        <v>2.6131727663441587E-2</v>
       </c>
       <c r="BI11" s="8">
         <f t="shared" ref="BI11:BI12" si="43">$L$2*AN11*W11+$L$3*BI10</f>
-        <v>-6.0979479496361599E-3</v>
+        <v>-6.1008916556071551E-3</v>
       </c>
       <c r="BJ11" s="8">
         <f t="shared" ref="BJ11:BJ12" si="44">$L$2*AO11*W11+$L$3*BJ10</f>
-        <v>-6.0979479496361599E-3</v>
+        <v>-6.1008916556071551E-3</v>
       </c>
       <c r="BK11" s="8">
         <f t="shared" ref="BK11:BK12" si="45">$L$2*AN11*X11+BK10*$L$3</f>
-        <v>-6.3183557068519245E-3</v>
+        <v>-6.2939012210152809E-3</v>
       </c>
       <c r="BL11" s="8">
         <f t="shared" ref="BL11:BL12" si="46">$L$2*AO11*X11+BL10*$L$3</f>
-        <v>-6.3183557068519245E-3</v>
+        <v>-6.2939012210152809E-3</v>
       </c>
       <c r="BM11" s="8">
         <f t="shared" ref="BM11:BM12" si="47">$L$2*AN11*Y11+BM10*$L$3</f>
-        <v>-7.3469252405254938E-5</v>
+        <v>-7.7234154785460178E-5</v>
       </c>
       <c r="BN11" s="8">
         <f t="shared" ref="BN11:BN12" si="48">$L$2*AO11*Y11+BN10*$L$3</f>
-        <v>-7.3469252405254938E-5</v>
+        <v>-7.7234154785460178E-5</v>
       </c>
       <c r="BO11" s="8">
         <f t="shared" ref="BO11:BO12" si="49">$L$2*AP11*Z11+BO10*$L$3</f>
-        <v>8.1036618642668715E-3</v>
+        <v>7.4298449795618948E-3</v>
       </c>
       <c r="BP11" s="8">
         <f t="shared" ref="BP11:BP12" si="50">$L$2*AQ11*Z11+BP10*$L$3</f>
-        <v>-8.1036618642668715E-3</v>
+        <v>-7.4298449795618905E-3</v>
       </c>
       <c r="BQ11" s="8">
         <f t="shared" ref="BQ11:BQ12" si="51">$L$2*AP11*AA11+BQ10*$L$3</f>
-        <v>8.1036618642668715E-3</v>
+        <v>7.4298449795618948E-3</v>
       </c>
       <c r="BR11" s="8">
         <f t="shared" ref="BR11:BR12" si="52">$L$2*AQ11*AA11+BR10*$L$3</f>
-        <v>-8.1036618642668715E-3</v>
+        <v>-7.4298449795618905E-3</v>
       </c>
       <c r="BS11" s="5">
         <f t="shared" ref="BS11:BS12" si="53">$L$2*AX11*AG11</f>
@@ -2005,63 +2005,63 @@
       </c>
       <c r="BU11" s="5">
         <f t="shared" ref="BU11:BU12" si="55">$L$2*AZ11*AI11</f>
-        <v>-1.2440863831720793E-3</v>
+        <v>-1.3065863831720793E-3</v>
       </c>
       <c r="BV11" s="8">
         <f t="shared" ref="BV11:BV12" si="56">$L$2*AN11*$L$4+BV10*$L$3</f>
-        <v>-7.3469252405254938E-5</v>
+        <v>-7.3364864890634681E-5</v>
       </c>
       <c r="BW11" s="8">
         <f t="shared" ref="BW11:BW12" si="57">$L$2*AO11*$L$4+BW10*$L$3</f>
-        <v>-7.3469252405254938E-5</v>
+        <v>-7.3364864890634681E-5</v>
       </c>
       <c r="BX11" s="8">
         <f t="shared" ref="BX11:BX12" si="58">$L$2*AP11*$L$4+BX10*$L$3</f>
-        <v>1.2749043185588303E-2</v>
+        <v>1.1398093741631796E-2</v>
       </c>
       <c r="BY11" s="8">
         <f t="shared" ref="BY11:BY12" si="59">$L$2*AQ11*$L$4+BY10*$L$3</f>
-        <v>-1.2749043185588303E-2</v>
+        <v>-1.139809374163179E-2</v>
       </c>
       <c r="BZ11" s="8">
         <f t="shared" si="41"/>
-        <v>-3.0025160337757641E-3</v>
+        <v>-3.0054597397467593E-3</v>
       </c>
       <c r="CA11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.0025160337757641E-3</v>
+        <v>-3.0054597397467593E-3</v>
       </c>
       <c r="CB11" s="8">
         <f t="shared" si="3"/>
-        <v>-2.8359948015089791E-3</v>
+        <v>-2.8115403156723355E-3</v>
       </c>
       <c r="CC11" s="8">
         <f t="shared" si="3"/>
-        <v>-2.8359948015089791E-3</v>
+        <v>-2.8115403156723355E-3</v>
       </c>
       <c r="CD11" s="8">
         <f t="shared" si="3"/>
-        <v>-7.3469252405254938E-5</v>
+        <v>-7.7234154785460178E-5</v>
       </c>
       <c r="CE11" s="8">
         <f t="shared" si="3"/>
-        <v>-7.3469252405254938E-5</v>
+        <v>-7.7234154785460178E-5</v>
       </c>
       <c r="CF11" s="8">
         <f t="shared" si="3"/>
-        <v>-4.3372019674539197E-3</v>
+        <v>-5.6360188521588968E-3</v>
       </c>
       <c r="CG11" s="8">
         <f t="shared" si="3"/>
-        <v>4.3372019674539214E-3</v>
+        <v>5.6360188521589029E-3</v>
       </c>
       <c r="CH11" s="8">
         <f t="shared" si="3"/>
-        <v>-4.3372019674539197E-3</v>
+        <v>-5.6360188521588968E-3</v>
       </c>
       <c r="CI11" s="8">
         <f t="shared" si="3"/>
-        <v>4.3372019674539214E-3</v>
+        <v>5.6360188521589029E-3</v>
       </c>
       <c r="CJ11" s="5">
         <f t="shared" si="3"/>
@@ -2073,27 +2073,27 @@
       </c>
       <c r="CL11" s="5">
         <f t="shared" si="3"/>
-        <v>-1.2440863831720793E-3</v>
+        <v>-1.3065863831720793E-3</v>
       </c>
       <c r="CM11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.477635345699999E-5</v>
+        <v>-3.4671965942379733E-5</v>
       </c>
       <c r="CN11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.477635345699999E-5</v>
+        <v>-3.4671965942379733E-5</v>
       </c>
       <c r="CO11" s="8">
         <f t="shared" si="3"/>
-        <v>-1.2132684477853279E-2</v>
+        <v>-1.4733633921809788E-2</v>
       </c>
       <c r="CP11" s="8">
         <f t="shared" si="3"/>
-        <v>1.2132684477853282E-2</v>
+        <v>1.4733633921809796E-2</v>
       </c>
     </row>
     <row r="12" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="20"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="6">
         <v>70</v>
       </c>
@@ -2111,19 +2111,19 @@
       <c r="R12" s="16"/>
       <c r="S12" s="9">
         <f t="shared" si="4"/>
-        <v>-0.48253986891502776</v>
+        <v>-0.48040195820754522</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="5"/>
-        <v>-0.48253986891502776</v>
+        <v>-0.48040195820754522</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="6"/>
-        <v>-1.544329287500092E-2</v>
+        <v>-1.9041324437377535E-2</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="7"/>
-        <v>1.5443292875000927E-2</v>
+        <v>1.9041324437377549E-2</v>
       </c>
       <c r="W12" s="12">
         <f t="shared" si="8"/>
@@ -2139,19 +2139,19 @@
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="11"/>
-        <v>0.38165255180531493</v>
+        <v>0.38215721314680051</v>
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="12"/>
-        <v>0.38165255180531493</v>
+        <v>0.38215721314680051</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="13"/>
-        <v>0.49613925351176752</v>
+        <v>0.49523981271568629</v>
       </c>
       <c r="AC12" s="9">
         <f t="shared" si="14"/>
-        <v>0.50386074648823254</v>
+        <v>0.50476018728431382</v>
       </c>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
@@ -2166,11 +2166,11 @@
       </c>
       <c r="AK12" s="9">
         <f t="shared" si="15"/>
-        <v>-7.478723676312444E-3</v>
+        <v>-9.7498122395020936E-3</v>
       </c>
       <c r="AL12" s="9">
         <f t="shared" si="16"/>
-        <v>-1.3338140565415976E-2</v>
+        <v>-1.7221753172806952E-2</v>
       </c>
       <c r="AM12" s="9">
         <f t="shared" si="17"/>
@@ -2178,59 +2178,59 @@
       </c>
       <c r="AN12" s="9">
         <f t="shared" si="18"/>
-        <v>-2.5784874713035121E-4</v>
+        <v>-3.3582127883264668E-4</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="19"/>
-        <v>-2.5784874713035121E-4</v>
+        <v>-3.3582127883264668E-4</v>
       </c>
       <c r="AP12" s="9">
         <f t="shared" si="20"/>
-        <v>0.12595767639450536</v>
+        <v>0.12617860926668081</v>
       </c>
       <c r="AQ12" s="9">
         <f t="shared" si="21"/>
-        <v>-0.12595767639450536</v>
+        <v>-0.12617860926668084</v>
       </c>
       <c r="AR12" s="9">
         <f t="shared" si="42"/>
-        <v>-3.0025160337757641E-3</v>
+        <v>-3.0054597397467593E-3</v>
       </c>
       <c r="AS12" s="9">
         <f t="shared" si="22"/>
-        <v>-3.0025160337757641E-3</v>
+        <v>-3.0054597397467593E-3</v>
       </c>
       <c r="AT12" s="9">
         <f t="shared" si="23"/>
-        <v>-2.8359948015089791E-3</v>
+        <v>-2.8115403156723355E-3</v>
       </c>
       <c r="AU12" s="9">
         <f t="shared" si="24"/>
-        <v>-2.8359948015089791E-3</v>
+        <v>-2.8115403156723355E-3</v>
       </c>
       <c r="AV12" s="9">
         <f t="shared" si="25"/>
-        <v>-7.3469252405254938E-5</v>
+        <v>-7.7234154785460178E-5</v>
       </c>
       <c r="AW12" s="9">
         <f t="shared" si="26"/>
-        <v>-7.3469252405254938E-5</v>
+        <v>-7.7234154785460178E-5</v>
       </c>
       <c r="AX12" s="9">
         <f t="shared" si="27"/>
-        <v>-4.3372019674539197E-3</v>
+        <v>-5.6360188521588968E-3</v>
       </c>
       <c r="AY12" s="9">
         <f t="shared" si="28"/>
-        <v>4.3372019674539214E-3</v>
+        <v>5.6360188521589029E-3</v>
       </c>
       <c r="AZ12" s="9">
         <f t="shared" si="29"/>
-        <v>-4.3372019674539197E-3</v>
+        <v>-5.6360188521588968E-3</v>
       </c>
       <c r="BA12" s="9">
         <f t="shared" si="30"/>
-        <v>4.3372019674539214E-3</v>
+        <v>5.6360188521589029E-3</v>
       </c>
       <c r="BB12" s="7">
         <f t="shared" si="31"/>
@@ -2242,63 +2242,63 @@
       </c>
       <c r="BD12" s="7">
         <f t="shared" si="33"/>
-        <v>-1.2440863831720793E-3</v>
+        <v>-1.3065863831720793E-3</v>
       </c>
       <c r="BE12" s="9">
         <f t="shared" si="34"/>
-        <v>-3.477635345699999E-5</v>
+        <v>-3.4671965942379733E-5</v>
       </c>
       <c r="BF12" s="9">
         <f t="shared" si="35"/>
-        <v>-3.477635345699999E-5</v>
+        <v>-3.4671965942379733E-5</v>
       </c>
       <c r="BG12" s="9">
         <f t="shared" si="36"/>
-        <v>-1.2132684477853279E-2</v>
+        <v>-1.4733633921809788E-2</v>
       </c>
       <c r="BH12" s="9">
         <f t="shared" si="37"/>
-        <v>1.2132684477853282E-2</v>
+        <v>1.4733633921809796E-2</v>
       </c>
       <c r="BI12" s="9">
         <f t="shared" si="43"/>
-        <v>-1.8049412299124587E-3</v>
+        <v>-2.9608381173892428E-3</v>
       </c>
       <c r="BJ12" s="9">
         <f t="shared" si="44"/>
-        <v>-1.8049412299124587E-3</v>
+        <v>-2.9608381173892428E-3</v>
       </c>
       <c r="BK12" s="9">
         <f t="shared" si="45"/>
-        <v>-2.4753479724513717E-3</v>
+        <v>-3.8532743988949365E-3</v>
       </c>
       <c r="BL12" s="9">
         <f t="shared" si="46"/>
-        <v>-2.4753479724513717E-3</v>
+        <v>-3.8532743988949365E-3</v>
       </c>
       <c r="BM12" s="9">
         <f t="shared" si="47"/>
-        <v>-2.5784874713035123E-5</v>
+        <v>-4.130554336181069E-5</v>
       </c>
       <c r="BN12" s="9">
         <f t="shared" si="48"/>
-        <v>-2.5784874713035123E-5</v>
+        <v>-4.130554336181069E-5</v>
       </c>
       <c r="BO12" s="9">
         <f t="shared" si="49"/>
-        <v>4.8072068615431056E-3</v>
+        <v>5.5649910655655695E-3</v>
       </c>
       <c r="BP12" s="9">
         <f t="shared" si="50"/>
-        <v>-4.8072068615431056E-3</v>
+        <v>-5.5649910655655695E-3</v>
       </c>
       <c r="BQ12" s="9">
         <f t="shared" si="51"/>
-        <v>4.8072068615431056E-3</v>
+        <v>5.5649910655655695E-3</v>
       </c>
       <c r="BR12" s="9">
         <f t="shared" si="52"/>
-        <v>-4.8072068615431056E-3</v>
+        <v>-5.5649910655655695E-3</v>
       </c>
       <c r="BS12" s="7">
         <f t="shared" si="53"/>
@@ -2310,63 +2310,63 @@
       </c>
       <c r="BU12" s="7">
         <f t="shared" si="55"/>
-        <v>-4.3372019674539197E-4</v>
+        <v>-5.6360188521588968E-4</v>
       </c>
       <c r="BV12" s="9">
         <f t="shared" si="56"/>
-        <v>-2.5784874713035123E-5</v>
+        <v>-4.0918614372328141E-5</v>
       </c>
       <c r="BW12" s="9">
         <f t="shared" si="57"/>
-        <v>-2.5784874713035123E-5</v>
+        <v>-4.0918614372328141E-5</v>
       </c>
       <c r="BX12" s="9">
         <f t="shared" si="58"/>
-        <v>1.2595767639450537E-2</v>
+        <v>1.3757670300831262E-2</v>
       </c>
       <c r="BY12" s="9">
         <f t="shared" si="59"/>
-        <v>-1.2595767639450537E-2</v>
+        <v>-1.3757670300831262E-2</v>
       </c>
       <c r="BZ12" s="9">
         <f t="shared" si="41"/>
-        <v>-4.8074572636882225E-3</v>
+        <v>-5.9662978571360017E-3</v>
       </c>
       <c r="CA12" s="9">
         <f t="shared" si="3"/>
-        <v>-4.8074572636882225E-3</v>
+        <v>-5.9662978571360017E-3</v>
       </c>
       <c r="CB12" s="9">
         <f t="shared" si="3"/>
-        <v>-5.3113427739603508E-3</v>
+        <v>-6.6648147145672715E-3</v>
       </c>
       <c r="CC12" s="9">
         <f t="shared" si="3"/>
-        <v>-5.3113427739603508E-3</v>
+        <v>-6.6648147145672715E-3</v>
       </c>
       <c r="CD12" s="9">
         <f t="shared" si="3"/>
-        <v>-9.9254127118290065E-5</v>
+        <v>-1.1853969814727087E-4</v>
       </c>
       <c r="CE12" s="9">
         <f t="shared" si="3"/>
-        <v>-9.9254127118290065E-5</v>
+        <v>-1.1853969814727087E-4</v>
       </c>
       <c r="CF12" s="9">
         <f t="shared" si="3"/>
-        <v>4.7000489408918593E-4</v>
+        <v>-7.1027786593327348E-5</v>
       </c>
       <c r="CG12" s="9">
         <f t="shared" si="3"/>
-        <v>-4.7000489408918419E-4</v>
+        <v>7.102778659333342E-5</v>
       </c>
       <c r="CH12" s="9">
         <f t="shared" si="3"/>
-        <v>4.7000489408918593E-4</v>
+        <v>-7.1027786593327348E-5</v>
       </c>
       <c r="CI12" s="9">
         <f t="shared" si="3"/>
-        <v>-4.7000489408918419E-4</v>
+        <v>7.102778659333342E-5</v>
       </c>
       <c r="CJ12" s="7">
         <f t="shared" si="3"/>
@@ -2378,28 +2378,34 @@
       </c>
       <c r="CL12" s="7">
         <f t="shared" si="3"/>
-        <v>-1.6778065799174713E-3</v>
+        <v>-1.870188268387969E-3</v>
       </c>
       <c r="CM12" s="9">
         <f t="shared" si="3"/>
-        <v>-6.0561228170035117E-5</v>
+        <v>-7.5590580314707881E-5</v>
       </c>
       <c r="CN12" s="9">
         <f t="shared" si="3"/>
-        <v>-6.0561228170035117E-5</v>
+        <v>-7.5590580314707881E-5</v>
       </c>
       <c r="CO12" s="9">
         <f t="shared" si="3"/>
-        <v>4.6308316159725769E-4</v>
+        <v>-9.7596362097852538E-4</v>
       </c>
       <c r="CP12" s="9">
         <f t="shared" si="3"/>
-        <v>-4.6308316159725423E-4</v>
+        <v>9.7596362097853405E-4</v>
       </c>
     </row>
     <row r="13" spans="11:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="K6:K8"/>
     <mergeCell ref="BZ7:CP7"/>
     <mergeCell ref="AR6:CP6"/>
     <mergeCell ref="P6:AQ6"/>
@@ -2409,12 +2415,6 @@
     <mergeCell ref="AD7:AJ7"/>
     <mergeCell ref="AR7:BH7"/>
     <mergeCell ref="BI7:BY7"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/helper ANN/MLP/simplified.weather.numeric.xlsx
+++ b/helper ANN/MLP/simplified.weather.numeric.xlsx
@@ -334,6 +334,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,12 +363,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K1:CP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,211 +758,211 @@
     </row>
     <row r="5" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="21" t="s">
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BX6" s="21"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
-      <c r="CM6" s="21"/>
-      <c r="CN6" s="21"/>
-      <c r="CO6" s="21"/>
-      <c r="CP6" s="21"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="23"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="23"/>
+      <c r="BH6" s="23"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="23"/>
+      <c r="BK6" s="23"/>
+      <c r="BL6" s="23"/>
+      <c r="BM6" s="23"/>
+      <c r="BN6" s="23"/>
+      <c r="BO6" s="23"/>
+      <c r="BP6" s="23"/>
+      <c r="BQ6" s="23"/>
+      <c r="BR6" s="23"/>
+      <c r="BS6" s="23"/>
+      <c r="BT6" s="23"/>
+      <c r="BU6" s="23"/>
+      <c r="BV6" s="23"/>
+      <c r="BW6" s="23"/>
+      <c r="BX6" s="23"/>
+      <c r="BY6" s="23"/>
+      <c r="BZ6" s="23"/>
+      <c r="CA6" s="23"/>
+      <c r="CB6" s="23"/>
+      <c r="CC6" s="23"/>
+      <c r="CD6" s="23"/>
+      <c r="CE6" s="23"/>
+      <c r="CF6" s="23"/>
+      <c r="CG6" s="23"/>
+      <c r="CH6" s="23"/>
+      <c r="CI6" s="23"/>
+      <c r="CJ6" s="23"/>
+      <c r="CK6" s="23"/>
+      <c r="CL6" s="23"/>
+      <c r="CM6" s="23"/>
+      <c r="CN6" s="23"/>
+      <c r="CO6" s="23"/>
+      <c r="CP6" s="23"/>
     </row>
     <row r="7" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="20" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20" t="s">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20" t="s">
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="25" t="s">
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="20" t="s">
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="20"/>
-      <c r="BB7" s="20"/>
-      <c r="BC7" s="20"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="20"/>
-      <c r="BF7" s="20"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="20"/>
-      <c r="BI7" s="20" t="s">
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
+      <c r="BD7" s="22"/>
+      <c r="BE7" s="22"/>
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="22"/>
+      <c r="BH7" s="22"/>
+      <c r="BI7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="BJ7" s="20"/>
-      <c r="BK7" s="20"/>
-      <c r="BL7" s="20"/>
-      <c r="BM7" s="20"/>
-      <c r="BN7" s="20"/>
-      <c r="BO7" s="20"/>
-      <c r="BP7" s="20"/>
-      <c r="BQ7" s="20"/>
-      <c r="BR7" s="20"/>
-      <c r="BS7" s="20"/>
-      <c r="BT7" s="20"/>
-      <c r="BU7" s="20"/>
-      <c r="BV7" s="20"/>
-      <c r="BW7" s="20"/>
-      <c r="BX7" s="20"/>
-      <c r="BY7" s="20"/>
-      <c r="BZ7" s="20" t="s">
+      <c r="BJ7" s="22"/>
+      <c r="BK7" s="22"/>
+      <c r="BL7" s="22"/>
+      <c r="BM7" s="22"/>
+      <c r="BN7" s="22"/>
+      <c r="BO7" s="22"/>
+      <c r="BP7" s="22"/>
+      <c r="BQ7" s="22"/>
+      <c r="BR7" s="22"/>
+      <c r="BS7" s="22"/>
+      <c r="BT7" s="22"/>
+      <c r="BU7" s="22"/>
+      <c r="BV7" s="22"/>
+      <c r="BW7" s="22"/>
+      <c r="BX7" s="22"/>
+      <c r="BY7" s="22"/>
+      <c r="BZ7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CA7" s="20"/>
-      <c r="CB7" s="20"/>
-      <c r="CC7" s="20"/>
-      <c r="CD7" s="20"/>
-      <c r="CE7" s="20"/>
-      <c r="CF7" s="20"/>
-      <c r="CG7" s="20"/>
-      <c r="CH7" s="20"/>
-      <c r="CI7" s="20"/>
-      <c r="CJ7" s="20"/>
-      <c r="CK7" s="20"/>
-      <c r="CL7" s="20"/>
-      <c r="CM7" s="20"/>
-      <c r="CN7" s="20"/>
-      <c r="CO7" s="20"/>
-      <c r="CP7" s="20"/>
+      <c r="CA7" s="22"/>
+      <c r="CB7" s="22"/>
+      <c r="CC7" s="22"/>
+      <c r="CD7" s="22"/>
+      <c r="CE7" s="22"/>
+      <c r="CF7" s="22"/>
+      <c r="CG7" s="22"/>
+      <c r="CH7" s="22"/>
+      <c r="CI7" s="22"/>
+      <c r="CJ7" s="22"/>
+      <c r="CK7" s="22"/>
+      <c r="CL7" s="22"/>
+      <c r="CM7" s="22"/>
+      <c r="CN7" s="22"/>
+      <c r="CO7" s="22"/>
+      <c r="CP7" s="22"/>
     </row>
     <row r="8" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="2">
         <v>0</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="9" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="28">
+      <c r="K9" s="20">
         <v>1</v>
       </c>
       <c r="L9" s="10">
@@ -1222,19 +1222,19 @@
       <c r="R9" s="14"/>
       <c r="S9" s="4">
         <f>AR9*W9+AT9*X9+AV9*Y9+$L$4*BE9</f>
-        <v>0</v>
+        <v>17.200000000000003</v>
       </c>
       <c r="T9" s="4">
         <f>AS9*W9+AU9*X9+AW9*Y9+$L$4*BF9</f>
-        <v>0</v>
+        <v>17.200000000000003</v>
       </c>
       <c r="U9" s="4">
         <f>AX9*Z9+AZ9*AA9+BG9*$L$4</f>
-        <v>0</v>
+        <v>0.29999999322101156</v>
       </c>
       <c r="V9" s="4">
         <f>AY9*Z9+BA9*AA9+BH9*$L$4</f>
-        <v>0</v>
+        <v>0.29999999322101156</v>
       </c>
       <c r="W9" s="10">
         <f>L9</f>
@@ -1250,19 +1250,19 @@
       </c>
       <c r="Z9" s="4">
         <f>1/(1+EXP(-S9))</f>
-        <v>0.5</v>
+        <v>0.99999996610505781</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" ref="AA9:AC9" si="1">1/(1+EXP(-T9))</f>
-        <v>0.5</v>
+        <v>0.99999996610505781</v>
       </c>
       <c r="AB9" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.57444251515447886</v>
       </c>
       <c r="AC9" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.57444251515447886</v>
       </c>
       <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
@@ -1277,11 +1277,11 @@
       </c>
       <c r="AK9" s="4">
         <f>W9*(1-W9)*(AR9*AN9+AS9*AO9)</f>
-        <v>0</v>
+        <v>1.7616471776451015E-7</v>
       </c>
       <c r="AL9" s="4">
         <f>X9*(1-X9)*(AT9*AN9+AU9*AO9)</f>
-        <v>0</v>
+        <v>1.7616471776451015E-7</v>
       </c>
       <c r="AM9" s="4">
         <f>Y9*(1-Y9)*(AV9*AN9+AW9*AO9)</f>
@@ -1289,201 +1289,201 @@
       </c>
       <c r="AN9" s="4">
         <f>Z9*(1-Z9)*(AX9*AP9+AY9*AQ9)</f>
-        <v>0</v>
+        <v>-1.2336464829447487E-10</v>
       </c>
       <c r="AO9" s="4">
         <f>AA9*(1-AA9)*(AZ9*AP9+BA9*AQ9)</f>
-        <v>0</v>
+        <v>-1.2336464829447487E-10</v>
       </c>
       <c r="AP9" s="4">
         <f>AB9*(1-AB9)*(AI9-AB9)</f>
-        <v>-0.125</v>
+        <v>-0.14042724755978142</v>
       </c>
       <c r="AQ9" s="4">
         <f>AC9*(1-AC9)*(AJ9-AC9)</f>
-        <v>0.125</v>
+        <v>0.10403106437769377</v>
       </c>
       <c r="AR9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AS9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AT9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AU9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AV9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AW9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AX9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AY9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AZ9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BA9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BB9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BC9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BD9" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BE9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BF9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BG9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BH9" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BI9" s="4">
         <f>$L$2*AN9*W9</f>
-        <v>0</v>
+        <v>-1.0485995105030366E-9</v>
       </c>
       <c r="BJ9" s="4">
         <f>$L$2*AO9*W9</f>
-        <v>0</v>
+        <v>-1.0485995105030366E-9</v>
       </c>
       <c r="BK9" s="4">
         <f>$L$2*AN9*X9</f>
-        <v>0</v>
+        <v>-1.0485995105030366E-9</v>
       </c>
       <c r="BL9" s="4">
         <f>$L$2*AO9*X9</f>
-        <v>0</v>
+        <v>-1.0485995105030366E-9</v>
       </c>
       <c r="BM9" s="4">
         <f>$L$2*AN9*Y9</f>
-        <v>0</v>
+        <v>-1.2336464829447489E-11</v>
       </c>
       <c r="BN9" s="4">
         <f>$L$2*AO9*Y9</f>
-        <v>0</v>
+        <v>-1.2336464829447489E-11</v>
       </c>
       <c r="BO9" s="4">
         <f>$L$2*AP9*Z9</f>
-        <v>-6.2500000000000003E-3</v>
+        <v>-1.4042724280000798E-2</v>
       </c>
       <c r="BP9" s="4">
         <f>$L$2*AQ9*Z9</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.0403106085156688E-2</v>
       </c>
       <c r="BQ9" s="4">
         <f>$L$2*AP9*AA9</f>
-        <v>-6.2500000000000003E-3</v>
+        <v>-1.4042724280000798E-2</v>
       </c>
       <c r="BR9" s="4">
         <f>$L$2*AQ9*AA9</f>
-        <v>6.2500000000000003E-3</v>
+        <v>1.0403106085156688E-2</v>
       </c>
       <c r="BS9" s="3"/>
       <c r="BT9" s="3"/>
       <c r="BU9" s="3"/>
       <c r="BV9" s="4">
         <f>$L$2*AN9*$L$4</f>
-        <v>0</v>
+        <v>-1.2336464829447489E-11</v>
       </c>
       <c r="BW9" s="4">
         <f>$L$2*AO9*$L$4</f>
-        <v>0</v>
+        <v>-1.2336464829447489E-11</v>
       </c>
       <c r="BX9" s="4">
         <f t="shared" ref="BX9:BY9" si="2">$L$2*AP9*$L$4</f>
-        <v>-1.2500000000000001E-2</v>
+        <v>-1.4042724755978142E-2</v>
       </c>
       <c r="BY9" s="4">
         <f t="shared" si="2"/>
-        <v>1.2500000000000001E-2</v>
+        <v>1.0403106437769379E-2</v>
       </c>
       <c r="BZ9" s="4">
         <f>AR9+BI9</f>
-        <v>0</v>
+        <v>9.9999998951400493E-2</v>
       </c>
       <c r="CA9" s="4">
         <f t="shared" ref="CA9:CP12" si="3">AS9+BJ9</f>
-        <v>0</v>
+        <v>9.9999998951400493E-2</v>
       </c>
       <c r="CB9" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.9999998951400493E-2</v>
       </c>
       <c r="CC9" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.9999998951400493E-2</v>
       </c>
       <c r="CD9" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.999999998766354E-2</v>
       </c>
       <c r="CE9" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.999999998766354E-2</v>
       </c>
       <c r="CF9" s="4">
         <f t="shared" si="3"/>
-        <v>-6.2500000000000003E-3</v>
+        <v>8.5957275719999213E-2</v>
       </c>
       <c r="CG9" s="4">
         <f t="shared" si="3"/>
-        <v>6.2500000000000003E-3</v>
+        <v>0.11040310608515669</v>
       </c>
       <c r="CH9" s="4">
         <f t="shared" si="3"/>
-        <v>-6.2500000000000003E-3</v>
+        <v>8.5957275719999213E-2</v>
       </c>
       <c r="CI9" s="4">
         <f t="shared" si="3"/>
-        <v>6.2500000000000003E-3</v>
+        <v>0.11040310608515669</v>
       </c>
       <c r="CJ9" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CK9" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CL9" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CM9" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.999999998766354E-2</v>
       </c>
       <c r="CN9" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.999999998766354E-2</v>
       </c>
       <c r="CO9" s="4">
         <f t="shared" si="3"/>
-        <v>-1.2500000000000001E-2</v>
+        <v>8.5957275244021858E-2</v>
       </c>
       <c r="CP9" s="4">
         <f t="shared" si="3"/>
-        <v>1.2500000000000001E-2</v>
+        <v>0.11040310643776938</v>
       </c>
     </row>
     <row r="10" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="28"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="11">
         <v>80</v>
       </c>
@@ -1501,19 +1501,19 @@
       <c r="R10" s="15"/>
       <c r="S10" s="8">
         <f t="shared" ref="S10:S12" si="4">AR10*W10+AT10*X10+AV10*Y10+$L$4*BE10</f>
-        <v>0</v>
+        <v>17.099999821725746</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" ref="T10:T12" si="5">AS10*W10+AU10*X10+AW10*Y10+$L$4*BF10</f>
-        <v>0</v>
+        <v>17.099999821725746</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" ref="U10:U12" si="6">AX10*Z10+AZ10*AA10+BG10*$L$4</f>
-        <v>-1.8750000000000003E-2</v>
+        <v>0.2578718202441509</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" ref="V10:V12" si="7">AY10*Z10+BA10*AA10+BH10*$L$4</f>
-        <v>1.8750000000000003E-2</v>
+        <v>0.33120931033674594</v>
       </c>
       <c r="W10" s="11">
         <f t="shared" ref="W10:W12" si="8">L10</f>
@@ -1529,19 +1529,19 @@
       </c>
       <c r="Z10" s="8">
         <f t="shared" ref="Z10:Z12" si="11">1/(1+EXP(-S10))</f>
-        <v>0.5</v>
+        <v>0.99999996254028922</v>
       </c>
       <c r="AA10" s="8">
         <f t="shared" ref="AA10:AA12" si="12">1/(1+EXP(-T10))</f>
-        <v>0.5</v>
+        <v>0.99999996254028922</v>
       </c>
       <c r="AB10" s="8">
         <f t="shared" ref="AB10:AB12" si="13">1/(1+EXP(-U10))</f>
-        <v>0.49531263732427372</v>
+        <v>0.5641130663041356</v>
       </c>
       <c r="AC10" s="8">
         <f t="shared" ref="AC10:AC12" si="14">1/(1+EXP(-V10))</f>
-        <v>0.50468736267572623</v>
+        <v>0.58205359154975622</v>
       </c>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
@@ -1556,11 +1556,11 @@
       </c>
       <c r="AK10" s="8">
         <f t="shared" ref="AK10:AK12" si="15">W10*(1-W10)*(AR10*AN10+AS10*AO10)</f>
-        <v>0</v>
+        <v>3.3054988498054754E-8</v>
       </c>
       <c r="AL10" s="8">
         <f t="shared" ref="AL10:AL12" si="16">X10*(1-X10)*(AT10*AN10+AU10*AO10)</f>
-        <v>0</v>
+        <v>4.1894059789464962E-8</v>
       </c>
       <c r="AM10" s="8">
         <f t="shared" ref="AM10:AM12" si="17">Y10*(1-Y10)*(AV10*AN10+AW10*AO10)</f>
@@ -1568,127 +1568,127 @@
       </c>
       <c r="AN10" s="8">
         <f t="shared" ref="AN10:AN12" si="18">Z10*(1-Z10)*(AX10*AP10+AY10*AQ10)</f>
-        <v>3.8692898948254948E-4</v>
+        <v>-2.6151098769516775E-11</v>
       </c>
       <c r="AO10" s="8">
         <f t="shared" ref="AO10:AO12" si="19">AA10*(1-AA10)*(AZ10*AP10+BA10*AQ10)</f>
-        <v>3.8692898948254948E-4</v>
+        <v>-2.6151098769516775E-11</v>
       </c>
       <c r="AP10" s="8">
         <f t="shared" ref="AP10:AP12" si="20">AB10*(1-AB10)*(AI10-AB10)</f>
-        <v>-0.12381727663441582</v>
+        <v>-0.13870948812585809</v>
       </c>
       <c r="AQ10" s="8">
         <f t="shared" ref="AQ10:AQ12" si="21">AC10*(1-AC10)*(AJ10-AC10)</f>
-        <v>0.12381727663441584</v>
+        <v>0.10167265592487476</v>
       </c>
       <c r="AR10" s="8">
         <f>BZ9</f>
-        <v>0</v>
+        <v>9.9999998951400493E-2</v>
       </c>
       <c r="AS10" s="8">
         <f t="shared" ref="AS10:AS12" si="22">CA9</f>
-        <v>0</v>
+        <v>9.9999998951400493E-2</v>
       </c>
       <c r="AT10" s="8">
         <f t="shared" ref="AT10:AT12" si="23">CB9</f>
-        <v>0</v>
+        <v>9.9999998951400493E-2</v>
       </c>
       <c r="AU10" s="8">
         <f t="shared" ref="AU10:AU12" si="24">CC9</f>
-        <v>0</v>
+        <v>9.9999998951400493E-2</v>
       </c>
       <c r="AV10" s="8">
         <f t="shared" ref="AV10:AV12" si="25">CD9</f>
-        <v>0</v>
+        <v>9.999999998766354E-2</v>
       </c>
       <c r="AW10" s="8">
         <f t="shared" ref="AW10:AW12" si="26">CE9</f>
-        <v>0</v>
+        <v>9.999999998766354E-2</v>
       </c>
       <c r="AX10" s="8">
         <f t="shared" ref="AX10:AX12" si="27">CF9</f>
-        <v>-6.2500000000000003E-3</v>
+        <v>8.5957275719999213E-2</v>
       </c>
       <c r="AY10" s="8">
         <f t="shared" ref="AY10:AY12" si="28">CG9</f>
-        <v>6.2500000000000003E-3</v>
+        <v>0.11040310608515669</v>
       </c>
       <c r="AZ10" s="8">
         <f t="shared" ref="AZ10:AZ12" si="29">CH9</f>
-        <v>-6.2500000000000003E-3</v>
+        <v>8.5957275719999213E-2</v>
       </c>
       <c r="BA10" s="8">
         <f t="shared" ref="BA10:BA12" si="30">CI9</f>
-        <v>6.2500000000000003E-3</v>
+        <v>0.11040310608515669</v>
       </c>
       <c r="BB10" s="5">
         <f t="shared" ref="BB10:BB12" si="31">CJ9</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BC10" s="5">
         <f t="shared" ref="BC10:BC12" si="32">CK9</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BD10" s="5">
         <f t="shared" ref="BD10:BD12" si="33">CL9</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BE10" s="8">
         <f t="shared" ref="BE10:BE12" si="34">CM9</f>
-        <v>0</v>
+        <v>9.999999998766354E-2</v>
       </c>
       <c r="BF10" s="8">
         <f t="shared" ref="BF10:BF12" si="35">CN9</f>
-        <v>0</v>
+        <v>9.999999998766354E-2</v>
       </c>
       <c r="BG10" s="8">
         <f t="shared" ref="BG10:BG12" si="36">CO9</f>
-        <v>-1.2500000000000001E-2</v>
+        <v>8.5957275244021858E-2</v>
       </c>
       <c r="BH10" s="8">
         <f t="shared" ref="BH10:BH12" si="37">CP9</f>
-        <v>1.2500000000000001E-2</v>
+        <v>0.11040310643776938</v>
       </c>
       <c r="BI10" s="8">
         <f>$L$2*AN10*W10+$L$3*BI9</f>
-        <v>3.0954319158603958E-3</v>
+        <v>-3.1406874120643786E-10</v>
       </c>
       <c r="BJ10" s="8">
         <f>$L$2*AO10*W10+$L$3*BJ9</f>
-        <v>3.0954319158603958E-3</v>
+        <v>-3.1406874120643786E-10</v>
       </c>
       <c r="BK10" s="8">
         <f>$L$2*AN10*X10+BK9*$L$3</f>
-        <v>3.4823609053429455E-3</v>
+        <v>-3.4021983997595469E-10</v>
       </c>
       <c r="BL10" s="8">
         <f>$L$2*AO10*X10+BL9*$L$3</f>
-        <v>3.4823609053429455E-3</v>
+        <v>-3.4021983997595469E-10</v>
       </c>
       <c r="BM10" s="8">
         <f>$L$2*AN10*Y10+BM9*$L$3</f>
-        <v>0</v>
+        <v>-1.233646482944749E-12</v>
       </c>
       <c r="BN10" s="8">
         <f>$L$2*AO10*Y10+BN9*$L$3</f>
-        <v>0</v>
+        <v>-1.233646482944749E-12</v>
       </c>
       <c r="BO10" s="8">
         <f>$L$2*AP10*Z10+BO9*$L$3</f>
-        <v>-6.8158638317207913E-3</v>
+        <v>-1.5275220720984159E-2</v>
       </c>
       <c r="BP10" s="8">
         <f>$L$2*AQ10*Z10+BP9*$L$3</f>
-        <v>6.8158638317207931E-3</v>
+        <v>1.1207575820140318E-2</v>
       </c>
       <c r="BQ10" s="8">
         <f>$L$2*AP10*AA10+BQ9*$L$3</f>
-        <v>-6.8158638317207913E-3</v>
+        <v>-1.5275220720984159E-2</v>
       </c>
       <c r="BR10" s="8">
         <f>$L$2*AQ10*AA10+BR9*$L$3</f>
-        <v>6.8158638317207931E-3</v>
+        <v>1.1207575820140318E-2</v>
       </c>
       <c r="BS10" s="5">
         <f t="shared" ref="BS10" si="38">$L$2*AX10*AG10</f>
@@ -1704,91 +1704,91 @@
       </c>
       <c r="BV10" s="8">
         <f>$L$2*AN10*$L$4+BV9*$L$3</f>
-        <v>3.8692898948254948E-5</v>
+        <v>-3.848756359896427E-12</v>
       </c>
       <c r="BW10" s="8">
         <f>$L$2*AO10*$L$4+BW9*$L$3</f>
-        <v>3.8692898948254948E-5</v>
+        <v>-3.848756359896427E-12</v>
       </c>
       <c r="BX10" s="8">
         <f>$L$2*AP10*$L$4+BX9*$L$3</f>
-        <v>-1.3631727663441583E-2</v>
+        <v>-1.5275221288183625E-2</v>
       </c>
       <c r="BY10" s="8">
         <f>$L$2*AQ10*$L$4+BY9*$L$3</f>
-        <v>1.3631727663441586E-2</v>
+        <v>1.1207576236264415E-2</v>
       </c>
       <c r="BZ10" s="8">
         <f t="shared" ref="BZ10:BZ12" si="41">AR10+BI10</f>
-        <v>3.0954319158603958E-3</v>
+        <v>9.999999863733175E-2</v>
       </c>
       <c r="CA10" s="8">
         <f t="shared" si="3"/>
-        <v>3.0954319158603958E-3</v>
+        <v>9.999999863733175E-2</v>
       </c>
       <c r="CB10" s="8">
         <f t="shared" si="3"/>
-        <v>3.4823609053429455E-3</v>
+        <v>9.9999998611180654E-2</v>
       </c>
       <c r="CC10" s="8">
         <f t="shared" si="3"/>
-        <v>3.4823609053429455E-3</v>
+        <v>9.9999998611180654E-2</v>
       </c>
       <c r="CD10" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.9999999986429888E-2</v>
       </c>
       <c r="CE10" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.9999999986429888E-2</v>
       </c>
       <c r="CF10" s="8">
         <f t="shared" si="3"/>
-        <v>-1.3065863831720792E-2</v>
+        <v>7.0682054999015059E-2</v>
       </c>
       <c r="CG10" s="8">
         <f t="shared" si="3"/>
-        <v>1.3065863831720793E-2</v>
+        <v>0.121610681905297</v>
       </c>
       <c r="CH10" s="8">
         <f t="shared" si="3"/>
-        <v>-1.3065863831720792E-2</v>
+        <v>7.0682054999015059E-2</v>
       </c>
       <c r="CI10" s="8">
         <f t="shared" si="3"/>
-        <v>1.3065863831720793E-2</v>
+        <v>0.121610681905297</v>
       </c>
       <c r="CJ10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CK10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CL10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CM10" s="8">
         <f t="shared" si="3"/>
-        <v>3.8692898948254948E-5</v>
+        <v>9.9999999983814786E-2</v>
       </c>
       <c r="CN10" s="8">
         <f t="shared" si="3"/>
-        <v>3.8692898948254948E-5</v>
+        <v>9.9999999983814786E-2</v>
       </c>
       <c r="CO10" s="8">
         <f t="shared" si="3"/>
-        <v>-2.6131727663441583E-2</v>
+        <v>7.0682053955838237E-2</v>
       </c>
       <c r="CP10" s="8">
         <f t="shared" si="3"/>
-        <v>2.6131727663441587E-2</v>
+        <v>0.1216106826740338</v>
       </c>
     </row>
     <row r="11" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="28"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="11">
         <v>83</v>
       </c>
@@ -1806,19 +1806,19 @@
       <c r="R11" s="15"/>
       <c r="S11" s="8">
         <f t="shared" si="4"/>
-        <v>0.55644257977485445</v>
+        <v>17.099999767430319</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="5"/>
-        <v>0.55644257977485445</v>
+        <v>17.099999767430319</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="6"/>
-        <v>-4.2741812187511496E-2</v>
+        <v>0.21204615865840939</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="7"/>
-        <v>4.2741812187511496E-2</v>
+        <v>0.36483203737362535</v>
       </c>
       <c r="W11" s="11">
         <f t="shared" si="8"/>
@@ -1834,19 +1834,19 @@
       </c>
       <c r="Z11" s="8">
         <f t="shared" si="11"/>
-        <v>0.63562902300208413</v>
+        <v>0.99999996254028722</v>
       </c>
       <c r="AA11" s="8">
         <f t="shared" si="12"/>
-        <v>0.63562902300208413</v>
+        <v>0.99999996254028722</v>
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>0.48931617339379146</v>
+        <v>0.5528137963869002</v>
       </c>
       <c r="AC11" s="8">
         <f t="shared" si="14"/>
-        <v>0.51068382660620859</v>
+        <v>0.59020962873161886</v>
       </c>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
@@ -1861,11 +1861,11 @@
       </c>
       <c r="AK11" s="8">
         <f t="shared" si="15"/>
-        <v>3.2542625977694577E-2</v>
+        <v>4.8675244407737181E-7</v>
       </c>
       <c r="AL11" s="8">
         <f t="shared" si="16"/>
-        <v>3.9321542812821887E-2</v>
+        <v>5.227975852593433E-7</v>
       </c>
       <c r="AM11" s="8">
         <f t="shared" si="17"/>
@@ -1873,127 +1873,127 @@
       </c>
       <c r="AN11" s="8">
         <f t="shared" si="18"/>
-        <v>-7.723415478546017E-4</v>
+        <v>-3.575906925581788E-10</v>
       </c>
       <c r="AO11" s="8">
         <f t="shared" si="19"/>
-        <v>-7.723415478546017E-4</v>
+        <v>-3.575906925581788E-10</v>
       </c>
       <c r="AP11" s="8">
         <f t="shared" si="20"/>
-        <v>0.12761266507975952</v>
+        <v>0.11054921572738677</v>
       </c>
       <c r="AQ11" s="8">
         <f t="shared" si="21"/>
-        <v>-0.12761266507975949</v>
+        <v>-0.14274941277263076</v>
       </c>
       <c r="AR11" s="8">
         <f t="shared" ref="AR11:AR12" si="42">BZ10</f>
-        <v>3.0954319158603958E-3</v>
+        <v>9.999999863733175E-2</v>
       </c>
       <c r="AS11" s="8">
         <f t="shared" si="22"/>
-        <v>3.0954319158603958E-3</v>
+        <v>9.999999863733175E-2</v>
       </c>
       <c r="AT11" s="8">
         <f t="shared" si="23"/>
-        <v>3.4823609053429455E-3</v>
+        <v>9.9999998611180654E-2</v>
       </c>
       <c r="AU11" s="8">
         <f t="shared" si="24"/>
-        <v>3.4823609053429455E-3</v>
+        <v>9.9999998611180654E-2</v>
       </c>
       <c r="AV11" s="8">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>9.9999999986429888E-2</v>
       </c>
       <c r="AW11" s="8">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>9.9999999986429888E-2</v>
       </c>
       <c r="AX11" s="8">
         <f t="shared" si="27"/>
-        <v>-1.3065863831720792E-2</v>
+        <v>7.0682054999015059E-2</v>
       </c>
       <c r="AY11" s="8">
         <f t="shared" si="28"/>
-        <v>1.3065863831720793E-2</v>
+        <v>0.121610681905297</v>
       </c>
       <c r="AZ11" s="8">
         <f t="shared" si="29"/>
-        <v>-1.3065863831720792E-2</v>
+        <v>7.0682054999015059E-2</v>
       </c>
       <c r="BA11" s="8">
         <f t="shared" si="30"/>
-        <v>1.3065863831720793E-2</v>
+        <v>0.121610681905297</v>
       </c>
       <c r="BB11" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BC11" s="5">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BD11" s="5">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BE11" s="8">
         <f t="shared" si="34"/>
-        <v>3.8692898948254948E-5</v>
+        <v>9.9999999983814786E-2</v>
       </c>
       <c r="BF11" s="8">
         <f t="shared" si="35"/>
-        <v>3.8692898948254948E-5</v>
+        <v>9.9999999983814786E-2</v>
       </c>
       <c r="BG11" s="8">
         <f t="shared" si="36"/>
-        <v>-2.6131727663441583E-2</v>
+        <v>7.0682053955838237E-2</v>
       </c>
       <c r="BH11" s="8">
         <f t="shared" si="37"/>
-        <v>2.6131727663441587E-2</v>
+        <v>0.1216106826740338</v>
       </c>
       <c r="BI11" s="8">
         <f t="shared" ref="BI11:BI12" si="43">$L$2*AN11*W11+$L$3*BI10</f>
-        <v>-6.1008916556071551E-3</v>
+        <v>-2.9994096223535282E-9</v>
       </c>
       <c r="BJ11" s="8">
         <f t="shared" ref="BJ11:BJ12" si="44">$L$2*AO11*W11+$L$3*BJ10</f>
-        <v>-6.1008916556071551E-3</v>
+        <v>-2.9994096223535282E-9</v>
       </c>
       <c r="BK11" s="8">
         <f t="shared" ref="BK11:BK12" si="45">$L$2*AN11*X11+BK10*$L$3</f>
-        <v>-6.2939012210152809E-3</v>
+        <v>-3.1093019399979337E-9</v>
       </c>
       <c r="BL11" s="8">
         <f t="shared" ref="BL11:BL12" si="46">$L$2*AO11*X11+BL10*$L$3</f>
-        <v>-6.2939012210152809E-3</v>
+        <v>-3.1093019399979337E-9</v>
       </c>
       <c r="BM11" s="8">
         <f t="shared" ref="BM11:BM12" si="47">$L$2*AN11*Y11+BM10*$L$3</f>
-        <v>-7.7234154785460178E-5</v>
+        <v>-3.5882433904112357E-11</v>
       </c>
       <c r="BN11" s="8">
         <f t="shared" ref="BN11:BN12" si="48">$L$2*AO11*Y11+BN10*$L$3</f>
-        <v>-7.7234154785460178E-5</v>
+        <v>-3.5882433904112357E-11</v>
       </c>
       <c r="BO11" s="8">
         <f t="shared" ref="BO11:BO12" si="49">$L$2*AP11*Z11+BO10*$L$3</f>
-        <v>7.4298449795618948E-3</v>
+        <v>9.5273990865260751E-3</v>
       </c>
       <c r="BP11" s="8">
         <f t="shared" ref="BP11:BP12" si="50">$L$2*AQ11*Z11+BP10*$L$3</f>
-        <v>-7.4298449795618905E-3</v>
+        <v>-1.3154183160513843E-2</v>
       </c>
       <c r="BQ11" s="8">
         <f t="shared" ref="BQ11:BQ12" si="51">$L$2*AP11*AA11+BQ10*$L$3</f>
-        <v>7.4298449795618948E-3</v>
+        <v>9.5273990865260751E-3</v>
       </c>
       <c r="BR11" s="8">
         <f t="shared" ref="BR11:BR12" si="52">$L$2*AQ11*AA11+BR10*$L$3</f>
-        <v>-7.4298449795618905E-3</v>
+        <v>-1.3154183160513843E-2</v>
       </c>
       <c r="BS11" s="5">
         <f t="shared" ref="BS11:BS12" si="53">$L$2*AX11*AG11</f>
@@ -2005,95 +2005,95 @@
       </c>
       <c r="BU11" s="5">
         <f t="shared" ref="BU11:BU12" si="55">$L$2*AZ11*AI11</f>
-        <v>-1.3065863831720793E-3</v>
+        <v>7.0682054999015066E-3</v>
       </c>
       <c r="BV11" s="8">
         <f t="shared" ref="BV11:BV12" si="56">$L$2*AN11*$L$4+BV10*$L$3</f>
-        <v>-7.3364864890634681E-5</v>
+        <v>-3.6143944891807529E-11</v>
       </c>
       <c r="BW11" s="8">
         <f t="shared" ref="BW11:BW12" si="57">$L$2*AO11*$L$4+BW10*$L$3</f>
-        <v>-7.3364864890634681E-5</v>
+        <v>-3.6143944891807529E-11</v>
       </c>
       <c r="BX11" s="8">
         <f t="shared" ref="BX11:BX12" si="58">$L$2*AP11*$L$4+BX10*$L$3</f>
-        <v>1.1398093741631796E-2</v>
+        <v>9.5273994439203161E-3</v>
       </c>
       <c r="BY11" s="8">
         <f t="shared" ref="BY11:BY12" si="59">$L$2*AQ11*$L$4+BY10*$L$3</f>
-        <v>-1.139809374163179E-2</v>
+        <v>-1.3154183653636634E-2</v>
       </c>
       <c r="BZ11" s="8">
         <f t="shared" si="41"/>
-        <v>-3.0054597397467593E-3</v>
+        <v>9.9999995637922126E-2</v>
       </c>
       <c r="CA11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.0054597397467593E-3</v>
+        <v>9.9999995637922126E-2</v>
       </c>
       <c r="CB11" s="8">
         <f t="shared" si="3"/>
-        <v>-2.8115403156723355E-3</v>
+        <v>9.9999995501878713E-2</v>
       </c>
       <c r="CC11" s="8">
         <f t="shared" si="3"/>
-        <v>-2.8115403156723355E-3</v>
+        <v>9.9999995501878713E-2</v>
       </c>
       <c r="CD11" s="8">
         <f t="shared" si="3"/>
-        <v>-7.7234154785460178E-5</v>
+        <v>9.9999999950547452E-2</v>
       </c>
       <c r="CE11" s="8">
         <f t="shared" si="3"/>
-        <v>-7.7234154785460178E-5</v>
+        <v>9.9999999950547452E-2</v>
       </c>
       <c r="CF11" s="8">
         <f t="shared" si="3"/>
-        <v>-5.6360188521588968E-3</v>
+        <v>8.0209454085541129E-2</v>
       </c>
       <c r="CG11" s="8">
         <f t="shared" si="3"/>
-        <v>5.6360188521589029E-3</v>
+        <v>0.10845649874478316</v>
       </c>
       <c r="CH11" s="8">
         <f t="shared" si="3"/>
-        <v>-5.6360188521588968E-3</v>
+        <v>8.0209454085541129E-2</v>
       </c>
       <c r="CI11" s="8">
         <f t="shared" si="3"/>
-        <v>5.6360188521589029E-3</v>
+        <v>0.10845649874478316</v>
       </c>
       <c r="CJ11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CK11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CL11" s="5">
         <f t="shared" si="3"/>
-        <v>-1.3065863831720793E-3</v>
+        <v>0.10706820549990151</v>
       </c>
       <c r="CM11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.4671965942379733E-5</v>
+        <v>9.9999999947670837E-2</v>
       </c>
       <c r="CN11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.4671965942379733E-5</v>
+        <v>9.9999999947670837E-2</v>
       </c>
       <c r="CO11" s="8">
         <f t="shared" si="3"/>
-        <v>-1.4733633921809788E-2</v>
+        <v>8.0209453399758546E-2</v>
       </c>
       <c r="CP11" s="8">
         <f t="shared" si="3"/>
-        <v>1.4733633921809796E-2</v>
+        <v>0.10845649902039717</v>
       </c>
     </row>
     <row r="12" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="28"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="6">
         <v>70</v>
       </c>
@@ -2111,19 +2111,19 @@
       <c r="R12" s="16"/>
       <c r="S12" s="9">
         <f t="shared" si="4"/>
-        <v>-0.48040195820754522</v>
+        <v>16.799999262733124</v>
       </c>
       <c r="T12" s="9">
         <f t="shared" si="5"/>
-        <v>-0.48040195820754522</v>
+        <v>16.799999262733124</v>
       </c>
       <c r="U12" s="9">
         <f t="shared" si="6"/>
-        <v>-1.9041324437377535E-2</v>
+        <v>0.24062835345920286</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" si="7"/>
-        <v>1.9041324437377549E-2</v>
+        <v>0.32536948554168221</v>
       </c>
       <c r="W12" s="12">
         <f t="shared" si="8"/>
@@ -2139,19 +2139,19 @@
       </c>
       <c r="Z12" s="9">
         <f t="shared" si="11"/>
-        <v>0.38215721314680051</v>
+        <v>0.99999994943465176</v>
       </c>
       <c r="AA12" s="9">
         <f t="shared" si="12"/>
-        <v>0.38215721314680051</v>
+        <v>0.99999994943465176</v>
       </c>
       <c r="AB12" s="9">
         <f t="shared" si="13"/>
-        <v>0.49523981271568629</v>
+        <v>0.55986849128458938</v>
       </c>
       <c r="AC12" s="9">
         <f t="shared" si="14"/>
-        <v>0.50476018728431382</v>
+        <v>0.58063227665162842</v>
       </c>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
@@ -2166,11 +2166,11 @@
       </c>
       <c r="AK12" s="9">
         <f t="shared" si="15"/>
-        <v>-9.7498122395020936E-3</v>
+        <v>3.2408263478190151E-7</v>
       </c>
       <c r="AL12" s="9">
         <f t="shared" si="16"/>
-        <v>-1.7221753172806952E-2</v>
+        <v>6.1193242757556875E-7</v>
       </c>
       <c r="AM12" s="9">
         <f t="shared" si="17"/>
@@ -2178,127 +2178,127 @@
       </c>
       <c r="AN12" s="9">
         <f t="shared" si="18"/>
-        <v>-3.3582127883264668E-4</v>
+        <v>-3.3548928459486443E-10</v>
       </c>
       <c r="AO12" s="9">
         <f t="shared" si="19"/>
-        <v>-3.3582127883264668E-4</v>
+        <v>-3.3548928459486443E-10</v>
       </c>
       <c r="AP12" s="9">
         <f t="shared" si="20"/>
-        <v>0.12617860926668081</v>
+        <v>0.10845534187112296</v>
       </c>
       <c r="AQ12" s="9">
         <f t="shared" si="21"/>
-        <v>-0.12617860926668084</v>
+        <v>-0.14138305123371245</v>
       </c>
       <c r="AR12" s="9">
         <f t="shared" si="42"/>
-        <v>-3.0054597397467593E-3</v>
+        <v>9.9999995637922126E-2</v>
       </c>
       <c r="AS12" s="9">
         <f t="shared" si="22"/>
-        <v>-3.0054597397467593E-3</v>
+        <v>9.9999995637922126E-2</v>
       </c>
       <c r="AT12" s="9">
         <f t="shared" si="23"/>
-        <v>-2.8115403156723355E-3</v>
+        <v>9.9999995501878713E-2</v>
       </c>
       <c r="AU12" s="9">
         <f t="shared" si="24"/>
-        <v>-2.8115403156723355E-3</v>
+        <v>9.9999995501878713E-2</v>
       </c>
       <c r="AV12" s="9">
         <f t="shared" si="25"/>
-        <v>-7.7234154785460178E-5</v>
+        <v>9.9999999950547452E-2</v>
       </c>
       <c r="AW12" s="9">
         <f t="shared" si="26"/>
-        <v>-7.7234154785460178E-5</v>
+        <v>9.9999999950547452E-2</v>
       </c>
       <c r="AX12" s="9">
         <f t="shared" si="27"/>
-        <v>-5.6360188521588968E-3</v>
+        <v>8.0209454085541129E-2</v>
       </c>
       <c r="AY12" s="9">
         <f t="shared" si="28"/>
-        <v>5.6360188521589029E-3</v>
+        <v>0.10845649874478316</v>
       </c>
       <c r="AZ12" s="9">
         <f t="shared" si="29"/>
-        <v>-5.6360188521588968E-3</v>
+        <v>8.0209454085541129E-2</v>
       </c>
       <c r="BA12" s="9">
         <f t="shared" si="30"/>
-        <v>5.6360188521589029E-3</v>
+        <v>0.10845649874478316</v>
       </c>
       <c r="BB12" s="7">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BC12" s="7">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="BD12" s="7">
         <f t="shared" si="33"/>
-        <v>-1.3065863831720793E-3</v>
+        <v>0.10706820549990151</v>
       </c>
       <c r="BE12" s="9">
         <f t="shared" si="34"/>
-        <v>-3.4671965942379733E-5</v>
+        <v>9.9999999947670837E-2</v>
       </c>
       <c r="BF12" s="9">
         <f t="shared" si="35"/>
-        <v>-3.4671965942379733E-5</v>
+        <v>9.9999999947670837E-2</v>
       </c>
       <c r="BG12" s="9">
         <f t="shared" si="36"/>
-        <v>-1.4733633921809788E-2</v>
+        <v>8.0209453399758546E-2</v>
       </c>
       <c r="BH12" s="9">
         <f t="shared" si="37"/>
-        <v>1.4733633921809796E-2</v>
+        <v>0.10845649902039717</v>
       </c>
       <c r="BI12" s="9">
         <f t="shared" si="43"/>
-        <v>-2.9608381173892428E-3</v>
+        <v>-2.6483659543994043E-9</v>
       </c>
       <c r="BJ12" s="9">
         <f t="shared" si="44"/>
-        <v>-2.9608381173892428E-3</v>
+        <v>-2.6483659543994043E-9</v>
       </c>
       <c r="BK12" s="9">
         <f t="shared" si="45"/>
-        <v>-3.8532743988949365E-3</v>
+        <v>-3.5316273261104922E-9</v>
       </c>
       <c r="BL12" s="9">
         <f t="shared" si="46"/>
-        <v>-3.8532743988949365E-3</v>
+        <v>-3.5316273261104922E-9</v>
       </c>
       <c r="BM12" s="9">
         <f t="shared" si="47"/>
-        <v>-4.130554336181069E-5</v>
+        <v>-3.7137171849897683E-11</v>
       </c>
       <c r="BN12" s="9">
         <f t="shared" si="48"/>
-        <v>-4.130554336181069E-5</v>
+        <v>-3.7137171849897683E-11</v>
       </c>
       <c r="BO12" s="9">
         <f t="shared" si="49"/>
-        <v>5.5649910655655695E-3</v>
+        <v>1.1798273547356691E-2</v>
       </c>
       <c r="BP12" s="9">
         <f t="shared" si="50"/>
-        <v>-5.5649910655655695E-3</v>
+        <v>-1.5453722724514309E-2</v>
       </c>
       <c r="BQ12" s="9">
         <f t="shared" si="51"/>
-        <v>5.5649910655655695E-3</v>
+        <v>1.1798273547356691E-2</v>
       </c>
       <c r="BR12" s="9">
         <f t="shared" si="52"/>
-        <v>-5.5649910655655695E-3</v>
+        <v>-1.5453722724514309E-2</v>
       </c>
       <c r="BS12" s="7">
         <f t="shared" si="53"/>
@@ -2310,102 +2310,96 @@
       </c>
       <c r="BU12" s="7">
         <f t="shared" si="55"/>
-        <v>-5.6360188521588968E-4</v>
+        <v>8.020945408554114E-3</v>
       </c>
       <c r="BV12" s="9">
         <f t="shared" si="56"/>
-        <v>-4.0918614372328141E-5</v>
+        <v>-3.7163322948667197E-11</v>
       </c>
       <c r="BW12" s="9">
         <f t="shared" si="57"/>
-        <v>-4.0918614372328141E-5</v>
+        <v>-3.7163322948667197E-11</v>
       </c>
       <c r="BX12" s="9">
         <f t="shared" si="58"/>
-        <v>1.3757670300831262E-2</v>
+        <v>1.1798274131504327E-2</v>
       </c>
       <c r="BY12" s="9">
         <f t="shared" si="59"/>
-        <v>-1.3757670300831262E-2</v>
+        <v>-1.5453723488734909E-2</v>
       </c>
       <c r="BZ12" s="9">
         <f t="shared" si="41"/>
-        <v>-5.9662978571360017E-3</v>
+        <v>9.9999992989556169E-2</v>
       </c>
       <c r="CA12" s="9">
         <f t="shared" si="3"/>
-        <v>-5.9662978571360017E-3</v>
+        <v>9.9999992989556169E-2</v>
       </c>
       <c r="CB12" s="9">
         <f t="shared" si="3"/>
-        <v>-6.6648147145672715E-3</v>
+        <v>9.999999197025139E-2</v>
       </c>
       <c r="CC12" s="9">
         <f t="shared" si="3"/>
-        <v>-6.6648147145672715E-3</v>
+        <v>9.999999197025139E-2</v>
       </c>
       <c r="CD12" s="9">
         <f t="shared" si="3"/>
-        <v>-1.1853969814727087E-4</v>
+        <v>9.9999999913410284E-2</v>
       </c>
       <c r="CE12" s="9">
         <f t="shared" si="3"/>
-        <v>-1.1853969814727087E-4</v>
+        <v>9.9999999913410284E-2</v>
       </c>
       <c r="CF12" s="9">
         <f t="shared" si="3"/>
-        <v>-7.1027786593327348E-5</v>
+        <v>9.2007727632897815E-2</v>
       </c>
       <c r="CG12" s="9">
         <f t="shared" si="3"/>
-        <v>7.102778659333342E-5</v>
+        <v>9.3002776020268851E-2</v>
       </c>
       <c r="CH12" s="9">
         <f t="shared" si="3"/>
-        <v>-7.1027786593327348E-5</v>
+        <v>9.2007727632897815E-2</v>
       </c>
       <c r="CI12" s="9">
         <f t="shared" si="3"/>
-        <v>7.102778659333342E-5</v>
+        <v>9.3002776020268851E-2</v>
       </c>
       <c r="CJ12" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CK12" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CL12" s="7">
         <f t="shared" si="3"/>
-        <v>-1.870188268387969E-3</v>
+        <v>0.11508915090845562</v>
       </c>
       <c r="CM12" s="9">
         <f t="shared" si="3"/>
-        <v>-7.5590580314707881E-5</v>
+        <v>9.9999999910507509E-2</v>
       </c>
       <c r="CN12" s="9">
         <f t="shared" si="3"/>
-        <v>-7.5590580314707881E-5</v>
+        <v>9.9999999910507509E-2</v>
       </c>
       <c r="CO12" s="9">
         <f t="shared" si="3"/>
-        <v>-9.7596362097852538E-4</v>
+        <v>9.2007727531262878E-2</v>
       </c>
       <c r="CP12" s="9">
         <f t="shared" si="3"/>
-        <v>9.7596362097853405E-4</v>
+        <v>9.3002775531662252E-2</v>
       </c>
     </row>
     <row r="13" spans="11:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="K6:K8"/>
     <mergeCell ref="BZ7:CP7"/>
     <mergeCell ref="AR6:CP6"/>
     <mergeCell ref="P6:AQ6"/>
@@ -2415,6 +2409,12 @@
     <mergeCell ref="AD7:AJ7"/>
     <mergeCell ref="AR7:BH7"/>
     <mergeCell ref="BI7:BY7"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/helper ANN/MLP/simplified.weather.numeric.xlsx
+++ b/helper ANN/MLP/simplified.weather.numeric.xlsx
@@ -334,12 +334,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,6 +357,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="K1:CP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,211 +758,211 @@
     </row>
     <row r="5" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="L6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="23" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="23"/>
+      <c r="AN6" s="23"/>
+      <c r="AO6" s="23"/>
+      <c r="AP6" s="23"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="23"/>
-      <c r="AW6" s="23"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="23"/>
-      <c r="AZ6" s="23"/>
-      <c r="BA6" s="23"/>
-      <c r="BB6" s="23"/>
-      <c r="BC6" s="23"/>
-      <c r="BD6" s="23"/>
-      <c r="BE6" s="23"/>
-      <c r="BF6" s="23"/>
-      <c r="BG6" s="23"/>
-      <c r="BH6" s="23"/>
-      <c r="BI6" s="23"/>
-      <c r="BJ6" s="23"/>
-      <c r="BK6" s="23"/>
-      <c r="BL6" s="23"/>
-      <c r="BM6" s="23"/>
-      <c r="BN6" s="23"/>
-      <c r="BO6" s="23"/>
-      <c r="BP6" s="23"/>
-      <c r="BQ6" s="23"/>
-      <c r="BR6" s="23"/>
-      <c r="BS6" s="23"/>
-      <c r="BT6" s="23"/>
-      <c r="BU6" s="23"/>
-      <c r="BV6" s="23"/>
-      <c r="BW6" s="23"/>
-      <c r="BX6" s="23"/>
-      <c r="BY6" s="23"/>
-      <c r="BZ6" s="23"/>
-      <c r="CA6" s="23"/>
-      <c r="CB6" s="23"/>
-      <c r="CC6" s="23"/>
-      <c r="CD6" s="23"/>
-      <c r="CE6" s="23"/>
-      <c r="CF6" s="23"/>
-      <c r="CG6" s="23"/>
-      <c r="CH6" s="23"/>
-      <c r="CI6" s="23"/>
-      <c r="CJ6" s="23"/>
-      <c r="CK6" s="23"/>
-      <c r="CL6" s="23"/>
-      <c r="CM6" s="23"/>
-      <c r="CN6" s="23"/>
-      <c r="CO6" s="23"/>
-      <c r="CP6" s="23"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="21"/>
+      <c r="BQ6" s="21"/>
+      <c r="BR6" s="21"/>
+      <c r="BS6" s="21"/>
+      <c r="BT6" s="21"/>
+      <c r="BU6" s="21"/>
+      <c r="BV6" s="21"/>
+      <c r="BW6" s="21"/>
+      <c r="BX6" s="21"/>
+      <c r="BY6" s="21"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="21"/>
+      <c r="CC6" s="21"/>
+      <c r="CD6" s="21"/>
+      <c r="CE6" s="21"/>
+      <c r="CF6" s="21"/>
+      <c r="CG6" s="21"/>
+      <c r="CH6" s="21"/>
+      <c r="CI6" s="21"/>
+      <c r="CJ6" s="21"/>
+      <c r="CK6" s="21"/>
+      <c r="CL6" s="21"/>
+      <c r="CM6" s="21"/>
+      <c r="CN6" s="21"/>
+      <c r="CO6" s="21"/>
+      <c r="CP6" s="21"/>
     </row>
     <row r="7" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22" t="s">
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22" t="s">
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="27" t="s">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="22" t="s">
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
-      <c r="BC7" s="22"/>
-      <c r="BD7" s="22"/>
-      <c r="BE7" s="22"/>
-      <c r="BF7" s="22"/>
-      <c r="BG7" s="22"/>
-      <c r="BH7" s="22"/>
-      <c r="BI7" s="22" t="s">
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="20"/>
+      <c r="AX7" s="20"/>
+      <c r="AY7" s="20"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="20"/>
+      <c r="BB7" s="20"/>
+      <c r="BC7" s="20"/>
+      <c r="BD7" s="20"/>
+      <c r="BE7" s="20"/>
+      <c r="BF7" s="20"/>
+      <c r="BG7" s="20"/>
+      <c r="BH7" s="20"/>
+      <c r="BI7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="BJ7" s="22"/>
-      <c r="BK7" s="22"/>
-      <c r="BL7" s="22"/>
-      <c r="BM7" s="22"/>
-      <c r="BN7" s="22"/>
-      <c r="BO7" s="22"/>
-      <c r="BP7" s="22"/>
-      <c r="BQ7" s="22"/>
-      <c r="BR7" s="22"/>
-      <c r="BS7" s="22"/>
-      <c r="BT7" s="22"/>
-      <c r="BU7" s="22"/>
-      <c r="BV7" s="22"/>
-      <c r="BW7" s="22"/>
-      <c r="BX7" s="22"/>
-      <c r="BY7" s="22"/>
-      <c r="BZ7" s="22" t="s">
+      <c r="BJ7" s="20"/>
+      <c r="BK7" s="20"/>
+      <c r="BL7" s="20"/>
+      <c r="BM7" s="20"/>
+      <c r="BN7" s="20"/>
+      <c r="BO7" s="20"/>
+      <c r="BP7" s="20"/>
+      <c r="BQ7" s="20"/>
+      <c r="BR7" s="20"/>
+      <c r="BS7" s="20"/>
+      <c r="BT7" s="20"/>
+      <c r="BU7" s="20"/>
+      <c r="BV7" s="20"/>
+      <c r="BW7" s="20"/>
+      <c r="BX7" s="20"/>
+      <c r="BY7" s="20"/>
+      <c r="BZ7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CA7" s="22"/>
-      <c r="CB7" s="22"/>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="22"/>
-      <c r="CE7" s="22"/>
-      <c r="CF7" s="22"/>
-      <c r="CG7" s="22"/>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="22"/>
-      <c r="CK7" s="22"/>
-      <c r="CL7" s="22"/>
-      <c r="CM7" s="22"/>
-      <c r="CN7" s="22"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
+      <c r="CA7" s="20"/>
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="20"/>
+      <c r="CE7" s="20"/>
+      <c r="CF7" s="20"/>
+      <c r="CG7" s="20"/>
+      <c r="CH7" s="20"/>
+      <c r="CI7" s="20"/>
+      <c r="CJ7" s="20"/>
+      <c r="CK7" s="20"/>
+      <c r="CL7" s="20"/>
+      <c r="CM7" s="20"/>
+      <c r="CN7" s="20"/>
+      <c r="CO7" s="20"/>
+      <c r="CP7" s="20"/>
     </row>
     <row r="8" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="2">
         <v>0</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="9" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="20">
+      <c r="K9" s="28">
         <v>1</v>
       </c>
       <c r="L9" s="10">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="10" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="20"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="11">
         <v>80</v>
       </c>
@@ -1788,7 +1788,7 @@
       </c>
     </row>
     <row r="11" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="20"/>
+      <c r="K11" s="28"/>
       <c r="L11" s="11">
         <v>83</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="12" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="20"/>
+      <c r="K12" s="28"/>
       <c r="L12" s="6">
         <v>70</v>
       </c>
@@ -2400,6 +2400,12 @@
     <row r="13" spans="11:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="K6:K8"/>
     <mergeCell ref="BZ7:CP7"/>
     <mergeCell ref="AR6:CP6"/>
     <mergeCell ref="P6:AQ6"/>
@@ -2409,12 +2415,6 @@
     <mergeCell ref="AD7:AJ7"/>
     <mergeCell ref="AR7:BH7"/>
     <mergeCell ref="BI7:BY7"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/helper ANN/MLP/simplified.weather.numeric.xlsx
+++ b/helper ANN/MLP/simplified.weather.numeric.xlsx
@@ -334,6 +334,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,12 +363,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,7 +394,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>485046</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K1:CP13"/>
+  <dimension ref="K1:CP17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BR9" sqref="BR9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BJ14" sqref="BJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,211 +758,211 @@
     </row>
     <row r="5" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="29" t="s">
+      <c r="K6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="21" t="s">
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="21"/>
-      <c r="BQ6" s="21"/>
-      <c r="BR6" s="21"/>
-      <c r="BS6" s="21"/>
-      <c r="BT6" s="21"/>
-      <c r="BU6" s="21"/>
-      <c r="BV6" s="21"/>
-      <c r="BW6" s="21"/>
-      <c r="BX6" s="21"/>
-      <c r="BY6" s="21"/>
-      <c r="BZ6" s="21"/>
-      <c r="CA6" s="21"/>
-      <c r="CB6" s="21"/>
-      <c r="CC6" s="21"/>
-      <c r="CD6" s="21"/>
-      <c r="CE6" s="21"/>
-      <c r="CF6" s="21"/>
-      <c r="CG6" s="21"/>
-      <c r="CH6" s="21"/>
-      <c r="CI6" s="21"/>
-      <c r="CJ6" s="21"/>
-      <c r="CK6" s="21"/>
-      <c r="CL6" s="21"/>
-      <c r="CM6" s="21"/>
-      <c r="CN6" s="21"/>
-      <c r="CO6" s="21"/>
-      <c r="CP6" s="21"/>
+      <c r="AS6" s="23"/>
+      <c r="AT6" s="23"/>
+      <c r="AU6" s="23"/>
+      <c r="AV6" s="23"/>
+      <c r="AW6" s="23"/>
+      <c r="AX6" s="23"/>
+      <c r="AY6" s="23"/>
+      <c r="AZ6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="23"/>
+      <c r="BC6" s="23"/>
+      <c r="BD6" s="23"/>
+      <c r="BE6" s="23"/>
+      <c r="BF6" s="23"/>
+      <c r="BG6" s="23"/>
+      <c r="BH6" s="23"/>
+      <c r="BI6" s="23"/>
+      <c r="BJ6" s="23"/>
+      <c r="BK6" s="23"/>
+      <c r="BL6" s="23"/>
+      <c r="BM6" s="23"/>
+      <c r="BN6" s="23"/>
+      <c r="BO6" s="23"/>
+      <c r="BP6" s="23"/>
+      <c r="BQ6" s="23"/>
+      <c r="BR6" s="23"/>
+      <c r="BS6" s="23"/>
+      <c r="BT6" s="23"/>
+      <c r="BU6" s="23"/>
+      <c r="BV6" s="23"/>
+      <c r="BW6" s="23"/>
+      <c r="BX6" s="23"/>
+      <c r="BY6" s="23"/>
+      <c r="BZ6" s="23"/>
+      <c r="CA6" s="23"/>
+      <c r="CB6" s="23"/>
+      <c r="CC6" s="23"/>
+      <c r="CD6" s="23"/>
+      <c r="CE6" s="23"/>
+      <c r="CF6" s="23"/>
+      <c r="CG6" s="23"/>
+      <c r="CH6" s="23"/>
+      <c r="CI6" s="23"/>
+      <c r="CJ6" s="23"/>
+      <c r="CK6" s="23"/>
+      <c r="CL6" s="23"/>
+      <c r="CM6" s="23"/>
+      <c r="CN6" s="23"/>
+      <c r="CO6" s="23"/>
+      <c r="CP6" s="23"/>
     </row>
     <row r="7" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="20" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20" t="s">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20" t="s">
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="25" t="s">
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="20" t="s">
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
-      <c r="AW7" s="20"/>
-      <c r="AX7" s="20"/>
-      <c r="AY7" s="20"/>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="20"/>
-      <c r="BB7" s="20"/>
-      <c r="BC7" s="20"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="20"/>
-      <c r="BF7" s="20"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="20"/>
-      <c r="BI7" s="20" t="s">
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
+      <c r="BD7" s="22"/>
+      <c r="BE7" s="22"/>
+      <c r="BF7" s="22"/>
+      <c r="BG7" s="22"/>
+      <c r="BH7" s="22"/>
+      <c r="BI7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="BJ7" s="20"/>
-      <c r="BK7" s="20"/>
-      <c r="BL7" s="20"/>
-      <c r="BM7" s="20"/>
-      <c r="BN7" s="20"/>
-      <c r="BO7" s="20"/>
-      <c r="BP7" s="20"/>
-      <c r="BQ7" s="20"/>
-      <c r="BR7" s="20"/>
-      <c r="BS7" s="20"/>
-      <c r="BT7" s="20"/>
-      <c r="BU7" s="20"/>
-      <c r="BV7" s="20"/>
-      <c r="BW7" s="20"/>
-      <c r="BX7" s="20"/>
-      <c r="BY7" s="20"/>
-      <c r="BZ7" s="20" t="s">
+      <c r="BJ7" s="22"/>
+      <c r="BK7" s="22"/>
+      <c r="BL7" s="22"/>
+      <c r="BM7" s="22"/>
+      <c r="BN7" s="22"/>
+      <c r="BO7" s="22"/>
+      <c r="BP7" s="22"/>
+      <c r="BQ7" s="22"/>
+      <c r="BR7" s="22"/>
+      <c r="BS7" s="22"/>
+      <c r="BT7" s="22"/>
+      <c r="BU7" s="22"/>
+      <c r="BV7" s="22"/>
+      <c r="BW7" s="22"/>
+      <c r="BX7" s="22"/>
+      <c r="BY7" s="22"/>
+      <c r="BZ7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CA7" s="20"/>
-      <c r="CB7" s="20"/>
-      <c r="CC7" s="20"/>
-      <c r="CD7" s="20"/>
-      <c r="CE7" s="20"/>
-      <c r="CF7" s="20"/>
-      <c r="CG7" s="20"/>
-      <c r="CH7" s="20"/>
-      <c r="CI7" s="20"/>
-      <c r="CJ7" s="20"/>
-      <c r="CK7" s="20"/>
-      <c r="CL7" s="20"/>
-      <c r="CM7" s="20"/>
-      <c r="CN7" s="20"/>
-      <c r="CO7" s="20"/>
-      <c r="CP7" s="20"/>
+      <c r="CA7" s="22"/>
+      <c r="CB7" s="22"/>
+      <c r="CC7" s="22"/>
+      <c r="CD7" s="22"/>
+      <c r="CE7" s="22"/>
+      <c r="CF7" s="22"/>
+      <c r="CG7" s="22"/>
+      <c r="CH7" s="22"/>
+      <c r="CI7" s="22"/>
+      <c r="CJ7" s="22"/>
+      <c r="CK7" s="22"/>
+      <c r="CL7" s="22"/>
+      <c r="CM7" s="22"/>
+      <c r="CN7" s="22"/>
+      <c r="CO7" s="22"/>
+      <c r="CP7" s="22"/>
     </row>
     <row r="8" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="2">
         <v>0</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="9" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="28">
+      <c r="K9" s="20">
         <v>1</v>
       </c>
       <c r="L9" s="10">
@@ -1483,7 +1483,7 @@
       </c>
     </row>
     <row r="10" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="28"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="11">
         <v>80</v>
       </c>
@@ -1520,11 +1520,11 @@
         <v>80</v>
       </c>
       <c r="X10" s="11">
-        <f t="shared" ref="X10:X12" si="9">M10</f>
+        <f t="shared" ref="X10:X13" si="9">M10</f>
         <v>90</v>
       </c>
       <c r="Y10" s="11">
-        <f t="shared" ref="Y10:Y12" si="10">N10</f>
+        <f t="shared" ref="Y10:Y13" si="10">N10</f>
         <v>0</v>
       </c>
       <c r="Z10" s="8">
@@ -1532,15 +1532,15 @@
         <v>0.99999996254028922</v>
       </c>
       <c r="AA10" s="8">
-        <f t="shared" ref="AA10:AA12" si="12">1/(1+EXP(-T10))</f>
+        <f t="shared" ref="AA10:AA13" si="12">1/(1+EXP(-T10))</f>
         <v>0.99999996254028922</v>
       </c>
       <c r="AB10" s="8">
-        <f t="shared" ref="AB10:AB12" si="13">1/(1+EXP(-U10))</f>
+        <f t="shared" ref="AB10:AB13" si="13">1/(1+EXP(-U10))</f>
         <v>0.5641130663041356</v>
       </c>
       <c r="AC10" s="8">
-        <f t="shared" ref="AC10:AC12" si="14">1/(1+EXP(-V10))</f>
+        <f t="shared" ref="AC10:AC13" si="14">1/(1+EXP(-V10))</f>
         <v>0.58205359154975622</v>
       </c>
       <c r="AD10" s="15"/>
@@ -1587,67 +1587,67 @@
         <v>9.9999998951400493E-2</v>
       </c>
       <c r="AS10" s="8">
-        <f t="shared" ref="AS10:AS12" si="22">CA9</f>
+        <f t="shared" ref="AS10:AS16" si="22">CA9</f>
         <v>9.9999998951400493E-2</v>
       </c>
       <c r="AT10" s="8">
-        <f t="shared" ref="AT10:AT12" si="23">CB9</f>
+        <f t="shared" ref="AT10:AT16" si="23">CB9</f>
         <v>9.9999998951400493E-2</v>
       </c>
       <c r="AU10" s="8">
-        <f t="shared" ref="AU10:AU12" si="24">CC9</f>
+        <f t="shared" ref="AU10:AU16" si="24">CC9</f>
         <v>9.9999998951400493E-2</v>
       </c>
       <c r="AV10" s="8">
-        <f t="shared" ref="AV10:AV12" si="25">CD9</f>
+        <f t="shared" ref="AV10:AV16" si="25">CD9</f>
         <v>9.999999998766354E-2</v>
       </c>
       <c r="AW10" s="8">
-        <f t="shared" ref="AW10:AW12" si="26">CE9</f>
+        <f t="shared" ref="AW10:AW16" si="26">CE9</f>
         <v>9.999999998766354E-2</v>
       </c>
       <c r="AX10" s="8">
-        <f t="shared" ref="AX10:AX12" si="27">CF9</f>
+        <f t="shared" ref="AX10:AX16" si="27">CF9</f>
         <v>8.5957275719999213E-2</v>
       </c>
       <c r="AY10" s="8">
-        <f t="shared" ref="AY10:AY12" si="28">CG9</f>
+        <f t="shared" ref="AY10:AY16" si="28">CG9</f>
         <v>0.11040310608515669</v>
       </c>
       <c r="AZ10" s="8">
-        <f t="shared" ref="AZ10:AZ12" si="29">CH9</f>
+        <f t="shared" ref="AZ10:AZ16" si="29">CH9</f>
         <v>8.5957275719999213E-2</v>
       </c>
       <c r="BA10" s="8">
-        <f t="shared" ref="BA10:BA12" si="30">CI9</f>
+        <f t="shared" ref="BA10:BA16" si="30">CI9</f>
         <v>0.11040310608515669</v>
       </c>
       <c r="BB10" s="5">
-        <f t="shared" ref="BB10:BB12" si="31">CJ9</f>
+        <f t="shared" ref="BB10:BB16" si="31">CJ9</f>
         <v>0.1</v>
       </c>
       <c r="BC10" s="5">
-        <f t="shared" ref="BC10:BC12" si="32">CK9</f>
+        <f t="shared" ref="BC10:BC16" si="32">CK9</f>
         <v>0.1</v>
       </c>
       <c r="BD10" s="5">
-        <f t="shared" ref="BD10:BD12" si="33">CL9</f>
+        <f t="shared" ref="BD10:BD16" si="33">CL9</f>
         <v>0.1</v>
       </c>
       <c r="BE10" s="8">
-        <f t="shared" ref="BE10:BE12" si="34">CM9</f>
+        <f t="shared" ref="BE10:BE16" si="34">CM9</f>
         <v>9.999999998766354E-2</v>
       </c>
       <c r="BF10" s="8">
-        <f t="shared" ref="BF10:BF12" si="35">CN9</f>
+        <f t="shared" ref="BF10:BF16" si="35">CN9</f>
         <v>9.999999998766354E-2</v>
       </c>
       <c r="BG10" s="8">
-        <f t="shared" ref="BG10:BG12" si="36">CO9</f>
+        <f t="shared" ref="BG10:BG16" si="36">CO9</f>
         <v>8.5957275244021858E-2</v>
       </c>
       <c r="BH10" s="8">
-        <f t="shared" ref="BH10:BH12" si="37">CP9</f>
+        <f t="shared" ref="BH10:BH16" si="37">CP9</f>
         <v>0.11040310643776938</v>
       </c>
       <c r="BI10" s="8">
@@ -1788,7 +1788,7 @@
       </c>
     </row>
     <row r="11" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="28"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="11">
         <v>83</v>
       </c>
@@ -2093,7 +2093,7 @@
       </c>
     </row>
     <row r="12" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="28"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="6">
         <v>70</v>
       </c>
@@ -2397,15 +2397,1223 @@
         <v>9.3002775531662252E-2</v>
       </c>
     </row>
-    <row r="13" spans="11:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="20">
+        <v>2</v>
+      </c>
+      <c r="L13" s="10">
+        <v>85</v>
+      </c>
+      <c r="M13" s="10">
+        <v>85</v>
+      </c>
+      <c r="N13" s="10">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="4">
+        <f>AR13*W13+AT13*X13+AV13*Y13+$L$4*BE13</f>
+        <v>17.199998721407564</v>
+      </c>
+      <c r="T13" s="4">
+        <f>AS13*W13+AU13*X13+AW13*Y13+$L$4*BF13</f>
+        <v>17.199998721407564</v>
+      </c>
+      <c r="U13" s="4">
+        <f>AX13*Z13+AZ13*AA13+BG13*$L$4</f>
+        <v>0.27602317655985731</v>
+      </c>
+      <c r="V13" s="4">
+        <f>AY13*Z13+BA13*AA13+BH13*$L$4</f>
+        <v>0.27900832126754449</v>
+      </c>
+      <c r="W13" s="10">
+        <f>L13</f>
+        <v>85</v>
+      </c>
+      <c r="X13" s="10">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="Y13" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>1/(1+EXP(-S13))</f>
+        <v>0.99999996610501451</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="12"/>
+        <v>0.99999996610501451</v>
+      </c>
+      <c r="AB13" s="4">
+        <f t="shared" si="13"/>
+        <v>0.56857098425098596</v>
+      </c>
+      <c r="AC13" s="4">
+        <f t="shared" si="14"/>
+        <v>0.56930308393725881</v>
+      </c>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="4">
+        <f>W13*(1-W13)*(AR13*AN13+AS13*AO13)</f>
+        <v>1.457211122916481E-7</v>
+      </c>
+      <c r="AL13" s="4">
+        <f>X13*(1-X13)*(AT13*AN13+AU13*AO13)</f>
+        <v>1.4572111080630571E-7</v>
+      </c>
+      <c r="AM13" s="4">
+        <f>Y13*(1-Y13)*(AV13*AN13+AW13*AO13)</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="4">
+        <f>Z13*(1-Z13)*(AX13*AP13+AY13*AQ13)</f>
+        <v>-1.0204560399674057E-10</v>
+      </c>
+      <c r="AO13" s="4">
+        <f>AA13*(1-AA13)*(AZ13*AP13+BA13*AQ13)</f>
+        <v>-1.0204560399674057E-10</v>
+      </c>
+      <c r="AP13" s="4">
+        <f>AB13*(1-AB13)*(AI13-AB13)</f>
+        <v>-0.1394693367337933</v>
+      </c>
+      <c r="AQ13" s="4">
+        <f>AC13*(1-AC13)*(AJ13-AC13)</f>
+        <v>0.10560562728478877</v>
+      </c>
+      <c r="AR13" s="4">
+        <f>BZ12</f>
+        <v>9.9999992989556169E-2</v>
+      </c>
+      <c r="AS13" s="4">
+        <f t="shared" si="22"/>
+        <v>9.9999992989556169E-2</v>
+      </c>
+      <c r="AT13" s="4">
+        <f t="shared" si="23"/>
+        <v>9.999999197025139E-2</v>
+      </c>
+      <c r="AU13" s="4">
+        <f t="shared" si="24"/>
+        <v>9.999999197025139E-2</v>
+      </c>
+      <c r="AV13" s="4">
+        <f t="shared" si="25"/>
+        <v>9.9999999913410284E-2</v>
+      </c>
+      <c r="AW13" s="4">
+        <f t="shared" si="26"/>
+        <v>9.9999999913410284E-2</v>
+      </c>
+      <c r="AX13" s="4">
+        <f t="shared" si="27"/>
+        <v>9.2007727632897815E-2</v>
+      </c>
+      <c r="AY13" s="4">
+        <f t="shared" si="28"/>
+        <v>9.3002776020268851E-2</v>
+      </c>
+      <c r="AZ13" s="4">
+        <f t="shared" si="29"/>
+        <v>9.2007727632897815E-2</v>
+      </c>
+      <c r="BA13" s="4">
+        <f t="shared" si="30"/>
+        <v>9.3002776020268851E-2</v>
+      </c>
+      <c r="BB13" s="3">
+        <f t="shared" si="31"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC13" s="3">
+        <f t="shared" si="32"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD13" s="3">
+        <f t="shared" si="33"/>
+        <v>0.11508915090845562</v>
+      </c>
+      <c r="BE13" s="4">
+        <f t="shared" si="34"/>
+        <v>9.9999999910507509E-2</v>
+      </c>
+      <c r="BF13" s="4">
+        <f t="shared" si="35"/>
+        <v>9.9999999910507509E-2</v>
+      </c>
+      <c r="BG13" s="4">
+        <f t="shared" si="36"/>
+        <v>9.2007727531262878E-2</v>
+      </c>
+      <c r="BH13" s="4">
+        <f t="shared" si="37"/>
+        <v>9.3002775531662252E-2</v>
+      </c>
+      <c r="BI13" s="4">
+        <f>$L$2*AN13*W13</f>
+        <v>-8.6738763397229483E-10</v>
+      </c>
+      <c r="BJ13" s="4">
+        <f>$L$2*AO13*W13</f>
+        <v>-8.6738763397229483E-10</v>
+      </c>
+      <c r="BK13" s="4">
+        <f>$L$2*AN13*X13</f>
+        <v>-8.6738763397229483E-10</v>
+      </c>
+      <c r="BL13" s="4">
+        <f>$L$2*AO13*X13</f>
+        <v>-8.6738763397229483E-10</v>
+      </c>
+      <c r="BM13" s="4">
+        <f>$L$2*AN13*Y13</f>
+        <v>-1.0204560399674057E-11</v>
+      </c>
+      <c r="BN13" s="4">
+        <f>$L$2*AO13*Y13</f>
+        <v>-1.0204560399674057E-11</v>
+      </c>
+      <c r="BO13" s="4">
+        <f>$L$2*AP13*Z13</f>
+        <v>-1.3946933200648217E-2</v>
+      </c>
+      <c r="BP13" s="4">
+        <f>$L$2*AQ13*Z13</f>
+        <v>1.0560562370528756E-2</v>
+      </c>
+      <c r="BQ13" s="4">
+        <f>$L$2*AP13*AA13</f>
+        <v>-1.3946933200648217E-2</v>
+      </c>
+      <c r="BR13" s="4">
+        <f>$L$2*AQ13*AA13</f>
+        <v>1.0560562370528756E-2</v>
+      </c>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3"/>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="4">
+        <f>$L$2*AN13*$L$4</f>
+        <v>-1.0204560399674057E-11</v>
+      </c>
+      <c r="BW13" s="4">
+        <f>$L$2*AO13*$L$4</f>
+        <v>-1.0204560399674057E-11</v>
+      </c>
+      <c r="BX13" s="4">
+        <f t="shared" ref="BX13" si="60">$L$2*AP13*$L$4</f>
+        <v>-1.3946933673379331E-2</v>
+      </c>
+      <c r="BY13" s="4">
+        <f t="shared" ref="BY13" si="61">$L$2*AQ13*$L$4</f>
+        <v>1.0560562728478877E-2</v>
+      </c>
+      <c r="BZ13" s="4">
+        <f>AR13+BI13</f>
+        <v>9.9999992122168535E-2</v>
+      </c>
+      <c r="CA13" s="4">
+        <f t="shared" ref="CA13:CA16" si="62">AS13+BJ13</f>
+        <v>9.9999992122168535E-2</v>
+      </c>
+      <c r="CB13" s="4">
+        <f t="shared" ref="CB13:CB16" si="63">AT13+BK13</f>
+        <v>9.9999991102863756E-2</v>
+      </c>
+      <c r="CC13" s="4">
+        <f t="shared" ref="CC13:CC16" si="64">AU13+BL13</f>
+        <v>9.9999991102863756E-2</v>
+      </c>
+      <c r="CD13" s="4">
+        <f t="shared" ref="CD13:CD16" si="65">AV13+BM13</f>
+        <v>9.9999999903205725E-2</v>
+      </c>
+      <c r="CE13" s="4">
+        <f t="shared" ref="CE13:CE16" si="66">AW13+BN13</f>
+        <v>9.9999999903205725E-2</v>
+      </c>
+      <c r="CF13" s="4">
+        <f t="shared" ref="CF13:CF16" si="67">AX13+BO13</f>
+        <v>7.80607944322496E-2</v>
+      </c>
+      <c r="CG13" s="4">
+        <f t="shared" ref="CG13:CG16" si="68">AY13+BP13</f>
+        <v>0.10356333839079761</v>
+      </c>
+      <c r="CH13" s="4">
+        <f t="shared" ref="CH13:CH16" si="69">AZ13+BQ13</f>
+        <v>7.80607944322496E-2</v>
+      </c>
+      <c r="CI13" s="4">
+        <f t="shared" ref="CI13:CI16" si="70">BA13+BR13</f>
+        <v>0.10356333839079761</v>
+      </c>
+      <c r="CJ13" s="3">
+        <f t="shared" ref="CJ13:CJ16" si="71">BB13+BS13</f>
+        <v>0.1</v>
+      </c>
+      <c r="CK13" s="3">
+        <f t="shared" ref="CK13:CK16" si="72">BC13+BT13</f>
+        <v>0.1</v>
+      </c>
+      <c r="CL13" s="3">
+        <f t="shared" ref="CL13:CL16" si="73">BD13+BU13</f>
+        <v>0.11508915090845562</v>
+      </c>
+      <c r="CM13" s="4">
+        <f t="shared" ref="CM13:CM16" si="74">BE13+BV13</f>
+        <v>9.9999999900302949E-2</v>
+      </c>
+      <c r="CN13" s="4">
+        <f t="shared" ref="CN13:CN16" si="75">BF13+BW13</f>
+        <v>9.9999999900302949E-2</v>
+      </c>
+      <c r="CO13" s="4">
+        <f t="shared" ref="CO13:CO16" si="76">BG13+BX13</f>
+        <v>7.8060793857883545E-2</v>
+      </c>
+      <c r="CP13" s="4">
+        <f t="shared" ref="CP13:CP16" si="77">BH13+BY13</f>
+        <v>0.10356333826014114</v>
+      </c>
+    </row>
+    <row r="14" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="20"/>
+      <c r="L14" s="11">
+        <v>80</v>
+      </c>
+      <c r="M14" s="11">
+        <v>90</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="8">
+        <f t="shared" ref="S14:S16" si="78">AR14*W14+AT14*X14+AV14*Y14+$L$4*BE14</f>
+        <v>17.099998568931522</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" ref="T14:T16" si="79">AS14*W14+AU14*X14+AW14*Y14+$L$4*BF14</f>
+        <v>17.099998568931522</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" ref="U14:U16" si="80">AX14*Z14+AZ14*AA14+BG14*$L$4</f>
+        <v>0.23418237687410587</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" ref="V14:V16" si="81">AY14*Z14+BA14*AA14+BH14*$L$4</f>
+        <v>0.31069000728282126</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" ref="W14:W16" si="82">L14</f>
+        <v>80</v>
+      </c>
+      <c r="X14" s="11">
+        <f t="shared" ref="X14:X16" si="83">M14</f>
+        <v>90</v>
+      </c>
+      <c r="Y14" s="11">
+        <f t="shared" ref="Y14:Y16" si="84">N14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" ref="Z14:Z16" si="85">1/(1+EXP(-S14))</f>
+        <v>0.99999996254024237</v>
+      </c>
+      <c r="AA14" s="8">
+        <f t="shared" ref="AA14:AA16" si="86">1/(1+EXP(-T14))</f>
+        <v>0.99999996254024237</v>
+      </c>
+      <c r="AB14" s="8">
+        <f t="shared" ref="AB14:AB16" si="87">1/(1+EXP(-U14))</f>
+        <v>0.55827949333161353</v>
+      </c>
+      <c r="AC14" s="8">
+        <f t="shared" ref="AC14:AC16" si="88">1/(1+EXP(-V14))</f>
+        <v>0.57705367514148931</v>
+      </c>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="8">
+        <f t="shared" ref="AK14:AK16" si="89">W14*(1-W14)*(AR14*AN14+AS14*AO14)</f>
+        <v>2.6774017578645533E-9</v>
+      </c>
+      <c r="AL14" s="8">
+        <f t="shared" ref="AL14:AL16" si="90">X14*(1-X14)*(AT14*AN14+AU14*AO14)</f>
+        <v>3.393352509793524E-9</v>
+      </c>
+      <c r="AM14" s="8">
+        <f t="shared" ref="AM14:AM16" si="91">Y14*(1-Y14)*(AV14*AN14+AW14*AO14)</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="8">
+        <f t="shared" ref="AN14:AN16" si="92">Z14*(1-Z14)*(AX14*AP14+AY14*AQ14)</f>
+        <v>-2.1181977601153226E-12</v>
+      </c>
+      <c r="AO14" s="8">
+        <f t="shared" ref="AO14:AO16" si="93">AA14*(1-AA14)*(AZ14*AP14+BA14*AQ14)</f>
+        <v>-2.1181977601153226E-12</v>
+      </c>
+      <c r="AP14" s="8">
+        <f t="shared" ref="AP14:AP16" si="94">AB14*(1-AB14)*(AI14-AB14)</f>
+        <v>-0.13767367740059799</v>
+      </c>
+      <c r="AQ14" s="8">
+        <f t="shared" ref="AQ14:AQ16" si="95">AC14*(1-AC14)*(AJ14-AC14)</f>
+        <v>0.10322543517363471</v>
+      </c>
+      <c r="AR14" s="8">
+        <f t="shared" ref="AR14:AR16" si="96">BZ13</f>
+        <v>9.9999992122168535E-2</v>
+      </c>
+      <c r="AS14" s="8">
+        <f t="shared" si="22"/>
+        <v>9.9999992122168535E-2</v>
+      </c>
+      <c r="AT14" s="8">
+        <f t="shared" si="23"/>
+        <v>9.9999991102863756E-2</v>
+      </c>
+      <c r="AU14" s="8">
+        <f t="shared" si="24"/>
+        <v>9.9999991102863756E-2</v>
+      </c>
+      <c r="AV14" s="8">
+        <f t="shared" si="25"/>
+        <v>9.9999999903205725E-2</v>
+      </c>
+      <c r="AW14" s="8">
+        <f t="shared" si="26"/>
+        <v>9.9999999903205725E-2</v>
+      </c>
+      <c r="AX14" s="8">
+        <f t="shared" si="27"/>
+        <v>7.80607944322496E-2</v>
+      </c>
+      <c r="AY14" s="8">
+        <f t="shared" si="28"/>
+        <v>0.10356333839079761</v>
+      </c>
+      <c r="AZ14" s="8">
+        <f t="shared" si="29"/>
+        <v>7.80607944322496E-2</v>
+      </c>
+      <c r="BA14" s="8">
+        <f t="shared" si="30"/>
+        <v>0.10356333839079761</v>
+      </c>
+      <c r="BB14" s="5">
+        <f t="shared" si="31"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC14" s="5">
+        <f t="shared" si="32"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD14" s="5">
+        <f t="shared" si="33"/>
+        <v>0.11508915090845562</v>
+      </c>
+      <c r="BE14" s="8">
+        <f t="shared" si="34"/>
+        <v>9.9999999900302949E-2</v>
+      </c>
+      <c r="BF14" s="8">
+        <f t="shared" si="35"/>
+        <v>9.9999999900302949E-2</v>
+      </c>
+      <c r="BG14" s="8">
+        <f>CO13</f>
+        <v>7.8060793857883545E-2</v>
+      </c>
+      <c r="BH14" s="8">
+        <f t="shared" si="37"/>
+        <v>0.10356333826014114</v>
+      </c>
+      <c r="BI14" s="8">
+        <f>$L$2*AN14*W14+$L$3*BI13</f>
+        <v>-1.0368434547815208E-10</v>
+      </c>
+      <c r="BJ14" s="8">
+        <f>$L$2*AO14*W14+$L$3*BJ13</f>
+        <v>-1.0368434547815208E-10</v>
+      </c>
+      <c r="BK14" s="8">
+        <f>$L$2*AN14*X14+BK13*$L$3</f>
+        <v>-1.058025432382674E-10</v>
+      </c>
+      <c r="BL14" s="8">
+        <f>$L$2*AO14*X14+BL13*$L$3</f>
+        <v>-1.058025432382674E-10</v>
+      </c>
+      <c r="BM14" s="8">
+        <f>$L$2*AN14*Y14+BM13*$L$3</f>
+        <v>-1.0204560399674057E-12</v>
+      </c>
+      <c r="BN14" s="8">
+        <f>$L$2*AO14*Y14+BN13*$L$3</f>
+        <v>-1.0204560399674057E-12</v>
+      </c>
+      <c r="BO14" s="8">
+        <f>$L$2*AP14*Z14+BO13*$L$3</f>
+        <v>-1.5162060544402365E-2</v>
+      </c>
+      <c r="BP14" s="8">
+        <f>$L$2*AQ14*Z14+BP13*$L$3</f>
+        <v>1.1378599367736369E-2</v>
+      </c>
+      <c r="BQ14" s="8">
+        <f>$L$2*AP14*AA14+BQ13*$L$3</f>
+        <v>-1.5162060544402365E-2</v>
+      </c>
+      <c r="BR14" s="8">
+        <f>$L$2*AQ14*AA14+BR13*$L$3</f>
+        <v>1.1378599367736369E-2</v>
+      </c>
+      <c r="BS14" s="5">
+        <f t="shared" ref="BS14:BS16" si="97">$L$2*AX14*AG14</f>
+        <v>0</v>
+      </c>
+      <c r="BT14" s="5">
+        <f t="shared" ref="BT14:BT16" si="98">$L$2*AY14*AH14</f>
+        <v>0</v>
+      </c>
+      <c r="BU14" s="5">
+        <f t="shared" ref="BU14:BU16" si="99">$L$2*AZ14*AI14</f>
+        <v>0</v>
+      </c>
+      <c r="BV14" s="8">
+        <f>$L$2*AN14*$L$4+BV13*$L$3</f>
+        <v>-1.232275815978938E-12</v>
+      </c>
+      <c r="BW14" s="8">
+        <f>$L$2*AO14*$L$4+BW13*$L$3</f>
+        <v>-1.232275815978938E-12</v>
+      </c>
+      <c r="BX14" s="8">
+        <f>$L$2*AP14*$L$4+BX13*$L$3</f>
+        <v>-1.5162061107397734E-2</v>
+      </c>
+      <c r="BY14" s="8">
+        <f>$L$2*AQ14*$L$4+BY13*$L$3</f>
+        <v>1.137859979021136E-2</v>
+      </c>
+      <c r="BZ14" s="8">
+        <f t="shared" ref="BZ14:BZ16" si="100">AR14+BI14</f>
+        <v>9.9999992018484196E-2</v>
+      </c>
+      <c r="CA14" s="8">
+        <f t="shared" si="62"/>
+        <v>9.9999992018484196E-2</v>
+      </c>
+      <c r="CB14" s="8">
+        <f t="shared" si="63"/>
+        <v>9.9999990997061208E-2</v>
+      </c>
+      <c r="CC14" s="8">
+        <f t="shared" si="64"/>
+        <v>9.9999990997061208E-2</v>
+      </c>
+      <c r="CD14" s="8">
+        <f t="shared" si="65"/>
+        <v>9.9999999902185263E-2</v>
+      </c>
+      <c r="CE14" s="8">
+        <f t="shared" si="66"/>
+        <v>9.9999999902185263E-2</v>
+      </c>
+      <c r="CF14" s="8">
+        <f t="shared" si="67"/>
+        <v>6.2898733887847239E-2</v>
+      </c>
+      <c r="CG14" s="8">
+        <f t="shared" si="68"/>
+        <v>0.11494193775853398</v>
+      </c>
+      <c r="CH14" s="8">
+        <f t="shared" si="69"/>
+        <v>6.2898733887847239E-2</v>
+      </c>
+      <c r="CI14" s="8">
+        <f t="shared" si="70"/>
+        <v>0.11494193775853398</v>
+      </c>
+      <c r="CJ14" s="5">
+        <f t="shared" si="71"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK14" s="5">
+        <f t="shared" si="72"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL14" s="5">
+        <f t="shared" si="73"/>
+        <v>0.11508915090845562</v>
+      </c>
+      <c r="CM14" s="8">
+        <f t="shared" si="74"/>
+        <v>9.9999999899070671E-2</v>
+      </c>
+      <c r="CN14" s="8">
+        <f t="shared" si="75"/>
+        <v>9.9999999899070671E-2</v>
+      </c>
+      <c r="CO14" s="8">
+        <f t="shared" si="76"/>
+        <v>6.2898732750485811E-2</v>
+      </c>
+      <c r="CP14" s="8">
+        <f t="shared" si="77"/>
+        <v>0.11494193805035249</v>
+      </c>
+    </row>
+    <row r="15" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="20"/>
+      <c r="L15" s="11">
+        <v>83</v>
+      </c>
+      <c r="M15" s="11">
+        <v>86</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="8">
+        <f t="shared" si="78"/>
+        <v>17.099998563082707</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="79"/>
+        <v>17.099998563082707</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="80"/>
+        <v>0.18869619581383762</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="81"/>
+        <v>0.34482580495602611</v>
+      </c>
+      <c r="W15" s="11">
+        <f t="shared" si="82"/>
+        <v>83</v>
+      </c>
+      <c r="X15" s="11">
+        <f t="shared" si="83"/>
+        <v>86</v>
+      </c>
+      <c r="Y15" s="11">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="8">
+        <f t="shared" si="85"/>
+        <v>0.99999996254024215</v>
+      </c>
+      <c r="AA15" s="8">
+        <f t="shared" si="86"/>
+        <v>0.99999996254024215</v>
+      </c>
+      <c r="AB15" s="8">
+        <f t="shared" si="87"/>
+        <v>0.54703457129477451</v>
+      </c>
+      <c r="AC15" s="8">
+        <f t="shared" si="88"/>
+        <v>0.58536229030786791</v>
+      </c>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="8">
+        <f t="shared" si="89"/>
+        <v>4.7271449277822639E-7</v>
+      </c>
+      <c r="AL15" s="8">
+        <f t="shared" si="90"/>
+        <v>5.0772008623466385E-7</v>
+      </c>
+      <c r="AM15" s="8">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="8">
+        <f t="shared" si="92"/>
+        <v>-3.4727779202763102E-10</v>
+      </c>
+      <c r="AO15" s="8">
+        <f t="shared" si="93"/>
+        <v>-3.4727779202763102E-10</v>
+      </c>
+      <c r="AP15" s="8">
+        <f t="shared" si="94"/>
+        <v>0.11223928400039614</v>
+      </c>
+      <c r="AQ15" s="8">
+        <f t="shared" si="95"/>
+        <v>-0.1420752011138513</v>
+      </c>
+      <c r="AR15" s="8">
+        <f t="shared" si="96"/>
+        <v>9.9999992018484196E-2</v>
+      </c>
+      <c r="AS15" s="8">
+        <f t="shared" si="22"/>
+        <v>9.9999992018484196E-2</v>
+      </c>
+      <c r="AT15" s="8">
+        <f t="shared" si="23"/>
+        <v>9.9999990997061208E-2</v>
+      </c>
+      <c r="AU15" s="8">
+        <f t="shared" si="24"/>
+        <v>9.9999990997061208E-2</v>
+      </c>
+      <c r="AV15" s="8">
+        <f t="shared" si="25"/>
+        <v>9.9999999902185263E-2</v>
+      </c>
+      <c r="AW15" s="8">
+        <f t="shared" si="26"/>
+        <v>9.9999999902185263E-2</v>
+      </c>
+      <c r="AX15" s="8">
+        <f t="shared" si="27"/>
+        <v>6.2898733887847239E-2</v>
+      </c>
+      <c r="AY15" s="8">
+        <f t="shared" si="28"/>
+        <v>0.11494193775853398</v>
+      </c>
+      <c r="AZ15" s="8">
+        <f t="shared" si="29"/>
+        <v>6.2898733887847239E-2</v>
+      </c>
+      <c r="BA15" s="8">
+        <f t="shared" si="30"/>
+        <v>0.11494193775853398</v>
+      </c>
+      <c r="BB15" s="5">
+        <f t="shared" si="31"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC15" s="5">
+        <f t="shared" si="32"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD15" s="5">
+        <f t="shared" si="33"/>
+        <v>0.11508915090845562</v>
+      </c>
+      <c r="BE15" s="8">
+        <f t="shared" si="34"/>
+        <v>9.9999999899070671E-2</v>
+      </c>
+      <c r="BF15" s="8">
+        <f t="shared" si="35"/>
+        <v>9.9999999899070671E-2</v>
+      </c>
+      <c r="BG15" s="8">
+        <f t="shared" si="36"/>
+        <v>6.2898732750485811E-2</v>
+      </c>
+      <c r="BH15" s="8">
+        <f t="shared" si="37"/>
+        <v>0.11494193805035249</v>
+      </c>
+      <c r="BI15" s="8">
+        <f t="shared" ref="BI15:BI16" si="101">$L$2*AN15*W15+$L$3*BI14</f>
+        <v>-2.8927741083771527E-9</v>
+      </c>
+      <c r="BJ15" s="8">
+        <f t="shared" ref="BJ15:BJ16" si="102">$L$2*AO15*W15+$L$3*BJ14</f>
+        <v>-2.8927741083771527E-9</v>
+      </c>
+      <c r="BK15" s="8">
+        <f t="shared" ref="BK15:BK16" si="103">$L$2*AN15*X15+BK14*$L$3</f>
+        <v>-2.9971692657614535E-9</v>
+      </c>
+      <c r="BL15" s="8">
+        <f t="shared" ref="BL15:BL16" si="104">$L$2*AO15*X15+BL14*$L$3</f>
+        <v>-2.9971692657614535E-9</v>
+      </c>
+      <c r="BM15" s="8">
+        <f t="shared" ref="BM15:BM16" si="105">$L$2*AN15*Y15+BM14*$L$3</f>
+        <v>-3.4829824806759843E-11</v>
+      </c>
+      <c r="BN15" s="8">
+        <f t="shared" ref="BN15:BN16" si="106">$L$2*AO15*Y15+BN14*$L$3</f>
+        <v>-3.4829824806759843E-11</v>
+      </c>
+      <c r="BO15" s="8">
+        <f t="shared" ref="BO15:BO16" si="107">$L$2*AP15*Z15+BO14*$L$3</f>
+        <v>9.7077219251537374E-3</v>
+      </c>
+      <c r="BP15" s="8">
+        <f t="shared" ref="BP15:BP16" si="108">$L$2*AQ15*Z15+BP14*$L$3</f>
+        <v>-1.306965964240123E-2</v>
+      </c>
+      <c r="BQ15" s="8">
+        <f t="shared" ref="BQ15:BQ16" si="109">$L$2*AP15*AA15+BQ14*$L$3</f>
+        <v>9.7077219251537374E-3</v>
+      </c>
+      <c r="BR15" s="8">
+        <f t="shared" ref="BR15:BR16" si="110">$L$2*AQ15*AA15+BR14*$L$3</f>
+        <v>-1.306965964240123E-2</v>
+      </c>
+      <c r="BS15" s="5">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="BT15" s="5">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BU15" s="5">
+        <f t="shared" si="99"/>
+        <v>6.2898733887847245E-3</v>
+      </c>
+      <c r="BV15" s="8">
+        <f t="shared" ref="BV15:BV16" si="111">$L$2*AN15*$L$4+BV14*$L$3</f>
+        <v>-3.4851006784360994E-11</v>
+      </c>
+      <c r="BW15" s="8">
+        <f t="shared" ref="BW15:BW16" si="112">$L$2*AO15*$L$4+BW14*$L$3</f>
+        <v>-3.4851006784360994E-11</v>
+      </c>
+      <c r="BX15" s="8">
+        <f t="shared" ref="BX15:BX16" si="113">$L$2*AP15*$L$4+BX14*$L$3</f>
+        <v>9.7077222892998395E-3</v>
+      </c>
+      <c r="BY15" s="8">
+        <f t="shared" ref="BY15:BY16" si="114">$L$2*AQ15*$L$4+BY14*$L$3</f>
+        <v>-1.3069660132363995E-2</v>
+      </c>
+      <c r="BZ15" s="8">
+        <f t="shared" si="100"/>
+        <v>9.9999989125710093E-2</v>
+      </c>
+      <c r="CA15" s="8">
+        <f t="shared" si="62"/>
+        <v>9.9999989125710093E-2</v>
+      </c>
+      <c r="CB15" s="8">
+        <f t="shared" si="63"/>
+        <v>9.9999987999891946E-2</v>
+      </c>
+      <c r="CC15" s="8">
+        <f t="shared" si="64"/>
+        <v>9.9999987999891946E-2</v>
+      </c>
+      <c r="CD15" s="8">
+        <f t="shared" si="65"/>
+        <v>9.9999999867355444E-2</v>
+      </c>
+      <c r="CE15" s="8">
+        <f t="shared" si="66"/>
+        <v>9.9999999867355444E-2</v>
+      </c>
+      <c r="CF15" s="8">
+        <f t="shared" si="67"/>
+        <v>7.2606455813000972E-2</v>
+      </c>
+      <c r="CG15" s="8">
+        <f t="shared" si="68"/>
+        <v>0.10187227811613275</v>
+      </c>
+      <c r="CH15" s="8">
+        <f t="shared" si="69"/>
+        <v>7.2606455813000972E-2</v>
+      </c>
+      <c r="CI15" s="8">
+        <f t="shared" si="70"/>
+        <v>0.10187227811613275</v>
+      </c>
+      <c r="CJ15" s="5">
+        <f t="shared" si="71"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK15" s="5">
+        <f t="shared" si="72"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL15" s="5">
+        <f t="shared" si="73"/>
+        <v>0.12137902429724035</v>
+      </c>
+      <c r="CM15" s="8">
+        <f t="shared" si="74"/>
+        <v>9.999999986421966E-2</v>
+      </c>
+      <c r="CN15" s="8">
+        <f t="shared" si="75"/>
+        <v>9.999999986421966E-2</v>
+      </c>
+      <c r="CO15" s="8">
+        <f t="shared" si="76"/>
+        <v>7.2606455039785647E-2</v>
+      </c>
+      <c r="CP15" s="8">
+        <f t="shared" si="77"/>
+        <v>0.1018722779179885</v>
+      </c>
+    </row>
+    <row r="16" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="20"/>
+      <c r="L16" s="6">
+        <v>70</v>
+      </c>
+      <c r="M16" s="6">
+        <v>96</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="9">
+        <f t="shared" si="78"/>
+        <v>16.799998086520908</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="79"/>
+        <v>16.799998086520908</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="80"/>
+        <v>0.21781935932303753</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" si="81"/>
+        <v>0.30561682384782746</v>
+      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="82"/>
+        <v>70</v>
+      </c>
+      <c r="X16" s="12">
+        <f t="shared" si="83"/>
+        <v>96</v>
+      </c>
+      <c r="Y16" s="12">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" si="85"/>
+        <v>0.99999994943459225</v>
+      </c>
+      <c r="AA16" s="9">
+        <f t="shared" si="86"/>
+        <v>0.99999994943459225</v>
+      </c>
+      <c r="AB16" s="9">
+        <f t="shared" si="87"/>
+        <v>0.55424055439330799</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" si="88"/>
+        <v>0.5758150185933153</v>
+      </c>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="9">
+        <f t="shared" si="89"/>
+        <v>3.0927895243020585E-7</v>
+      </c>
+      <c r="AL16" s="9">
+        <f t="shared" si="90"/>
+        <v>5.8398012720670309E-7</v>
+      </c>
+      <c r="AM16" s="9">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="9">
+        <f t="shared" si="92"/>
+        <v>-3.2016458184482338E-10</v>
+      </c>
+      <c r="AO16" s="9">
+        <f t="shared" si="93"/>
+        <v>-3.2016458184482338E-10</v>
+      </c>
+      <c r="AP16" s="9">
+        <f t="shared" si="94"/>
+        <v>0.11012842028933839</v>
+      </c>
+      <c r="AQ16" s="9">
+        <f t="shared" si="95"/>
+        <v>-0.14064401768858964</v>
+      </c>
+      <c r="AR16" s="9">
+        <f t="shared" si="96"/>
+        <v>9.9999989125710093E-2</v>
+      </c>
+      <c r="AS16" s="9">
+        <f t="shared" si="22"/>
+        <v>9.9999989125710093E-2</v>
+      </c>
+      <c r="AT16" s="9">
+        <f t="shared" si="23"/>
+        <v>9.9999987999891946E-2</v>
+      </c>
+      <c r="AU16" s="9">
+        <f t="shared" si="24"/>
+        <v>9.9999987999891946E-2</v>
+      </c>
+      <c r="AV16" s="9">
+        <f t="shared" si="25"/>
+        <v>9.9999999867355444E-2</v>
+      </c>
+      <c r="AW16" s="9">
+        <f t="shared" si="26"/>
+        <v>9.9999999867355444E-2</v>
+      </c>
+      <c r="AX16" s="9">
+        <f t="shared" si="27"/>
+        <v>7.2606455813000972E-2</v>
+      </c>
+      <c r="AY16" s="9">
+        <f t="shared" si="28"/>
+        <v>0.10187227811613275</v>
+      </c>
+      <c r="AZ16" s="9">
+        <f t="shared" si="29"/>
+        <v>7.2606455813000972E-2</v>
+      </c>
+      <c r="BA16" s="9">
+        <f t="shared" si="30"/>
+        <v>0.10187227811613275</v>
+      </c>
+      <c r="BB16" s="7">
+        <f t="shared" si="31"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC16" s="7">
+        <f t="shared" si="32"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD16" s="7">
+        <f t="shared" si="33"/>
+        <v>0.12137902429724035</v>
+      </c>
+      <c r="BE16" s="9">
+        <f t="shared" si="34"/>
+        <v>9.999999986421966E-2</v>
+      </c>
+      <c r="BF16" s="9">
+        <f t="shared" si="35"/>
+        <v>9.999999986421966E-2</v>
+      </c>
+      <c r="BG16" s="9">
+        <f t="shared" si="36"/>
+        <v>7.2606455039785647E-2</v>
+      </c>
+      <c r="BH16" s="9">
+        <f t="shared" si="37"/>
+        <v>0.1018722779179885</v>
+      </c>
+      <c r="BI16" s="9">
+        <f t="shared" si="101"/>
+        <v>-2.5304294837514792E-9</v>
+      </c>
+      <c r="BJ16" s="9">
+        <f t="shared" si="102"/>
+        <v>-2.5304294837514792E-9</v>
+      </c>
+      <c r="BK16" s="9">
+        <f t="shared" si="103"/>
+        <v>-3.3732969122864496E-9</v>
+      </c>
+      <c r="BL16" s="9">
+        <f t="shared" si="104"/>
+        <v>-3.3732969122864496E-9</v>
+      </c>
+      <c r="BM16" s="9">
+        <f t="shared" si="105"/>
+        <v>-3.5499440665158323E-11</v>
+      </c>
+      <c r="BN16" s="9">
+        <f t="shared" si="106"/>
+        <v>-3.5499440665158323E-11</v>
+      </c>
+      <c r="BO16" s="9">
+        <f t="shared" si="107"/>
+        <v>1.1983613664580365E-2</v>
+      </c>
+      <c r="BP16" s="9">
+        <f t="shared" si="108"/>
+        <v>-1.5371367021926879E-2</v>
+      </c>
+      <c r="BQ16" s="9">
+        <f t="shared" si="109"/>
+        <v>1.1983613664580365E-2</v>
+      </c>
+      <c r="BR16" s="9">
+        <f t="shared" si="110"/>
+        <v>-1.5371367021926879E-2</v>
+      </c>
+      <c r="BS16" s="7">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="BT16" s="7">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BU16" s="7">
+        <f t="shared" si="99"/>
+        <v>7.2606455813000979E-3</v>
+      </c>
+      <c r="BV16" s="9">
+        <f t="shared" si="111"/>
+        <v>-3.5501558862918435E-11</v>
+      </c>
+      <c r="BW16" s="9">
+        <f t="shared" si="112"/>
+        <v>-3.5501558862918435E-11</v>
+      </c>
+      <c r="BX16" s="9">
+        <f t="shared" si="113"/>
+        <v>1.1983614257863824E-2</v>
+      </c>
+      <c r="BY16" s="9">
+        <f t="shared" si="114"/>
+        <v>-1.5371367782095365E-2</v>
+      </c>
+      <c r="BZ16" s="9">
+        <f t="shared" si="100"/>
+        <v>9.9999986595280616E-2</v>
+      </c>
+      <c r="CA16" s="9">
+        <f t="shared" si="62"/>
+        <v>9.9999986595280616E-2</v>
+      </c>
+      <c r="CB16" s="9">
+        <f t="shared" si="63"/>
+        <v>9.999998462659504E-2</v>
+      </c>
+      <c r="CC16" s="9">
+        <f t="shared" si="64"/>
+        <v>9.999998462659504E-2</v>
+      </c>
+      <c r="CD16" s="9">
+        <f t="shared" si="65"/>
+        <v>9.9999999831856007E-2</v>
+      </c>
+      <c r="CE16" s="9">
+        <f t="shared" si="66"/>
+        <v>9.9999999831856007E-2</v>
+      </c>
+      <c r="CF16" s="9">
+        <f t="shared" si="67"/>
+        <v>8.4590069477581339E-2</v>
+      </c>
+      <c r="CG16" s="9">
+        <f t="shared" si="68"/>
+        <v>8.6500911094205879E-2</v>
+      </c>
+      <c r="CH16" s="9">
+        <f t="shared" si="69"/>
+        <v>8.4590069477581339E-2</v>
+      </c>
+      <c r="CI16" s="9">
+        <f t="shared" si="70"/>
+        <v>8.6500911094205879E-2</v>
+      </c>
+      <c r="CJ16" s="7">
+        <f t="shared" si="71"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK16" s="7">
+        <f t="shared" si="72"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL16" s="7">
+        <f t="shared" si="73"/>
+        <v>0.12863966987854045</v>
+      </c>
+      <c r="CM16" s="9">
+        <f t="shared" si="74"/>
+        <v>9.99999998287181E-2</v>
+      </c>
+      <c r="CN16" s="9">
+        <f t="shared" si="75"/>
+        <v>9.99999998287181E-2</v>
+      </c>
+      <c r="CO16" s="9">
+        <f t="shared" si="76"/>
+        <v>8.4590069297649478E-2</v>
+      </c>
+      <c r="CP16" s="9">
+        <f t="shared" si="77"/>
+        <v>8.6500910135893144E-2</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="K6:K8"/>
+  <mergeCells count="16">
+    <mergeCell ref="K13:K16"/>
     <mergeCell ref="BZ7:CP7"/>
     <mergeCell ref="AR6:CP6"/>
     <mergeCell ref="P6:AQ6"/>
@@ -2415,6 +3623,12 @@
     <mergeCell ref="AD7:AJ7"/>
     <mergeCell ref="AR7:BH7"/>
     <mergeCell ref="BI7:BY7"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/helper ANN/MLP/simplified.weather.numeric.xlsx
+++ b/helper ANN/MLP/simplified.weather.numeric.xlsx
@@ -337,9 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,6 +360,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,8 +393,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>485046</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="K1:CP17"/>
+  <dimension ref="K1:CP25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BJ14" sqref="BJ14"/>
+    <sheetView tabSelected="1" topLeftCell="L10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,6 +728,8 @@
     <col min="13" max="13" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="61" max="61" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="74" max="75" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -758,211 +760,211 @@
     </row>
     <row r="5" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="25"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="26"/>
-      <c r="AR6" s="23" t="s">
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="23"/>
-      <c r="AW6" s="23"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="23"/>
-      <c r="AZ6" s="23"/>
-      <c r="BA6" s="23"/>
-      <c r="BB6" s="23"/>
-      <c r="BC6" s="23"/>
-      <c r="BD6" s="23"/>
-      <c r="BE6" s="23"/>
-      <c r="BF6" s="23"/>
-      <c r="BG6" s="23"/>
-      <c r="BH6" s="23"/>
-      <c r="BI6" s="23"/>
-      <c r="BJ6" s="23"/>
-      <c r="BK6" s="23"/>
-      <c r="BL6" s="23"/>
-      <c r="BM6" s="23"/>
-      <c r="BN6" s="23"/>
-      <c r="BO6" s="23"/>
-      <c r="BP6" s="23"/>
-      <c r="BQ6" s="23"/>
-      <c r="BR6" s="23"/>
-      <c r="BS6" s="23"/>
-      <c r="BT6" s="23"/>
-      <c r="BU6" s="23"/>
-      <c r="BV6" s="23"/>
-      <c r="BW6" s="23"/>
-      <c r="BX6" s="23"/>
-      <c r="BY6" s="23"/>
-      <c r="BZ6" s="23"/>
-      <c r="CA6" s="23"/>
-      <c r="CB6" s="23"/>
-      <c r="CC6" s="23"/>
-      <c r="CD6" s="23"/>
-      <c r="CE6" s="23"/>
-      <c r="CF6" s="23"/>
-      <c r="CG6" s="23"/>
-      <c r="CH6" s="23"/>
-      <c r="CI6" s="23"/>
-      <c r="CJ6" s="23"/>
-      <c r="CK6" s="23"/>
-      <c r="CL6" s="23"/>
-      <c r="CM6" s="23"/>
-      <c r="CN6" s="23"/>
-      <c r="CO6" s="23"/>
-      <c r="CP6" s="23"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="22"/>
+      <c r="BK6" s="22"/>
+      <c r="BL6" s="22"/>
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="22"/>
+      <c r="BP6" s="22"/>
+      <c r="BQ6" s="22"/>
+      <c r="BR6" s="22"/>
+      <c r="BS6" s="22"/>
+      <c r="BT6" s="22"/>
+      <c r="BU6" s="22"/>
+      <c r="BV6" s="22"/>
+      <c r="BW6" s="22"/>
+      <c r="BX6" s="22"/>
+      <c r="BY6" s="22"/>
+      <c r="BZ6" s="22"/>
+      <c r="CA6" s="22"/>
+      <c r="CB6" s="22"/>
+      <c r="CC6" s="22"/>
+      <c r="CD6" s="22"/>
+      <c r="CE6" s="22"/>
+      <c r="CF6" s="22"/>
+      <c r="CG6" s="22"/>
+      <c r="CH6" s="22"/>
+      <c r="CI6" s="22"/>
+      <c r="CJ6" s="22"/>
+      <c r="CK6" s="22"/>
+      <c r="CL6" s="22"/>
+      <c r="CM6" s="22"/>
+      <c r="CN6" s="22"/>
+      <c r="CO6" s="22"/>
+      <c r="CP6" s="22"/>
     </row>
     <row r="7" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="22" t="s">
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22" t="s">
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22" t="s">
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="27" t="s">
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="22" t="s">
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
-      <c r="BC7" s="22"/>
-      <c r="BD7" s="22"/>
-      <c r="BE7" s="22"/>
-      <c r="BF7" s="22"/>
-      <c r="BG7" s="22"/>
-      <c r="BH7" s="22"/>
-      <c r="BI7" s="22" t="s">
+      <c r="AS7" s="21"/>
+      <c r="AT7" s="21"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="21"/>
+      <c r="AW7" s="21"/>
+      <c r="AX7" s="21"/>
+      <c r="AY7" s="21"/>
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="BJ7" s="22"/>
-      <c r="BK7" s="22"/>
-      <c r="BL7" s="22"/>
-      <c r="BM7" s="22"/>
-      <c r="BN7" s="22"/>
-      <c r="BO7" s="22"/>
-      <c r="BP7" s="22"/>
-      <c r="BQ7" s="22"/>
-      <c r="BR7" s="22"/>
-      <c r="BS7" s="22"/>
-      <c r="BT7" s="22"/>
-      <c r="BU7" s="22"/>
-      <c r="BV7" s="22"/>
-      <c r="BW7" s="22"/>
-      <c r="BX7" s="22"/>
-      <c r="BY7" s="22"/>
-      <c r="BZ7" s="22" t="s">
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21"/>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CA7" s="22"/>
-      <c r="CB7" s="22"/>
-      <c r="CC7" s="22"/>
-      <c r="CD7" s="22"/>
-      <c r="CE7" s="22"/>
-      <c r="CF7" s="22"/>
-      <c r="CG7" s="22"/>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="22"/>
-      <c r="CK7" s="22"/>
-      <c r="CL7" s="22"/>
-      <c r="CM7" s="22"/>
-      <c r="CN7" s="22"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="21"/>
+      <c r="CH7" s="21"/>
+      <c r="CI7" s="21"/>
+      <c r="CJ7" s="21"/>
+      <c r="CK7" s="21"/>
+      <c r="CL7" s="21"/>
+      <c r="CM7" s="21"/>
+      <c r="CN7" s="21"/>
+      <c r="CO7" s="21"/>
+      <c r="CP7" s="21"/>
     </row>
     <row r="8" spans="11:94" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
       <c r="P8" s="2">
         <v>0</v>
       </c>
@@ -2568,131 +2570,140 @@
         <v>9.3002775531662252E-2</v>
       </c>
       <c r="BI13" s="4">
-        <f>$L$2*AN13*W13</f>
-        <v>-8.6738763397229483E-10</v>
+        <f t="shared" ref="BI13" si="60">$L$2*AN13*W13+$L$3*BI12</f>
+        <v>-1.1322242294122353E-9</v>
       </c>
       <c r="BJ13" s="4">
-        <f>$L$2*AO13*W13</f>
-        <v>-8.6738763397229483E-10</v>
+        <f t="shared" ref="BJ13" si="61">$L$2*AO13*W13+$L$3*BJ12</f>
+        <v>-1.1322242294122353E-9</v>
       </c>
       <c r="BK13" s="4">
-        <f>$L$2*AN13*X13</f>
-        <v>-8.6738763397229483E-10</v>
+        <f t="shared" ref="BK13" si="62">$L$2*AN13*X13+BK12*$L$3</f>
+        <v>-1.220550366583344E-9</v>
       </c>
       <c r="BL13" s="4">
-        <f>$L$2*AO13*X13</f>
-        <v>-8.6738763397229483E-10</v>
+        <f t="shared" ref="BL13" si="63">$L$2*AO13*X13+BL12*$L$3</f>
+        <v>-1.220550366583344E-9</v>
       </c>
       <c r="BM13" s="4">
-        <f>$L$2*AN13*Y13</f>
-        <v>-1.0204560399674057E-11</v>
+        <f t="shared" ref="BM13" si="64">$L$2*AN13*Y13+BM12*$L$3</f>
+        <v>-1.3918277584663826E-11</v>
       </c>
       <c r="BN13" s="4">
-        <f>$L$2*AO13*Y13</f>
-        <v>-1.0204560399674057E-11</v>
+        <f t="shared" ref="BN13" si="65">$L$2*AO13*Y13+BN12*$L$3</f>
+        <v>-1.3918277584663826E-11</v>
       </c>
       <c r="BO13" s="4">
-        <f>$L$2*AP13*Z13</f>
-        <v>-1.3946933200648217E-2</v>
+        <f t="shared" ref="BO13" si="66">$L$2*AP13*Z13+BO12*$L$3</f>
+        <v>-1.2767105845912547E-2</v>
       </c>
       <c r="BP13" s="4">
-        <f>$L$2*AQ13*Z13</f>
-        <v>1.0560562370528756E-2</v>
+        <f t="shared" ref="BP13" si="67">$L$2*AQ13*Z13+BP12*$L$3</f>
+        <v>9.0151900980773251E-3</v>
       </c>
       <c r="BQ13" s="4">
-        <f>$L$2*AP13*AA13</f>
-        <v>-1.3946933200648217E-2</v>
+        <f t="shared" ref="BQ13" si="68">$L$2*AP13*AA13+BQ12*$L$3</f>
+        <v>-1.2767105845912547E-2</v>
       </c>
       <c r="BR13" s="4">
-        <f>$L$2*AQ13*AA13</f>
-        <v>1.0560562370528756E-2</v>
-      </c>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
+        <f t="shared" ref="BR13" si="69">$L$2*AQ13*AA13+BR12*$L$3</f>
+        <v>9.0151900980773251E-3</v>
+      </c>
+      <c r="BS13" s="3">
+        <f t="shared" ref="BS13" si="70">$L$2*AX13*AG13</f>
+        <v>0</v>
+      </c>
+      <c r="BT13" s="3">
+        <f t="shared" ref="BT13" si="71">$L$2*AY13*AH13</f>
+        <v>0</v>
+      </c>
+      <c r="BU13" s="3">
+        <f t="shared" ref="BU13" si="72">$L$2*AZ13*AI13</f>
+        <v>0</v>
+      </c>
       <c r="BV13" s="4">
-        <f>$L$2*AN13*$L$4</f>
-        <v>-1.0204560399674057E-11</v>
+        <f t="shared" ref="BV13" si="73">$L$2*AN13*$L$4+BV12*$L$3</f>
+        <v>-1.3920892694540776E-11</v>
       </c>
       <c r="BW13" s="4">
-        <f>$L$2*AO13*$L$4</f>
-        <v>-1.0204560399674057E-11</v>
+        <f t="shared" ref="BW13" si="74">$L$2*AO13*$L$4+BW12*$L$3</f>
+        <v>-1.3920892694540776E-11</v>
       </c>
       <c r="BX13" s="4">
-        <f t="shared" ref="BX13" si="60">$L$2*AP13*$L$4</f>
-        <v>-1.3946933673379331E-2</v>
+        <f t="shared" ref="BX13" si="75">$L$2*AP13*$L$4+BX12*$L$3</f>
+        <v>-1.2767106260228898E-2</v>
       </c>
       <c r="BY13" s="4">
-        <f t="shared" ref="BY13" si="61">$L$2*AQ13*$L$4</f>
-        <v>1.0560562728478877E-2</v>
+        <f t="shared" ref="BY13" si="76">$L$2*AQ13*$L$4+BY12*$L$3</f>
+        <v>9.0151903796053864E-3</v>
       </c>
       <c r="BZ13" s="4">
         <f>AR13+BI13</f>
-        <v>9.9999992122168535E-2</v>
+        <v>9.9999991857331938E-2</v>
       </c>
       <c r="CA13" s="4">
-        <f t="shared" ref="CA13:CA16" si="62">AS13+BJ13</f>
-        <v>9.9999992122168535E-2</v>
+        <f t="shared" ref="CA13:CA16" si="77">AS13+BJ13</f>
+        <v>9.9999991857331938E-2</v>
       </c>
       <c r="CB13" s="4">
-        <f t="shared" ref="CB13:CB16" si="63">AT13+BK13</f>
-        <v>9.9999991102863756E-2</v>
+        <f t="shared" ref="CB13:CB16" si="78">AT13+BK13</f>
+        <v>9.999999074970102E-2</v>
       </c>
       <c r="CC13" s="4">
-        <f t="shared" ref="CC13:CC16" si="64">AU13+BL13</f>
-        <v>9.9999991102863756E-2</v>
+        <f t="shared" ref="CC13:CC16" si="79">AU13+BL13</f>
+        <v>9.999999074970102E-2</v>
       </c>
       <c r="CD13" s="4">
-        <f t="shared" ref="CD13:CD16" si="65">AV13+BM13</f>
-        <v>9.9999999903205725E-2</v>
+        <f t="shared" ref="CD13:CD16" si="80">AV13+BM13</f>
+        <v>9.9999999899492001E-2</v>
       </c>
       <c r="CE13" s="4">
-        <f t="shared" ref="CE13:CE16" si="66">AW13+BN13</f>
-        <v>9.9999999903205725E-2</v>
+        <f t="shared" ref="CE13:CE16" si="81">AW13+BN13</f>
+        <v>9.9999999899492001E-2</v>
       </c>
       <c r="CF13" s="4">
-        <f t="shared" ref="CF13:CF16" si="67">AX13+BO13</f>
-        <v>7.80607944322496E-2</v>
+        <f t="shared" ref="CF13:CF16" si="82">AX13+BO13</f>
+        <v>7.9240621786985266E-2</v>
       </c>
       <c r="CG13" s="4">
-        <f t="shared" ref="CG13:CG16" si="68">AY13+BP13</f>
-        <v>0.10356333839079761</v>
+        <f t="shared" ref="CG13:CG16" si="83">AY13+BP13</f>
+        <v>0.10201796611834618</v>
       </c>
       <c r="CH13" s="4">
-        <f t="shared" ref="CH13:CH16" si="69">AZ13+BQ13</f>
-        <v>7.80607944322496E-2</v>
+        <f t="shared" ref="CH13:CH16" si="84">AZ13+BQ13</f>
+        <v>7.9240621786985266E-2</v>
       </c>
       <c r="CI13" s="4">
-        <f t="shared" ref="CI13:CI16" si="70">BA13+BR13</f>
-        <v>0.10356333839079761</v>
+        <f t="shared" ref="CI13:CI16" si="85">BA13+BR13</f>
+        <v>0.10201796611834618</v>
       </c>
       <c r="CJ13" s="3">
-        <f t="shared" ref="CJ13:CJ16" si="71">BB13+BS13</f>
+        <f t="shared" ref="CJ13:CJ16" si="86">BB13+BS13</f>
         <v>0.1</v>
       </c>
       <c r="CK13" s="3">
-        <f t="shared" ref="CK13:CK16" si="72">BC13+BT13</f>
+        <f t="shared" ref="CK13:CK16" si="87">BC13+BT13</f>
         <v>0.1</v>
       </c>
       <c r="CL13" s="3">
-        <f t="shared" ref="CL13:CL16" si="73">BD13+BU13</f>
+        <f t="shared" ref="CL13:CL16" si="88">BD13+BU13</f>
         <v>0.11508915090845562</v>
       </c>
       <c r="CM13" s="4">
-        <f t="shared" ref="CM13:CM16" si="74">BE13+BV13</f>
-        <v>9.9999999900302949E-2</v>
+        <f t="shared" ref="CM13:CM16" si="89">BE13+BV13</f>
+        <v>9.9999999896586617E-2</v>
       </c>
       <c r="CN13" s="4">
-        <f t="shared" ref="CN13:CN16" si="75">BF13+BW13</f>
-        <v>9.9999999900302949E-2</v>
+        <f t="shared" ref="CN13:CN16" si="90">BF13+BW13</f>
+        <v>9.9999999896586617E-2</v>
       </c>
       <c r="CO13" s="4">
-        <f t="shared" ref="CO13:CO16" si="76">BG13+BX13</f>
-        <v>7.8060793857883545E-2</v>
+        <f t="shared" ref="CO13:CO16" si="91">BG13+BX13</f>
+        <v>7.9240621271033984E-2</v>
       </c>
       <c r="CP13" s="4">
-        <f t="shared" ref="CP13:CP16" si="77">BH13+BY13</f>
-        <v>0.10356333826014114</v>
+        <f t="shared" ref="CP13:CP16" si="92">BH13+BY13</f>
+        <v>0.10201796591126763</v>
       </c>
     </row>
     <row r="14" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2713,48 +2724,48 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="8">
-        <f t="shared" ref="S14:S16" si="78">AR14*W14+AT14*X14+AV14*Y14+$L$4*BE14</f>
-        <v>17.099998568931522</v>
+        <f t="shared" ref="S14:S16" si="93">AR14*W14+AT14*X14+AV14*Y14+$L$4*BE14</f>
+        <v>17.099998515956234</v>
       </c>
       <c r="T14" s="8">
-        <f t="shared" ref="T14:T16" si="79">AS14*W14+AU14*X14+AW14*Y14+$L$4*BF14</f>
-        <v>17.099998568931522</v>
+        <f t="shared" ref="T14:T16" si="94">AS14*W14+AU14*X14+AW14*Y14+$L$4*BF14</f>
+        <v>17.099998515956234</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" ref="U14:U16" si="80">AX14*Z14+AZ14*AA14+BG14*$L$4</f>
-        <v>0.23418237687410587</v>
+        <f t="shared" ref="U14:U16" si="95">AX14*Z14+AZ14*AA14+BG14*$L$4</f>
+        <v>0.23772185890833522</v>
       </c>
       <c r="V14" s="8">
-        <f t="shared" ref="V14:V16" si="81">AY14*Z14+BA14*AA14+BH14*$L$4</f>
-        <v>0.31069000728282126</v>
+        <f t="shared" ref="V14:V16" si="96">AY14*Z14+BA14*AA14+BH14*$L$4</f>
+        <v>0.30605389050482301</v>
       </c>
       <c r="W14" s="11">
-        <f t="shared" ref="W14:W16" si="82">L14</f>
+        <f t="shared" ref="W14:W16" si="97">L14</f>
         <v>80</v>
       </c>
       <c r="X14" s="11">
-        <f t="shared" ref="X14:X16" si="83">M14</f>
+        <f t="shared" ref="X14:X17" si="98">M14</f>
         <v>90</v>
       </c>
       <c r="Y14" s="11">
-        <f t="shared" ref="Y14:Y16" si="84">N14</f>
+        <f t="shared" ref="Y14:Y17" si="99">N14</f>
         <v>0</v>
       </c>
       <c r="Z14" s="8">
-        <f t="shared" ref="Z14:Z16" si="85">1/(1+EXP(-S14))</f>
-        <v>0.99999996254024237</v>
+        <f t="shared" ref="Z14:Z16" si="100">1/(1+EXP(-S14))</f>
+        <v>0.99999996254024037</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" ref="AA14:AA16" si="86">1/(1+EXP(-T14))</f>
-        <v>0.99999996254024237</v>
+        <f t="shared" ref="AA14:AA17" si="101">1/(1+EXP(-T14))</f>
+        <v>0.99999996254024037</v>
       </c>
       <c r="AB14" s="8">
-        <f t="shared" ref="AB14:AB16" si="87">1/(1+EXP(-U14))</f>
-        <v>0.55827949333161353</v>
+        <f t="shared" ref="AB14:AB17" si="102">1/(1+EXP(-U14))</f>
+        <v>0.55915216106748755</v>
       </c>
       <c r="AC14" s="8">
-        <f t="shared" ref="AC14:AC16" si="88">1/(1+EXP(-V14))</f>
-        <v>0.57705367514148931</v>
+        <f t="shared" ref="AC14:AC17" si="103">1/(1+EXP(-V14))</f>
+        <v>0.57592176949565665</v>
       </c>
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
@@ -2768,72 +2779,72 @@
         <v>1</v>
       </c>
       <c r="AK14" s="8">
-        <f t="shared" ref="AK14:AK16" si="89">W14*(1-W14)*(AR14*AN14+AS14*AO14)</f>
-        <v>2.6774017578645533E-9</v>
+        <f t="shared" ref="AK14:AK16" si="104">W14*(1-W14)*(AR14*AN14+AS14*AO14)</f>
+        <v>1.6824886180375818E-8</v>
       </c>
       <c r="AL14" s="8">
-        <f t="shared" ref="AL14:AL16" si="90">X14*(1-X14)*(AT14*AN14+AU14*AO14)</f>
-        <v>3.393352509793524E-9</v>
+        <f t="shared" ref="AL14:AL16" si="105">X14*(1-X14)*(AT14*AN14+AU14*AO14)</f>
+        <v>2.132394569811479E-8</v>
       </c>
       <c r="AM14" s="8">
-        <f t="shared" ref="AM14:AM16" si="91">Y14*(1-Y14)*(AV14*AN14+AW14*AO14)</f>
+        <f t="shared" ref="AM14:AM16" si="106">Y14*(1-Y14)*(AV14*AN14+AW14*AO14)</f>
         <v>0</v>
       </c>
       <c r="AN14" s="8">
-        <f t="shared" ref="AN14:AN16" si="92">Z14*(1-Z14)*(AX14*AP14+AY14*AQ14)</f>
-        <v>-2.1181977601153226E-12</v>
+        <f t="shared" ref="AN14:AN16" si="107">Z14*(1-Z14)*(AX14*AP14+AY14*AQ14)</f>
+        <v>-1.331082875820456E-11</v>
       </c>
       <c r="AO14" s="8">
-        <f t="shared" ref="AO14:AO16" si="93">AA14*(1-AA14)*(AZ14*AP14+BA14*AQ14)</f>
-        <v>-2.1181977601153226E-12</v>
+        <f t="shared" ref="AO14:AO16" si="108">AA14*(1-AA14)*(AZ14*AP14+BA14*AQ14)</f>
+        <v>-1.331082875820456E-11</v>
       </c>
       <c r="AP14" s="8">
-        <f t="shared" ref="AP14:AP16" si="94">AB14*(1-AB14)*(AI14-AB14)</f>
-        <v>-0.13767367740059799</v>
+        <f t="shared" ref="AP14:AP16" si="109">AB14*(1-AB14)*(AI14-AB14)</f>
+        <v>-0.13783157906776483</v>
       </c>
       <c r="AQ14" s="8">
-        <f t="shared" ref="AQ14:AQ16" si="95">AC14*(1-AC14)*(AJ14-AC14)</f>
-        <v>0.10322543517363471</v>
+        <f t="shared" ref="AQ14:AQ16" si="110">AC14*(1-AC14)*(AJ14-AC14)</f>
+        <v>0.10357512190111469</v>
       </c>
       <c r="AR14" s="8">
-        <f t="shared" ref="AR14:AR16" si="96">BZ13</f>
-        <v>9.9999992122168535E-2</v>
+        <f t="shared" ref="AR14:AR16" si="111">BZ13</f>
+        <v>9.9999991857331938E-2</v>
       </c>
       <c r="AS14" s="8">
         <f t="shared" si="22"/>
-        <v>9.9999992122168535E-2</v>
+        <v>9.9999991857331938E-2</v>
       </c>
       <c r="AT14" s="8">
         <f t="shared" si="23"/>
-        <v>9.9999991102863756E-2</v>
+        <v>9.999999074970102E-2</v>
       </c>
       <c r="AU14" s="8">
         <f t="shared" si="24"/>
-        <v>9.9999991102863756E-2</v>
+        <v>9.999999074970102E-2</v>
       </c>
       <c r="AV14" s="8">
         <f t="shared" si="25"/>
-        <v>9.9999999903205725E-2</v>
+        <v>9.9999999899492001E-2</v>
       </c>
       <c r="AW14" s="8">
         <f t="shared" si="26"/>
-        <v>9.9999999903205725E-2</v>
+        <v>9.9999999899492001E-2</v>
       </c>
       <c r="AX14" s="8">
         <f t="shared" si="27"/>
-        <v>7.80607944322496E-2</v>
+        <v>7.9240621786985266E-2</v>
       </c>
       <c r="AY14" s="8">
         <f t="shared" si="28"/>
-        <v>0.10356333839079761</v>
+        <v>0.10201796611834618</v>
       </c>
       <c r="AZ14" s="8">
         <f t="shared" si="29"/>
-        <v>7.80607944322496E-2</v>
+        <v>7.9240621786985266E-2</v>
       </c>
       <c r="BA14" s="8">
         <f t="shared" si="30"/>
-        <v>0.10356333839079761</v>
+        <v>0.10201796611834618</v>
       </c>
       <c r="BB14" s="5">
         <f t="shared" si="31"/>
@@ -2849,155 +2860,155 @@
       </c>
       <c r="BE14" s="8">
         <f t="shared" si="34"/>
-        <v>9.9999999900302949E-2</v>
+        <v>9.9999999896586617E-2</v>
       </c>
       <c r="BF14" s="8">
         <f t="shared" si="35"/>
-        <v>9.9999999900302949E-2</v>
+        <v>9.9999999896586617E-2</v>
       </c>
       <c r="BG14" s="8">
         <f>CO13</f>
-        <v>7.8060793857883545E-2</v>
+        <v>7.9240621271033984E-2</v>
       </c>
       <c r="BH14" s="8">
         <f t="shared" si="37"/>
-        <v>0.10356333826014114</v>
+        <v>0.10201796591126763</v>
       </c>
       <c r="BI14" s="8">
-        <f>$L$2*AN14*W14+$L$3*BI13</f>
-        <v>-1.0368434547815208E-10</v>
+        <f t="shared" ref="BI14:BI17" si="112">$L$2*AN14*W14+$L$3*BI13</f>
+        <v>-2.1970905300686001E-10</v>
       </c>
       <c r="BJ14" s="8">
-        <f>$L$2*AO14*W14+$L$3*BJ13</f>
-        <v>-1.0368434547815208E-10</v>
+        <f t="shared" ref="BJ14:BJ17" si="113">$L$2*AO14*W14+$L$3*BJ13</f>
+        <v>-2.1970905300686001E-10</v>
       </c>
       <c r="BK14" s="8">
-        <f>$L$2*AN14*X14+BK13*$L$3</f>
-        <v>-1.058025432382674E-10</v>
+        <f t="shared" ref="BK14:BK17" si="114">$L$2*AN14*X14+BK13*$L$3</f>
+        <v>-2.4185249548217547E-10</v>
       </c>
       <c r="BL14" s="8">
-        <f>$L$2*AO14*X14+BL13*$L$3</f>
-        <v>-1.058025432382674E-10</v>
+        <f t="shared" ref="BL14:BL17" si="115">$L$2*AO14*X14+BL13*$L$3</f>
+        <v>-2.4185249548217547E-10</v>
       </c>
       <c r="BM14" s="8">
-        <f>$L$2*AN14*Y14+BM13*$L$3</f>
-        <v>-1.0204560399674057E-12</v>
+        <f t="shared" ref="BM14:BM17" si="116">$L$2*AN14*Y14+BM13*$L$3</f>
+        <v>-1.3918277584663826E-12</v>
       </c>
       <c r="BN14" s="8">
-        <f>$L$2*AO14*Y14+BN13*$L$3</f>
-        <v>-1.0204560399674057E-12</v>
+        <f t="shared" ref="BN14:BN17" si="117">$L$2*AO14*Y14+BN13*$L$3</f>
+        <v>-1.3918277584663826E-12</v>
       </c>
       <c r="BO14" s="8">
-        <f>$L$2*AP14*Z14+BO13*$L$3</f>
-        <v>-1.5162060544402365E-2</v>
+        <f t="shared" ref="BO14:BO17" si="118">$L$2*AP14*Z14+BO13*$L$3</f>
+        <v>-1.5059867975053957E-2</v>
       </c>
       <c r="BP14" s="8">
-        <f>$L$2*AQ14*Z14+BP13*$L$3</f>
-        <v>1.1378599367736369E-2</v>
+        <f t="shared" ref="BP14:BP17" si="119">$L$2*AQ14*Z14+BP13*$L$3</f>
+        <v>1.1259030811929286E-2</v>
       </c>
       <c r="BQ14" s="8">
-        <f>$L$2*AP14*AA14+BQ13*$L$3</f>
-        <v>-1.5162060544402365E-2</v>
+        <f t="shared" ref="BQ14:BQ17" si="120">$L$2*AP14*AA14+BQ13*$L$3</f>
+        <v>-1.5059867975053957E-2</v>
       </c>
       <c r="BR14" s="8">
-        <f>$L$2*AQ14*AA14+BR13*$L$3</f>
-        <v>1.1378599367736369E-2</v>
+        <f t="shared" ref="BR14:BR17" si="121">$L$2*AQ14*AA14+BR13*$L$3</f>
+        <v>1.1259030811929286E-2</v>
       </c>
       <c r="BS14" s="5">
-        <f t="shared" ref="BS14:BS16" si="97">$L$2*AX14*AG14</f>
+        <f t="shared" ref="BS14:BS17" si="122">$L$2*AX14*AG14</f>
         <v>0</v>
       </c>
       <c r="BT14" s="5">
-        <f t="shared" ref="BT14:BT16" si="98">$L$2*AY14*AH14</f>
+        <f t="shared" ref="BT14:BT17" si="123">$L$2*AY14*AH14</f>
         <v>0</v>
       </c>
       <c r="BU14" s="5">
-        <f t="shared" ref="BU14:BU16" si="99">$L$2*AZ14*AI14</f>
+        <f t="shared" ref="BU14:BU17" si="124">$L$2*AZ14*AI14</f>
         <v>0</v>
       </c>
       <c r="BV14" s="8">
-        <f>$L$2*AN14*$L$4+BV13*$L$3</f>
-        <v>-1.232275815978938E-12</v>
+        <f t="shared" ref="BV14:BV17" si="125">$L$2*AN14*$L$4+BV13*$L$3</f>
+        <v>-2.7231721452745337E-12</v>
       </c>
       <c r="BW14" s="8">
-        <f>$L$2*AO14*$L$4+BW13*$L$3</f>
-        <v>-1.232275815978938E-12</v>
+        <f t="shared" ref="BW14:BW17" si="126">$L$2*AO14*$L$4+BW13*$L$3</f>
+        <v>-2.7231721452745337E-12</v>
       </c>
       <c r="BX14" s="8">
-        <f>$L$2*AP14*$L$4+BX13*$L$3</f>
-        <v>-1.5162061107397734E-2</v>
+        <f t="shared" ref="BX14:BX17" si="127">$L$2*AP14*$L$4+BX13*$L$3</f>
+        <v>-1.5059868532799375E-2</v>
       </c>
       <c r="BY14" s="8">
-        <f>$L$2*AQ14*$L$4+BY13*$L$3</f>
-        <v>1.137859979021136E-2</v>
+        <f t="shared" ref="BY14:BY17" si="128">$L$2*AQ14*$L$4+BY13*$L$3</f>
+        <v>1.1259031228072008E-2</v>
       </c>
       <c r="BZ14" s="8">
-        <f t="shared" ref="BZ14:BZ16" si="100">AR14+BI14</f>
-        <v>9.9999992018484196E-2</v>
+        <f t="shared" ref="BZ14:BZ16" si="129">AR14+BI14</f>
+        <v>9.9999991637622881E-2</v>
       </c>
       <c r="CA14" s="8">
-        <f t="shared" si="62"/>
-        <v>9.9999992018484196E-2</v>
+        <f t="shared" si="77"/>
+        <v>9.9999991637622881E-2</v>
       </c>
       <c r="CB14" s="8">
-        <f t="shared" si="63"/>
-        <v>9.9999990997061208E-2</v>
+        <f t="shared" si="78"/>
+        <v>9.9999990507848524E-2</v>
       </c>
       <c r="CC14" s="8">
-        <f t="shared" si="64"/>
-        <v>9.9999990997061208E-2</v>
+        <f t="shared" si="79"/>
+        <v>9.9999990507848524E-2</v>
       </c>
       <c r="CD14" s="8">
-        <f t="shared" si="65"/>
-        <v>9.9999999902185263E-2</v>
+        <f t="shared" si="80"/>
+        <v>9.999999989810017E-2</v>
       </c>
       <c r="CE14" s="8">
-        <f t="shared" si="66"/>
-        <v>9.9999999902185263E-2</v>
+        <f t="shared" si="81"/>
+        <v>9.999999989810017E-2</v>
       </c>
       <c r="CF14" s="8">
-        <f t="shared" si="67"/>
-        <v>6.2898733887847239E-2</v>
+        <f t="shared" si="82"/>
+        <v>6.4180753811931307E-2</v>
       </c>
       <c r="CG14" s="8">
-        <f t="shared" si="68"/>
-        <v>0.11494193775853398</v>
+        <f t="shared" si="83"/>
+        <v>0.11327699693027547</v>
       </c>
       <c r="CH14" s="8">
-        <f t="shared" si="69"/>
-        <v>6.2898733887847239E-2</v>
+        <f t="shared" si="84"/>
+        <v>6.4180753811931307E-2</v>
       </c>
       <c r="CI14" s="8">
-        <f t="shared" si="70"/>
-        <v>0.11494193775853398</v>
+        <f t="shared" si="85"/>
+        <v>0.11327699693027547</v>
       </c>
       <c r="CJ14" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.1</v>
       </c>
       <c r="CK14" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.1</v>
       </c>
       <c r="CL14" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>0.11508915090845562</v>
       </c>
       <c r="CM14" s="8">
-        <f t="shared" si="74"/>
-        <v>9.9999999899070671E-2</v>
+        <f t="shared" si="89"/>
+        <v>9.9999999893863448E-2</v>
       </c>
       <c r="CN14" s="8">
-        <f t="shared" si="75"/>
-        <v>9.9999999899070671E-2</v>
+        <f t="shared" si="90"/>
+        <v>9.9999999893863448E-2</v>
       </c>
       <c r="CO14" s="8">
-        <f t="shared" si="76"/>
-        <v>6.2898732750485811E-2</v>
+        <f t="shared" si="91"/>
+        <v>6.4180752738234606E-2</v>
       </c>
       <c r="CP14" s="8">
-        <f t="shared" si="77"/>
-        <v>0.11494193805035249</v>
+        <f t="shared" si="92"/>
+        <v>0.11327699713933964</v>
       </c>
     </row>
     <row r="15" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3018,48 +3029,48 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="8">
-        <f t="shared" si="78"/>
-        <v>17.099998563082707</v>
+        <f t="shared" si="93"/>
+        <v>17.099998489389634</v>
       </c>
       <c r="T15" s="8">
-        <f t="shared" si="79"/>
-        <v>17.099998563082707</v>
+        <f t="shared" si="94"/>
+        <v>17.099998489389634</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" si="80"/>
-        <v>0.18869619581383762</v>
+        <f t="shared" si="95"/>
+        <v>0.19254225555370585</v>
       </c>
       <c r="V15" s="8">
-        <f t="shared" si="81"/>
-        <v>0.34482580495602611</v>
+        <f t="shared" si="96"/>
+        <v>0.33983098251323218</v>
       </c>
       <c r="W15" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>83</v>
       </c>
       <c r="X15" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>86</v>
       </c>
       <c r="Y15" s="11">
-        <f t="shared" si="84"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
       <c r="Z15" s="8">
-        <f t="shared" si="85"/>
-        <v>0.99999996254024215</v>
+        <f t="shared" si="100"/>
+        <v>0.99999996254023926</v>
       </c>
       <c r="AA15" s="8">
-        <f t="shared" si="86"/>
-        <v>0.99999996254024215</v>
+        <f t="shared" si="101"/>
+        <v>0.99999996254023926</v>
       </c>
       <c r="AB15" s="8">
-        <f t="shared" si="87"/>
-        <v>0.54703457129477451</v>
+        <f t="shared" si="102"/>
+        <v>0.54798740424073744</v>
       </c>
       <c r="AC15" s="8">
-        <f t="shared" si="88"/>
-        <v>0.58536229030786791</v>
+        <f t="shared" si="103"/>
+        <v>0.584149465982995</v>
       </c>
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
@@ -3073,72 +3084,72 @@
         <v>0</v>
       </c>
       <c r="AK15" s="8">
-        <f t="shared" si="89"/>
-        <v>4.7271449277822639E-7</v>
+        <f t="shared" si="104"/>
+        <v>4.5321579695261897E-7</v>
       </c>
       <c r="AL15" s="8">
-        <f t="shared" si="90"/>
-        <v>5.0772008623466385E-7</v>
+        <f t="shared" si="105"/>
+        <v>4.8677746669029282E-7</v>
       </c>
       <c r="AM15" s="8">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AN15" s="8">
-        <f t="shared" si="92"/>
-        <v>-3.4727779202763102E-10</v>
+        <f t="shared" si="107"/>
+        <v>-3.3295315519558935E-10</v>
       </c>
       <c r="AO15" s="8">
-        <f t="shared" si="93"/>
-        <v>-3.4727779202763102E-10</v>
+        <f t="shared" si="108"/>
+        <v>-3.3295315519558935E-10</v>
       </c>
       <c r="AP15" s="8">
-        <f t="shared" si="94"/>
-        <v>0.11223928400039614</v>
+        <f t="shared" si="109"/>
+        <v>0.1119622584178897</v>
       </c>
       <c r="AQ15" s="8">
-        <f t="shared" si="95"/>
-        <v>-0.1420752011138513</v>
+        <f t="shared" si="110"/>
+        <v>-0.14190092665416984</v>
       </c>
       <c r="AR15" s="8">
-        <f t="shared" si="96"/>
-        <v>9.9999992018484196E-2</v>
+        <f t="shared" si="111"/>
+        <v>9.9999991637622881E-2</v>
       </c>
       <c r="AS15" s="8">
         <f t="shared" si="22"/>
-        <v>9.9999992018484196E-2</v>
+        <v>9.9999991637622881E-2</v>
       </c>
       <c r="AT15" s="8">
         <f t="shared" si="23"/>
-        <v>9.9999990997061208E-2</v>
+        <v>9.9999990507848524E-2</v>
       </c>
       <c r="AU15" s="8">
         <f t="shared" si="24"/>
-        <v>9.9999990997061208E-2</v>
+        <v>9.9999990507848524E-2</v>
       </c>
       <c r="AV15" s="8">
         <f t="shared" si="25"/>
-        <v>9.9999999902185263E-2</v>
+        <v>9.999999989810017E-2</v>
       </c>
       <c r="AW15" s="8">
         <f t="shared" si="26"/>
-        <v>9.9999999902185263E-2</v>
+        <v>9.999999989810017E-2</v>
       </c>
       <c r="AX15" s="8">
         <f t="shared" si="27"/>
-        <v>6.2898733887847239E-2</v>
+        <v>6.4180753811931307E-2</v>
       </c>
       <c r="AY15" s="8">
         <f t="shared" si="28"/>
-        <v>0.11494193775853398</v>
+        <v>0.11327699693027547</v>
       </c>
       <c r="AZ15" s="8">
         <f t="shared" si="29"/>
-        <v>6.2898733887847239E-2</v>
+        <v>6.4180753811931307E-2</v>
       </c>
       <c r="BA15" s="8">
         <f t="shared" si="30"/>
-        <v>0.11494193775853398</v>
+        <v>0.11327699693027547</v>
       </c>
       <c r="BB15" s="5">
         <f t="shared" si="31"/>
@@ -3154,155 +3165,155 @@
       </c>
       <c r="BE15" s="8">
         <f t="shared" si="34"/>
-        <v>9.9999999899070671E-2</v>
+        <v>9.9999999893863448E-2</v>
       </c>
       <c r="BF15" s="8">
         <f t="shared" si="35"/>
-        <v>9.9999999899070671E-2</v>
+        <v>9.9999999893863448E-2</v>
       </c>
       <c r="BG15" s="8">
         <f t="shared" si="36"/>
-        <v>6.2898732750485811E-2</v>
+        <v>6.4180752738234606E-2</v>
       </c>
       <c r="BH15" s="8">
         <f t="shared" si="37"/>
-        <v>0.11494193805035249</v>
+        <v>0.11327699713933964</v>
       </c>
       <c r="BI15" s="8">
-        <f t="shared" ref="BI15:BI16" si="101">$L$2*AN15*W15+$L$3*BI14</f>
-        <v>-2.8927741083771527E-9</v>
+        <f t="shared" si="112"/>
+        <v>-2.7854820934240775E-9</v>
       </c>
       <c r="BJ15" s="8">
-        <f t="shared" ref="BJ15:BJ16" si="102">$L$2*AO15*W15+$L$3*BJ14</f>
-        <v>-2.8927741083771527E-9</v>
+        <f t="shared" si="113"/>
+        <v>-2.7854820934240775E-9</v>
       </c>
       <c r="BK15" s="8">
-        <f t="shared" ref="BK15:BK16" si="103">$L$2*AN15*X15+BK14*$L$3</f>
-        <v>-2.9971692657614535E-9</v>
+        <f t="shared" si="114"/>
+        <v>-2.8875823842302859E-9</v>
       </c>
       <c r="BL15" s="8">
-        <f t="shared" ref="BL15:BL16" si="104">$L$2*AO15*X15+BL14*$L$3</f>
-        <v>-2.9971692657614535E-9</v>
+        <f t="shared" si="115"/>
+        <v>-2.8875823842302859E-9</v>
       </c>
       <c r="BM15" s="8">
-        <f t="shared" ref="BM15:BM16" si="105">$L$2*AN15*Y15+BM14*$L$3</f>
-        <v>-3.4829824806759843E-11</v>
+        <f t="shared" si="116"/>
+        <v>-3.3434498295405571E-11</v>
       </c>
       <c r="BN15" s="8">
-        <f t="shared" ref="BN15:BN16" si="106">$L$2*AO15*Y15+BN14*$L$3</f>
-        <v>-3.4829824806759843E-11</v>
+        <f t="shared" si="117"/>
+        <v>-3.3434498295405571E-11</v>
       </c>
       <c r="BO15" s="8">
-        <f t="shared" ref="BO15:BO16" si="107">$L$2*AP15*Z15+BO14*$L$3</f>
-        <v>9.7077219251537374E-3</v>
+        <f t="shared" si="118"/>
+        <v>9.6902386248756342E-3</v>
       </c>
       <c r="BP15" s="8">
-        <f t="shared" ref="BP15:BP16" si="108">$L$2*AQ15*Z15+BP14*$L$3</f>
-        <v>-1.306965964240123E-2</v>
+        <f t="shared" si="119"/>
+        <v>-1.306418905266658E-2</v>
       </c>
       <c r="BQ15" s="8">
-        <f t="shared" ref="BQ15:BQ16" si="109">$L$2*AP15*AA15+BQ14*$L$3</f>
-        <v>9.7077219251537374E-3</v>
+        <f t="shared" si="120"/>
+        <v>9.6902386248756342E-3</v>
       </c>
       <c r="BR15" s="8">
-        <f t="shared" ref="BR15:BR16" si="110">$L$2*AQ15*AA15+BR14*$L$3</f>
-        <v>-1.306965964240123E-2</v>
+        <f t="shared" si="121"/>
+        <v>-1.306418905266658E-2</v>
       </c>
       <c r="BS15" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="BT15" s="5">
-        <f t="shared" si="98"/>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="BU15" s="5">
-        <f t="shared" si="99"/>
-        <v>6.2898733887847245E-3</v>
+        <f t="shared" si="124"/>
+        <v>6.4180753811931314E-3</v>
       </c>
       <c r="BV15" s="8">
-        <f t="shared" ref="BV15:BV16" si="111">$L$2*AN15*$L$4+BV14*$L$3</f>
-        <v>-3.4851006784360994E-11</v>
+        <f t="shared" si="125"/>
+        <v>-3.3567632734086388E-11</v>
       </c>
       <c r="BW15" s="8">
-        <f t="shared" ref="BW15:BW16" si="112">$L$2*AO15*$L$4+BW14*$L$3</f>
-        <v>-3.4851006784360994E-11</v>
+        <f t="shared" si="126"/>
+        <v>-3.3567632734086388E-11</v>
       </c>
       <c r="BX15" s="8">
-        <f t="shared" ref="BX15:BX16" si="113">$L$2*AP15*$L$4+BX14*$L$3</f>
-        <v>9.7077222892998395E-3</v>
+        <f t="shared" si="127"/>
+        <v>9.6902389885090336E-3</v>
       </c>
       <c r="BY15" s="8">
-        <f t="shared" ref="BY15:BY16" si="114">$L$2*AQ15*$L$4+BY14*$L$3</f>
-        <v>-1.3069660132363995E-2</v>
+        <f t="shared" si="128"/>
+        <v>-1.3064189542609784E-2</v>
       </c>
       <c r="BZ15" s="8">
-        <f t="shared" si="100"/>
-        <v>9.9999989125710093E-2</v>
+        <f t="shared" si="129"/>
+        <v>9.9999988852140786E-2</v>
       </c>
       <c r="CA15" s="8">
-        <f t="shared" si="62"/>
-        <v>9.9999989125710093E-2</v>
+        <f t="shared" si="77"/>
+        <v>9.9999988852140786E-2</v>
       </c>
       <c r="CB15" s="8">
-        <f t="shared" si="63"/>
-        <v>9.9999987999891946E-2</v>
+        <f t="shared" si="78"/>
+        <v>9.9999987620266143E-2</v>
       </c>
       <c r="CC15" s="8">
-        <f t="shared" si="64"/>
-        <v>9.9999987999891946E-2</v>
+        <f t="shared" si="79"/>
+        <v>9.9999987620266143E-2</v>
       </c>
       <c r="CD15" s="8">
-        <f t="shared" si="65"/>
-        <v>9.9999999867355444E-2</v>
+        <f t="shared" si="80"/>
+        <v>9.9999999864665665E-2</v>
       </c>
       <c r="CE15" s="8">
-        <f t="shared" si="66"/>
-        <v>9.9999999867355444E-2</v>
+        <f t="shared" si="81"/>
+        <v>9.9999999864665665E-2</v>
       </c>
       <c r="CF15" s="8">
-        <f t="shared" si="67"/>
-        <v>7.2606455813000972E-2</v>
+        <f t="shared" si="82"/>
+        <v>7.3870992436806948E-2</v>
       </c>
       <c r="CG15" s="8">
-        <f t="shared" si="68"/>
-        <v>0.10187227811613275</v>
+        <f t="shared" si="83"/>
+        <v>0.10021280787760889</v>
       </c>
       <c r="CH15" s="8">
-        <f t="shared" si="69"/>
-        <v>7.2606455813000972E-2</v>
+        <f t="shared" si="84"/>
+        <v>7.3870992436806948E-2</v>
       </c>
       <c r="CI15" s="8">
-        <f t="shared" si="70"/>
-        <v>0.10187227811613275</v>
+        <f t="shared" si="85"/>
+        <v>0.10021280787760889</v>
       </c>
       <c r="CJ15" s="5">
-        <f t="shared" si="71"/>
+        <f t="shared" si="86"/>
         <v>0.1</v>
       </c>
       <c r="CK15" s="5">
-        <f t="shared" si="72"/>
+        <f t="shared" si="87"/>
         <v>0.1</v>
       </c>
       <c r="CL15" s="5">
-        <f t="shared" si="73"/>
-        <v>0.12137902429724035</v>
+        <f t="shared" si="88"/>
+        <v>0.12150722628964875</v>
       </c>
       <c r="CM15" s="8">
-        <f t="shared" si="74"/>
-        <v>9.999999986421966E-2</v>
+        <f t="shared" si="89"/>
+        <v>9.9999999860295813E-2</v>
       </c>
       <c r="CN15" s="8">
-        <f t="shared" si="75"/>
-        <v>9.999999986421966E-2</v>
+        <f t="shared" si="90"/>
+        <v>9.9999999860295813E-2</v>
       </c>
       <c r="CO15" s="8">
-        <f t="shared" si="76"/>
-        <v>7.2606455039785647E-2</v>
+        <f t="shared" si="91"/>
+        <v>7.3870991726743634E-2</v>
       </c>
       <c r="CP15" s="8">
-        <f t="shared" si="77"/>
-        <v>0.1018722779179885</v>
+        <f t="shared" si="92"/>
+        <v>0.10021280759672986</v>
       </c>
     </row>
     <row r="16" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3323,48 +3334,48 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="9">
-        <f t="shared" si="78"/>
-        <v>16.799998086520908</v>
+        <f t="shared" si="93"/>
+        <v>16.799998030920364</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" si="79"/>
-        <v>16.799998086520908</v>
+        <f t="shared" si="94"/>
+        <v>16.799998030920364</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="80"/>
-        <v>0.21781935932303753</v>
+        <f t="shared" si="95"/>
+        <v>0.22161296912972342</v>
       </c>
       <c r="V16" s="9">
-        <f t="shared" si="81"/>
-        <v>0.30561682384782746</v>
+        <f t="shared" si="96"/>
+        <v>0.30063841321734414</v>
       </c>
       <c r="W16" s="12">
-        <f t="shared" si="82"/>
+        <f t="shared" si="97"/>
         <v>70</v>
       </c>
       <c r="X16" s="12">
-        <f t="shared" si="83"/>
+        <f t="shared" si="98"/>
         <v>96</v>
       </c>
       <c r="Y16" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
       <c r="Z16" s="9">
-        <f t="shared" si="85"/>
-        <v>0.99999994943459225</v>
+        <f t="shared" si="100"/>
+        <v>0.99999994943458959</v>
       </c>
       <c r="AA16" s="9">
-        <f t="shared" si="86"/>
-        <v>0.99999994943459225</v>
+        <f t="shared" si="101"/>
+        <v>0.99999994943458959</v>
       </c>
       <c r="AB16" s="9">
-        <f t="shared" si="87"/>
-        <v>0.55424055439330799</v>
+        <f t="shared" si="102"/>
+        <v>0.55517760196402766</v>
       </c>
       <c r="AC16" s="9">
-        <f t="shared" si="88"/>
-        <v>0.5758150185933153</v>
+        <f t="shared" si="103"/>
+        <v>0.57459857480696186</v>
       </c>
       <c r="AD16" s="16"/>
       <c r="AE16" s="16"/>
@@ -3378,72 +3389,72 @@
         <v>0</v>
       </c>
       <c r="AK16" s="9">
-        <f t="shared" si="89"/>
-        <v>3.0927895243020585E-7</v>
+        <f t="shared" si="104"/>
+        <v>2.9113628928816154E-7</v>
       </c>
       <c r="AL16" s="9">
-        <f t="shared" si="90"/>
-        <v>5.8398012720670309E-7</v>
+        <f t="shared" si="105"/>
+        <v>5.4972317300201869E-7</v>
       </c>
       <c r="AM16" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
       <c r="AN16" s="9">
-        <f t="shared" si="92"/>
-        <v>-3.2016458184482338E-10</v>
+        <f t="shared" si="107"/>
+        <v>-3.0138335584226586E-10</v>
       </c>
       <c r="AO16" s="9">
-        <f t="shared" si="93"/>
-        <v>-3.2016458184482338E-10</v>
+        <f t="shared" si="108"/>
+        <v>-3.0138335584226586E-10</v>
       </c>
       <c r="AP16" s="9">
-        <f t="shared" si="94"/>
-        <v>0.11012842028933839</v>
+        <f t="shared" si="109"/>
+        <v>0.10985130757767381</v>
       </c>
       <c r="AQ16" s="9">
-        <f t="shared" si="95"/>
-        <v>-0.14064401768858964</v>
+        <f t="shared" si="110"/>
+        <v>-0.14045203287795283</v>
       </c>
       <c r="AR16" s="9">
-        <f t="shared" si="96"/>
-        <v>9.9999989125710093E-2</v>
+        <f t="shared" si="111"/>
+        <v>9.9999988852140786E-2</v>
       </c>
       <c r="AS16" s="9">
         <f t="shared" si="22"/>
-        <v>9.9999989125710093E-2</v>
+        <v>9.9999988852140786E-2</v>
       </c>
       <c r="AT16" s="9">
         <f t="shared" si="23"/>
-        <v>9.9999987999891946E-2</v>
+        <v>9.9999987620266143E-2</v>
       </c>
       <c r="AU16" s="9">
         <f t="shared" si="24"/>
-        <v>9.9999987999891946E-2</v>
+        <v>9.9999987620266143E-2</v>
       </c>
       <c r="AV16" s="9">
         <f t="shared" si="25"/>
-        <v>9.9999999867355444E-2</v>
+        <v>9.9999999864665665E-2</v>
       </c>
       <c r="AW16" s="9">
         <f t="shared" si="26"/>
-        <v>9.9999999867355444E-2</v>
+        <v>9.9999999864665665E-2</v>
       </c>
       <c r="AX16" s="9">
         <f t="shared" si="27"/>
-        <v>7.2606455813000972E-2</v>
+        <v>7.3870992436806948E-2</v>
       </c>
       <c r="AY16" s="9">
         <f t="shared" si="28"/>
-        <v>0.10187227811613275</v>
+        <v>0.10021280787760889</v>
       </c>
       <c r="AZ16" s="9">
         <f t="shared" si="29"/>
-        <v>7.2606455813000972E-2</v>
+        <v>7.3870992436806948E-2</v>
       </c>
       <c r="BA16" s="9">
         <f t="shared" si="30"/>
-        <v>0.10187227811613275</v>
+        <v>0.10021280787760889</v>
       </c>
       <c r="BB16" s="7">
         <f t="shared" si="31"/>
@@ -3455,164 +3466,2610 @@
       </c>
       <c r="BD16" s="7">
         <f t="shared" si="33"/>
-        <v>0.12137902429724035</v>
+        <v>0.12150722628964875</v>
       </c>
       <c r="BE16" s="9">
         <f t="shared" si="34"/>
-        <v>9.999999986421966E-2</v>
+        <v>9.9999999860295813E-2</v>
       </c>
       <c r="BF16" s="9">
         <f t="shared" si="35"/>
-        <v>9.999999986421966E-2</v>
+        <v>9.9999999860295813E-2</v>
       </c>
       <c r="BG16" s="9">
         <f t="shared" si="36"/>
-        <v>7.2606455039785647E-2</v>
+        <v>7.3870991726743634E-2</v>
       </c>
       <c r="BH16" s="9">
         <f t="shared" si="37"/>
-        <v>0.1018722779179885</v>
+        <v>0.10021280759672986</v>
       </c>
       <c r="BI16" s="9">
+        <f t="shared" si="112"/>
+        <v>-2.3882317002382684E-9</v>
+      </c>
+      <c r="BJ16" s="9">
+        <f t="shared" si="113"/>
+        <v>-2.3882317002382684E-9</v>
+      </c>
+      <c r="BK16" s="9">
+        <f t="shared" si="114"/>
+        <v>-3.1820384545087806E-9</v>
+      </c>
+      <c r="BL16" s="9">
+        <f t="shared" si="115"/>
+        <v>-3.1820384545087806E-9</v>
+      </c>
+      <c r="BM16" s="9">
+        <f t="shared" si="116"/>
+        <v>-3.3481785413767142E-11</v>
+      </c>
+      <c r="BN16" s="9">
+        <f t="shared" si="117"/>
+        <v>-3.3481785413767142E-11</v>
+      </c>
+      <c r="BO16" s="9">
+        <f t="shared" si="118"/>
+        <v>1.1954154064787299E-2</v>
+      </c>
+      <c r="BP16" s="9">
+        <f t="shared" si="119"/>
+        <v>-1.5351621482860473E-2</v>
+      </c>
+      <c r="BQ16" s="9">
+        <f t="shared" si="120"/>
+        <v>1.1954154064787299E-2</v>
+      </c>
+      <c r="BR16" s="9">
+        <f t="shared" si="121"/>
+        <v>-1.5351621482860473E-2</v>
+      </c>
+      <c r="BS16" s="7">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BT16" s="7">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BU16" s="7">
+        <f t="shared" si="124"/>
+        <v>7.3870992436806948E-3</v>
+      </c>
+      <c r="BV16" s="9">
+        <f t="shared" si="125"/>
+        <v>-3.349509885763522E-11</v>
+      </c>
+      <c r="BW16" s="9">
+        <f t="shared" si="126"/>
+        <v>-3.349509885763522E-11</v>
+      </c>
+      <c r="BX16" s="9">
+        <f t="shared" si="127"/>
+        <v>1.1954154656618284E-2</v>
+      </c>
+      <c r="BY16" s="9">
+        <f t="shared" si="128"/>
+        <v>-1.5351622242056263E-2</v>
+      </c>
+      <c r="BZ16" s="9">
+        <f t="shared" si="129"/>
+        <v>9.9999986463909091E-2</v>
+      </c>
+      <c r="CA16" s="9">
+        <f t="shared" si="77"/>
+        <v>9.9999986463909091E-2</v>
+      </c>
+      <c r="CB16" s="9">
+        <f t="shared" si="78"/>
+        <v>9.999998443822769E-2</v>
+      </c>
+      <c r="CC16" s="9">
+        <f t="shared" si="79"/>
+        <v>9.999998443822769E-2</v>
+      </c>
+      <c r="CD16" s="9">
+        <f t="shared" si="80"/>
+        <v>9.9999999831183878E-2</v>
+      </c>
+      <c r="CE16" s="9">
+        <f t="shared" si="81"/>
+        <v>9.9999999831183878E-2</v>
+      </c>
+      <c r="CF16" s="9">
+        <f t="shared" si="82"/>
+        <v>8.5825146501594243E-2</v>
+      </c>
+      <c r="CG16" s="9">
+        <f t="shared" si="83"/>
+        <v>8.486118639474842E-2</v>
+      </c>
+      <c r="CH16" s="9">
+        <f t="shared" si="84"/>
+        <v>8.5825146501594243E-2</v>
+      </c>
+      <c r="CI16" s="9">
+        <f t="shared" si="85"/>
+        <v>8.486118639474842E-2</v>
+      </c>
+      <c r="CJ16" s="7">
+        <f t="shared" si="86"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK16" s="7">
+        <f t="shared" si="87"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL16" s="7">
+        <f t="shared" si="88"/>
+        <v>0.12889432553332944</v>
+      </c>
+      <c r="CM16" s="9">
+        <f t="shared" si="89"/>
+        <v>9.9999999826800717E-2</v>
+      </c>
+      <c r="CN16" s="9">
+        <f t="shared" si="90"/>
+        <v>9.9999999826800717E-2</v>
+      </c>
+      <c r="CO16" s="9">
+        <f t="shared" si="91"/>
+        <v>8.5825146383361917E-2</v>
+      </c>
+      <c r="CP16" s="9">
+        <f t="shared" si="92"/>
+        <v>8.4861185354673602E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="20">
+        <v>3</v>
+      </c>
+      <c r="L17" s="10">
+        <v>85</v>
+      </c>
+      <c r="M17" s="10">
+        <v>85</v>
+      </c>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="4">
+        <f>AR17*W17+AT17*X17+AV17*Y17+$L$4*BE17</f>
+        <v>17.199997526339608</v>
+      </c>
+      <c r="T17" s="4">
+        <f>AS17*W17+AU17*X17+AW17*Y17+$L$4*BF17</f>
+        <v>17.199997526339608</v>
+      </c>
+      <c r="U17" s="4">
+        <f>AX17*Z17+AZ17*AA17+BG17*$L$4</f>
+        <v>0.25747543356845926</v>
+      </c>
+      <c r="V17" s="4">
+        <f>AY17*Z17+BA17*AA17+BH17*$L$4</f>
+        <v>0.25458355239142622</v>
+      </c>
+      <c r="W17" s="10">
+        <f>L17</f>
+        <v>85</v>
+      </c>
+      <c r="X17" s="10">
+        <f t="shared" si="98"/>
+        <v>85</v>
+      </c>
+      <c r="Y17" s="10">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="4">
+        <f>1/(1+EXP(-S17))</f>
+        <v>0.9999999661049741</v>
+      </c>
+      <c r="AA17" s="4">
         <f t="shared" si="101"/>
-        <v>-2.5304294837514792E-9</v>
-      </c>
-      <c r="BJ16" s="9">
+        <v>0.9999999661049741</v>
+      </c>
+      <c r="AB17" s="4">
         <f t="shared" si="102"/>
-        <v>-2.5304294837514792E-9</v>
-      </c>
-      <c r="BK16" s="9">
+        <v>0.56401559650102573</v>
+      </c>
+      <c r="AC17" s="4">
         <f t="shared" si="103"/>
-        <v>-3.3732969122864496E-9</v>
-      </c>
-      <c r="BL16" s="9">
-        <f t="shared" si="104"/>
-        <v>-3.3732969122864496E-9</v>
-      </c>
-      <c r="BM16" s="9">
-        <f t="shared" si="105"/>
-        <v>-3.5499440665158323E-11</v>
-      </c>
-      <c r="BN16" s="9">
-        <f t="shared" si="106"/>
-        <v>-3.5499440665158323E-11</v>
-      </c>
-      <c r="BO16" s="9">
-        <f t="shared" si="107"/>
-        <v>1.1983613664580365E-2</v>
-      </c>
-      <c r="BP16" s="9">
-        <f t="shared" si="108"/>
-        <v>-1.5371367021926879E-2</v>
-      </c>
-      <c r="BQ16" s="9">
-        <f t="shared" si="109"/>
-        <v>1.1983613664580365E-2</v>
-      </c>
-      <c r="BR16" s="9">
-        <f t="shared" si="110"/>
-        <v>-1.5371367021926879E-2</v>
-      </c>
-      <c r="BS16" s="7">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="BT16" s="7">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
-      <c r="BU16" s="7">
-        <f t="shared" si="99"/>
-        <v>7.2606455813000979E-3</v>
-      </c>
-      <c r="BV16" s="9">
-        <f t="shared" si="111"/>
-        <v>-3.5501558862918435E-11</v>
-      </c>
-      <c r="BW16" s="9">
+        <v>0.56330434595105339</v>
+      </c>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="4">
+        <f>W17*(1-W17)*(AR17*AN17+AS17*AO17)</f>
+        <v>1.349058984682822E-7</v>
+      </c>
+      <c r="AL17" s="4">
+        <f>X17*(1-X17)*(AT17*AN17+AU17*AO17)</f>
+        <v>1.3490589573551814E-7</v>
+      </c>
+      <c r="AM17" s="4">
+        <f>Y17*(1-Y17)*(AV17*AN17+AW17*AO17)</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="4">
+        <f>Z17*(1-Z17)*(AX17*AP17+AY17*AQ17)</f>
+        <v>-9.4471930482681886E-11</v>
+      </c>
+      <c r="AO17" s="4">
+        <f>AA17*(1-AA17)*(AZ17*AP17+BA17*AQ17)</f>
+        <v>-9.4471930482681886E-11</v>
+      </c>
+      <c r="AP17" s="4">
+        <f>AB17*(1-AB17)*(AI17-AB17)</f>
+        <v>-0.1386925651310528</v>
+      </c>
+      <c r="AQ17" s="4">
+        <f>AC17*(1-AC17)*(AJ17-AC17)</f>
+        <v>0.10742388178592155</v>
+      </c>
+      <c r="AR17" s="4">
+        <f>BZ16</f>
+        <v>9.9999986463909091E-2</v>
+      </c>
+      <c r="AS17" s="4">
+        <f t="shared" ref="AS17:AS20" si="130">CA16</f>
+        <v>9.9999986463909091E-2</v>
+      </c>
+      <c r="AT17" s="4">
+        <f t="shared" ref="AT17:AT20" si="131">CB16</f>
+        <v>9.999998443822769E-2</v>
+      </c>
+      <c r="AU17" s="4">
+        <f t="shared" ref="AU17:AU20" si="132">CC16</f>
+        <v>9.999998443822769E-2</v>
+      </c>
+      <c r="AV17" s="4">
+        <f t="shared" ref="AV17:AV20" si="133">CD16</f>
+        <v>9.9999999831183878E-2</v>
+      </c>
+      <c r="AW17" s="4">
+        <f t="shared" ref="AW17:AW20" si="134">CE16</f>
+        <v>9.9999999831183878E-2</v>
+      </c>
+      <c r="AX17" s="4">
+        <f t="shared" ref="AX17:AX20" si="135">CF16</f>
+        <v>8.5825146501594243E-2</v>
+      </c>
+      <c r="AY17" s="4">
+        <f t="shared" ref="AY17:AY20" si="136">CG16</f>
+        <v>8.486118639474842E-2</v>
+      </c>
+      <c r="AZ17" s="4">
+        <f t="shared" ref="AZ17:AZ20" si="137">CH16</f>
+        <v>8.5825146501594243E-2</v>
+      </c>
+      <c r="BA17" s="4">
+        <f t="shared" ref="BA17:BA20" si="138">CI16</f>
+        <v>8.486118639474842E-2</v>
+      </c>
+      <c r="BB17" s="3">
+        <f t="shared" ref="BB17:BB20" si="139">CJ16</f>
+        <v>0.1</v>
+      </c>
+      <c r="BC17" s="3">
+        <f t="shared" ref="BC17:BC20" si="140">CK16</f>
+        <v>0.1</v>
+      </c>
+      <c r="BD17" s="3">
+        <f t="shared" ref="BD17:BD20" si="141">CL16</f>
+        <v>0.12889432553332944</v>
+      </c>
+      <c r="BE17" s="4">
+        <f t="shared" ref="BE17:BE20" si="142">CM16</f>
+        <v>9.9999999826800717E-2</v>
+      </c>
+      <c r="BF17" s="4">
+        <f t="shared" ref="BF17:BF20" si="143">CN16</f>
+        <v>9.9999999826800717E-2</v>
+      </c>
+      <c r="BG17" s="4">
+        <f t="shared" ref="BG17:BG20" si="144">CO16</f>
+        <v>8.5825146383361917E-2</v>
+      </c>
+      <c r="BH17" s="4">
+        <f t="shared" ref="BH17:BH20" si="145">CP16</f>
+        <v>8.4861185354673602E-2</v>
+      </c>
+      <c r="BI17" s="4">
         <f t="shared" si="112"/>
-        <v>-3.5501558862918435E-11</v>
-      </c>
-      <c r="BX16" s="9">
+        <v>-1.041834579126623E-9</v>
+      </c>
+      <c r="BJ17" s="4">
         <f t="shared" si="113"/>
-        <v>1.1983614257863824E-2</v>
-      </c>
-      <c r="BY16" s="9">
+        <v>-1.041834579126623E-9</v>
+      </c>
+      <c r="BK17" s="4">
         <f t="shared" si="114"/>
-        <v>-1.5371367782095365E-2</v>
-      </c>
-      <c r="BZ16" s="9">
-        <f t="shared" si="100"/>
-        <v>9.9999986595280616E-2</v>
-      </c>
-      <c r="CA16" s="9">
-        <f t="shared" si="62"/>
-        <v>9.9999986595280616E-2</v>
-      </c>
-      <c r="CB16" s="9">
-        <f t="shared" si="63"/>
-        <v>9.999998462659504E-2</v>
-      </c>
-      <c r="CC16" s="9">
-        <f t="shared" si="64"/>
-        <v>9.999998462659504E-2</v>
-      </c>
-      <c r="CD16" s="9">
-        <f t="shared" si="65"/>
-        <v>9.9999999831856007E-2</v>
-      </c>
-      <c r="CE16" s="9">
-        <f t="shared" si="66"/>
-        <v>9.9999999831856007E-2</v>
-      </c>
-      <c r="CF16" s="9">
-        <f t="shared" si="67"/>
-        <v>8.4590069477581339E-2</v>
-      </c>
-      <c r="CG16" s="9">
-        <f t="shared" si="68"/>
-        <v>8.6500911094205879E-2</v>
-      </c>
-      <c r="CH16" s="9">
-        <f t="shared" si="69"/>
-        <v>8.4590069477581339E-2</v>
-      </c>
-      <c r="CI16" s="9">
-        <f t="shared" si="70"/>
-        <v>8.6500911094205879E-2</v>
-      </c>
-      <c r="CJ16" s="7">
-        <f t="shared" si="71"/>
-        <v>0.1</v>
-      </c>
-      <c r="CK16" s="7">
-        <f t="shared" si="72"/>
-        <v>0.1</v>
-      </c>
-      <c r="CL16" s="7">
-        <f t="shared" si="73"/>
-        <v>0.12863966987854045</v>
-      </c>
-      <c r="CM16" s="9">
-        <f t="shared" si="74"/>
-        <v>9.99999998287181E-2</v>
-      </c>
-      <c r="CN16" s="9">
-        <f t="shared" si="75"/>
-        <v>9.99999998287181E-2</v>
-      </c>
-      <c r="CO16" s="9">
-        <f t="shared" si="76"/>
-        <v>8.4590069297649478E-2</v>
-      </c>
-      <c r="CP16" s="9">
-        <f t="shared" si="77"/>
-        <v>8.6500910135893144E-2</v>
+        <v>-1.1212152545536743E-9</v>
+      </c>
+      <c r="BL17" s="4">
+        <f t="shared" si="115"/>
+        <v>-1.1212152545536743E-9</v>
+      </c>
+      <c r="BM17" s="4">
+        <f t="shared" si="116"/>
+        <v>-1.2795371589644905E-11</v>
+      </c>
+      <c r="BN17" s="4">
+        <f t="shared" si="117"/>
+        <v>-1.2795371589644905E-11</v>
+      </c>
+      <c r="BO17" s="4">
+        <f t="shared" si="118"/>
+        <v>-1.2673840636527742E-2</v>
+      </c>
+      <c r="BP17" s="4">
+        <f t="shared" si="119"/>
+        <v>9.2072256661925814E-3</v>
+      </c>
+      <c r="BQ17" s="4">
+        <f t="shared" si="120"/>
+        <v>-1.2673840636527742E-2</v>
+      </c>
+      <c r="BR17" s="4">
+        <f t="shared" si="121"/>
+        <v>9.2072256661925814E-3</v>
+      </c>
+      <c r="BS17" s="3">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BT17" s="3">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BU17" s="3">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="BV17" s="4">
+        <f t="shared" si="125"/>
+        <v>-1.2796702934031712E-11</v>
+      </c>
+      <c r="BW17" s="4">
+        <f t="shared" si="126"/>
+        <v>-1.2796702934031712E-11</v>
+      </c>
+      <c r="BX17" s="4">
+        <f t="shared" si="127"/>
+        <v>-1.2673841047443452E-2</v>
+      </c>
+      <c r="BY17" s="4">
+        <f t="shared" si="128"/>
+        <v>9.2072259543865293E-3</v>
+      </c>
+      <c r="BZ17" s="4">
+        <f>AR17+BI17</f>
+        <v>9.9999985422074514E-2</v>
+      </c>
+      <c r="CA17" s="4">
+        <f t="shared" ref="CA17:CA20" si="146">AS17+BJ17</f>
+        <v>9.9999985422074514E-2</v>
+      </c>
+      <c r="CB17" s="4">
+        <f t="shared" ref="CB17:CB20" si="147">AT17+BK17</f>
+        <v>9.9999983317012431E-2</v>
+      </c>
+      <c r="CC17" s="4">
+        <f t="shared" ref="CC17:CC20" si="148">AU17+BL17</f>
+        <v>9.9999983317012431E-2</v>
+      </c>
+      <c r="CD17" s="4">
+        <f t="shared" ref="CD17:CD20" si="149">AV17+BM17</f>
+        <v>9.9999999818388502E-2</v>
+      </c>
+      <c r="CE17" s="4">
+        <f t="shared" ref="CE17:CE20" si="150">AW17+BN17</f>
+        <v>9.9999999818388502E-2</v>
+      </c>
+      <c r="CF17" s="4">
+        <f t="shared" ref="CF17:CF20" si="151">AX17+BO17</f>
+        <v>7.3151305865066504E-2</v>
+      </c>
+      <c r="CG17" s="4">
+        <f t="shared" ref="CG17:CG20" si="152">AY17+BP17</f>
+        <v>9.4068412060941006E-2</v>
+      </c>
+      <c r="CH17" s="4">
+        <f t="shared" ref="CH17:CH20" si="153">AZ17+BQ17</f>
+        <v>7.3151305865066504E-2</v>
+      </c>
+      <c r="CI17" s="4">
+        <f t="shared" ref="CI17:CI20" si="154">BA17+BR17</f>
+        <v>9.4068412060941006E-2</v>
+      </c>
+      <c r="CJ17" s="3">
+        <f t="shared" ref="CJ17:CJ20" si="155">BB17+BS17</f>
+        <v>0.1</v>
+      </c>
+      <c r="CK17" s="3">
+        <f t="shared" ref="CK17:CK20" si="156">BC17+BT17</f>
+        <v>0.1</v>
+      </c>
+      <c r="CL17" s="3">
+        <f t="shared" ref="CL17:CL20" si="157">BD17+BU17</f>
+        <v>0.12889432553332944</v>
+      </c>
+      <c r="CM17" s="4">
+        <f t="shared" ref="CM17:CM20" si="158">BE17+BV17</f>
+        <v>9.9999999814004009E-2</v>
+      </c>
+      <c r="CN17" s="4">
+        <f t="shared" ref="CN17:CN20" si="159">BF17+BW17</f>
+        <v>9.9999999814004009E-2</v>
+      </c>
+      <c r="CO17" s="4">
+        <f t="shared" ref="CO17:CO20" si="160">BG17+BX17</f>
+        <v>7.315130533591846E-2</v>
+      </c>
+      <c r="CP17" s="4">
+        <f t="shared" ref="CP17:CP20" si="161">BH17+BY17</f>
+        <v>9.4068411309060129E-2</v>
       </c>
     </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="20"/>
+      <c r="L18" s="11">
+        <v>80</v>
+      </c>
+      <c r="M18" s="11">
+        <v>90</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <v>1</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="8">
+        <f t="shared" ref="S18:S20" si="162">AR18*W18+AT18*X18+AV18*Y18+$L$4*BE18</f>
+        <v>17.09999733211108</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" ref="T18:T20" si="163">AS18*W18+AU18*X18+AW18*Y18+$L$4*BF18</f>
+        <v>17.09999733211108</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" ref="U18:U20" si="164">AX18*Z18+AZ18*AA18+BG18*$L$4</f>
+        <v>0.2194539115855843</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" ref="V18:V20" si="165">AY18*Z18+BA18*AA18+BH18*$L$4</f>
+        <v>0.28220522838337359</v>
+      </c>
+      <c r="W18" s="11">
+        <f t="shared" ref="W18:W20" si="166">L18</f>
+        <v>80</v>
+      </c>
+      <c r="X18" s="11">
+        <f t="shared" ref="X18:X21" si="167">M18</f>
+        <v>90</v>
+      </c>
+      <c r="Y18" s="11">
+        <f t="shared" ref="Y18:Y21" si="168">N18</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8">
+        <f t="shared" ref="Z18:Z20" si="169">1/(1+EXP(-S18))</f>
+        <v>0.99999996254019596</v>
+      </c>
+      <c r="AA18" s="8">
+        <f t="shared" ref="AA18:AA21" si="170">1/(1+EXP(-T18))</f>
+        <v>0.99999996254019596</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" ref="AB18:AB21" si="171">1/(1+EXP(-U18))</f>
+        <v>0.55464434765468029</v>
+      </c>
+      <c r="AC18" s="8">
+        <f t="shared" ref="AC18:AC21" si="172">1/(1+EXP(-V18))</f>
+        <v>0.57008678193518258</v>
+      </c>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="8">
+        <f t="shared" ref="AK18:AK20" si="173">W18*(1-W18)*(AR18*AN18+AS18*AO18)</f>
+        <v>5.2287175935142284E-9</v>
+      </c>
+      <c r="AL18" s="8">
+        <f t="shared" ref="AL18:AL20" si="174">X18*(1-X18)*(AT18*AN18+AU18*AO18)</f>
+        <v>6.6269030130389481E-9</v>
+      </c>
+      <c r="AM18" s="8">
+        <f t="shared" ref="AM18:AM20" si="175">Y18*(1-Y18)*(AV18*AN18+AW18*AO18)</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="8">
+        <f t="shared" ref="AN18:AN20" si="176">Z18*(1-Z18)*(AX18*AP18+AY18*AQ18)</f>
+        <v>-4.1366442687918468E-12</v>
+      </c>
+      <c r="AO18" s="8">
+        <f t="shared" ref="AO18:AO20" si="177">AA18*(1-AA18)*(AZ18*AP18+BA18*AQ18)</f>
+        <v>-4.1366442687918468E-12</v>
+      </c>
+      <c r="AP18" s="8">
+        <f t="shared" ref="AP18:AP20" si="178">AB18*(1-AB18)*(AI18-AB18)</f>
+        <v>-0.13700491626776956</v>
+      </c>
+      <c r="AQ18" s="8">
+        <f t="shared" ref="AQ18:AQ20" si="179">AC18*(1-AC18)*(AJ18-AC18)</f>
+        <v>0.10536650329182208</v>
+      </c>
+      <c r="AR18" s="8">
+        <f t="shared" ref="AR18:AR20" si="180">BZ17</f>
+        <v>9.9999985422074514E-2</v>
+      </c>
+      <c r="AS18" s="8">
+        <f t="shared" si="130"/>
+        <v>9.9999985422074514E-2</v>
+      </c>
+      <c r="AT18" s="8">
+        <f t="shared" si="131"/>
+        <v>9.9999983317012431E-2</v>
+      </c>
+      <c r="AU18" s="8">
+        <f t="shared" si="132"/>
+        <v>9.9999983317012431E-2</v>
+      </c>
+      <c r="AV18" s="8">
+        <f t="shared" si="133"/>
+        <v>9.9999999818388502E-2</v>
+      </c>
+      <c r="AW18" s="8">
+        <f t="shared" si="134"/>
+        <v>9.9999999818388502E-2</v>
+      </c>
+      <c r="AX18" s="8">
+        <f t="shared" si="135"/>
+        <v>7.3151305865066504E-2</v>
+      </c>
+      <c r="AY18" s="8">
+        <f t="shared" si="136"/>
+        <v>9.4068412060941006E-2</v>
+      </c>
+      <c r="AZ18" s="8">
+        <f t="shared" si="137"/>
+        <v>7.3151305865066504E-2</v>
+      </c>
+      <c r="BA18" s="8">
+        <f t="shared" si="138"/>
+        <v>9.4068412060941006E-2</v>
+      </c>
+      <c r="BB18" s="5">
+        <f t="shared" si="139"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC18" s="5">
+        <f t="shared" si="140"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD18" s="5">
+        <f t="shared" si="141"/>
+        <v>0.12889432553332944</v>
+      </c>
+      <c r="BE18" s="8">
+        <f t="shared" si="142"/>
+        <v>9.9999999814004009E-2</v>
+      </c>
+      <c r="BF18" s="8">
+        <f t="shared" si="143"/>
+        <v>9.9999999814004009E-2</v>
+      </c>
+      <c r="BG18" s="8">
+        <f>CO17</f>
+        <v>7.315130533591846E-2</v>
+      </c>
+      <c r="BH18" s="8">
+        <f t="shared" si="145"/>
+        <v>9.4068411309060129E-2</v>
+      </c>
+      <c r="BI18" s="8">
+        <f t="shared" ref="BI18:BI21" si="181">$L$2*AN18*W18+$L$3*BI17</f>
+        <v>-1.3727661206299709E-10</v>
+      </c>
+      <c r="BJ18" s="8">
+        <f t="shared" ref="BJ18:BJ21" si="182">$L$2*AO18*W18+$L$3*BJ17</f>
+        <v>-1.3727661206299709E-10</v>
+      </c>
+      <c r="BK18" s="8">
+        <f t="shared" ref="BK18:BK21" si="183">$L$2*AN18*X18+BK17*$L$3</f>
+        <v>-1.4935132387449405E-10</v>
+      </c>
+      <c r="BL18" s="8">
+        <f t="shared" ref="BL18:BL21" si="184">$L$2*AO18*X18+BL17*$L$3</f>
+        <v>-1.4935132387449405E-10</v>
+      </c>
+      <c r="BM18" s="8">
+        <f t="shared" ref="BM18:BM21" si="185">$L$2*AN18*Y18+BM17*$L$3</f>
+        <v>-1.2795371589644905E-12</v>
+      </c>
+      <c r="BN18" s="8">
+        <f t="shared" ref="BN18:BN21" si="186">$L$2*AO18*Y18+BN17*$L$3</f>
+        <v>-1.2795371589644905E-12</v>
+      </c>
+      <c r="BO18" s="8">
+        <f t="shared" ref="BO18:BO21" si="187">$L$2*AP18*Z18+BO17*$L$3</f>
+        <v>-1.4967875177211999E-2</v>
+      </c>
+      <c r="BP18" s="8">
+        <f t="shared" ref="BP18:BP21" si="188">$L$2*AQ18*Z18+BP17*$L$3</f>
+        <v>1.1457372501100609E-2</v>
+      </c>
+      <c r="BQ18" s="8">
+        <f t="shared" ref="BQ18:BQ21" si="189">$L$2*AP18*AA18+BQ17*$L$3</f>
+        <v>-1.4967875177211999E-2</v>
+      </c>
+      <c r="BR18" s="8">
+        <f t="shared" ref="BR18:BR21" si="190">$L$2*AQ18*AA18+BR17*$L$3</f>
+        <v>1.1457372501100609E-2</v>
+      </c>
+      <c r="BS18" s="5">
+        <f t="shared" ref="BS18:BS21" si="191">$L$2*AX18*AG18</f>
+        <v>0</v>
+      </c>
+      <c r="BT18" s="5">
+        <f t="shared" ref="BT18:BT21" si="192">$L$2*AY18*AH18</f>
+        <v>0</v>
+      </c>
+      <c r="BU18" s="5">
+        <f t="shared" ref="BU18:BU21" si="193">$L$2*AZ18*AI18</f>
+        <v>0</v>
+      </c>
+      <c r="BV18" s="8">
+        <f t="shared" ref="BV18:BV21" si="194">$L$2*AN18*$L$4+BV17*$L$3</f>
+        <v>-1.693334720282356E-12</v>
+      </c>
+      <c r="BW18" s="8">
+        <f t="shared" ref="BW18:BW21" si="195">$L$2*AO18*$L$4+BW17*$L$3</f>
+        <v>-1.693334720282356E-12</v>
+      </c>
+      <c r="BX18" s="8">
+        <f t="shared" ref="BX18:BX21" si="196">$L$2*AP18*$L$4+BX17*$L$3</f>
+        <v>-1.4967875731521302E-2</v>
+      </c>
+      <c r="BY18" s="8">
+        <f t="shared" ref="BY18:BY21" si="197">$L$2*AQ18*$L$4+BY17*$L$3</f>
+        <v>1.1457372924620863E-2</v>
+      </c>
+      <c r="BZ18" s="8">
+        <f t="shared" ref="BZ18:BZ20" si="198">AR18+BI18</f>
+        <v>9.9999985284797907E-2</v>
+      </c>
+      <c r="CA18" s="8">
+        <f t="shared" si="146"/>
+        <v>9.9999985284797907E-2</v>
+      </c>
+      <c r="CB18" s="8">
+        <f t="shared" si="147"/>
+        <v>9.9999983167661108E-2</v>
+      </c>
+      <c r="CC18" s="8">
+        <f t="shared" si="148"/>
+        <v>9.9999983167661108E-2</v>
+      </c>
+      <c r="CD18" s="8">
+        <f t="shared" si="149"/>
+        <v>9.999999981710897E-2</v>
+      </c>
+      <c r="CE18" s="8">
+        <f t="shared" si="150"/>
+        <v>9.999999981710897E-2</v>
+      </c>
+      <c r="CF18" s="8">
+        <f t="shared" si="151"/>
+        <v>5.8183430687854504E-2</v>
+      </c>
+      <c r="CG18" s="8">
+        <f t="shared" si="152"/>
+        <v>0.10552578456204162</v>
+      </c>
+      <c r="CH18" s="8">
+        <f t="shared" si="153"/>
+        <v>5.8183430687854504E-2</v>
+      </c>
+      <c r="CI18" s="8">
+        <f t="shared" si="154"/>
+        <v>0.10552578456204162</v>
+      </c>
+      <c r="CJ18" s="5">
+        <f t="shared" si="155"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK18" s="5">
+        <f t="shared" si="156"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL18" s="5">
+        <f t="shared" si="157"/>
+        <v>0.12889432553332944</v>
+      </c>
+      <c r="CM18" s="8">
+        <f t="shared" si="158"/>
+        <v>9.9999999812310669E-2</v>
+      </c>
+      <c r="CN18" s="8">
+        <f t="shared" si="159"/>
+        <v>9.9999999812310669E-2</v>
+      </c>
+      <c r="CO18" s="8">
+        <f t="shared" si="160"/>
+        <v>5.8183429604397159E-2</v>
+      </c>
+      <c r="CP18" s="8">
+        <f t="shared" si="161"/>
+        <v>0.10552578423368099</v>
+      </c>
+    </row>
+    <row r="19" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="20"/>
+      <c r="L19" s="11">
+        <v>83</v>
+      </c>
+      <c r="M19" s="11">
+        <v>86</v>
+      </c>
+      <c r="N19" s="11">
+        <v>1</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="8">
+        <f t="shared" si="162"/>
+        <v>17.099997330686499</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="163"/>
+        <v>17.099997330686499</v>
+      </c>
+      <c r="U19" s="8">
+        <f t="shared" si="164"/>
+        <v>0.17455028662102634</v>
+      </c>
+      <c r="V19" s="8">
+        <f t="shared" si="165"/>
+        <v>0.31657734545181382</v>
+      </c>
+      <c r="W19" s="11">
+        <f t="shared" si="166"/>
+        <v>83</v>
+      </c>
+      <c r="X19" s="11">
+        <f t="shared" si="167"/>
+        <v>86</v>
+      </c>
+      <c r="Y19" s="11">
+        <f t="shared" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="8">
+        <f t="shared" si="169"/>
+        <v>0.99999996254019596</v>
+      </c>
+      <c r="AA19" s="8">
+        <f t="shared" si="170"/>
+        <v>0.99999996254019596</v>
+      </c>
+      <c r="AB19" s="8">
+        <f t="shared" si="171"/>
+        <v>0.54352711310952284</v>
+      </c>
+      <c r="AC19" s="8">
+        <f t="shared" si="172"/>
+        <v>0.57848989929559647</v>
+      </c>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="8">
+        <f t="shared" si="173"/>
+        <v>4.2300759123414756E-7</v>
+      </c>
+      <c r="AL19" s="8">
+        <f t="shared" si="174"/>
+        <v>4.5433226953508849E-7</v>
+      </c>
+      <c r="AM19" s="8">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="8">
+        <f t="shared" si="176"/>
+        <v>-3.1076083858402782E-10</v>
+      </c>
+      <c r="AO19" s="8">
+        <f t="shared" si="177"/>
+        <v>-3.1076083858402782E-10</v>
+      </c>
+      <c r="AP19" s="8">
+        <f t="shared" si="178"/>
+        <v>0.11325338382009237</v>
+      </c>
+      <c r="AQ19" s="8">
+        <f t="shared" si="179"/>
+        <v>-0.14105859275835414</v>
+      </c>
+      <c r="AR19" s="8">
+        <f t="shared" si="180"/>
+        <v>9.9999985284797907E-2</v>
+      </c>
+      <c r="AS19" s="8">
+        <f t="shared" si="130"/>
+        <v>9.9999985284797907E-2</v>
+      </c>
+      <c r="AT19" s="8">
+        <f t="shared" si="131"/>
+        <v>9.9999983167661108E-2</v>
+      </c>
+      <c r="AU19" s="8">
+        <f t="shared" si="132"/>
+        <v>9.9999983167661108E-2</v>
+      </c>
+      <c r="AV19" s="8">
+        <f t="shared" si="133"/>
+        <v>9.999999981710897E-2</v>
+      </c>
+      <c r="AW19" s="8">
+        <f t="shared" si="134"/>
+        <v>9.999999981710897E-2</v>
+      </c>
+      <c r="AX19" s="8">
+        <f t="shared" si="135"/>
+        <v>5.8183430687854504E-2</v>
+      </c>
+      <c r="AY19" s="8">
+        <f t="shared" si="136"/>
+        <v>0.10552578456204162</v>
+      </c>
+      <c r="AZ19" s="8">
+        <f t="shared" si="137"/>
+        <v>5.8183430687854504E-2</v>
+      </c>
+      <c r="BA19" s="8">
+        <f t="shared" si="138"/>
+        <v>0.10552578456204162</v>
+      </c>
+      <c r="BB19" s="5">
+        <f t="shared" si="139"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC19" s="5">
+        <f t="shared" si="140"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD19" s="5">
+        <f t="shared" si="141"/>
+        <v>0.12889432553332944</v>
+      </c>
+      <c r="BE19" s="8">
+        <f t="shared" si="142"/>
+        <v>9.9999999812310669E-2</v>
+      </c>
+      <c r="BF19" s="8">
+        <f t="shared" si="143"/>
+        <v>9.9999999812310669E-2</v>
+      </c>
+      <c r="BG19" s="8">
+        <f t="shared" ref="BG19:BG21" si="199">CO18</f>
+        <v>5.8183429604397159E-2</v>
+      </c>
+      <c r="BH19" s="8">
+        <f t="shared" si="145"/>
+        <v>0.10552578423368099</v>
+      </c>
+      <c r="BI19" s="8">
+        <f t="shared" si="181"/>
+        <v>-2.5930426214537307E-9</v>
+      </c>
+      <c r="BJ19" s="8">
+        <f t="shared" si="182"/>
+        <v>-2.5930426214537307E-9</v>
+      </c>
+      <c r="BK19" s="8">
+        <f t="shared" si="183"/>
+        <v>-2.6874783442100887E-9</v>
+      </c>
+      <c r="BL19" s="8">
+        <f t="shared" si="184"/>
+        <v>-2.6874783442100887E-9</v>
+      </c>
+      <c r="BM19" s="8">
+        <f t="shared" si="185"/>
+        <v>-3.1204037574299231E-11</v>
+      </c>
+      <c r="BN19" s="8">
+        <f t="shared" si="186"/>
+        <v>-3.1204037574299231E-11</v>
+      </c>
+      <c r="BO19" s="8">
+        <f t="shared" si="187"/>
+        <v>9.8285504400430802E-3</v>
+      </c>
+      <c r="BP19" s="8">
+        <f t="shared" si="188"/>
+        <v>-1.2960121497322631E-2</v>
+      </c>
+      <c r="BQ19" s="8">
+        <f t="shared" si="189"/>
+        <v>9.8285504400430802E-3</v>
+      </c>
+      <c r="BR19" s="8">
+        <f t="shared" si="190"/>
+        <v>-1.2960121497322631E-2</v>
+      </c>
+      <c r="BS19" s="5">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="BT19" s="5">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="BU19" s="5">
+        <f t="shared" si="193"/>
+        <v>5.8183430687854506E-3</v>
+      </c>
+      <c r="BV19" s="8">
+        <f t="shared" si="194"/>
+        <v>-3.1245417330431015E-11</v>
+      </c>
+      <c r="BW19" s="8">
+        <f t="shared" si="195"/>
+        <v>-3.1245417330431015E-11</v>
+      </c>
+      <c r="BX19" s="8">
+        <f t="shared" si="196"/>
+        <v>9.8285508088571082E-3</v>
+      </c>
+      <c r="BY19" s="8">
+        <f t="shared" si="197"/>
+        <v>-1.2960121983373329E-2</v>
+      </c>
+      <c r="BZ19" s="8">
+        <f t="shared" si="198"/>
+        <v>9.9999982691755279E-2</v>
+      </c>
+      <c r="CA19" s="8">
+        <f t="shared" si="146"/>
+        <v>9.9999982691755279E-2</v>
+      </c>
+      <c r="CB19" s="8">
+        <f t="shared" si="147"/>
+        <v>9.9999980480182757E-2</v>
+      </c>
+      <c r="CC19" s="8">
+        <f t="shared" si="148"/>
+        <v>9.9999980480182757E-2</v>
+      </c>
+      <c r="CD19" s="8">
+        <f t="shared" si="149"/>
+        <v>9.9999999785904931E-2</v>
+      </c>
+      <c r="CE19" s="8">
+        <f t="shared" si="150"/>
+        <v>9.9999999785904931E-2</v>
+      </c>
+      <c r="CF19" s="8">
+        <f t="shared" si="151"/>
+        <v>6.8011981127897581E-2</v>
+      </c>
+      <c r="CG19" s="8">
+        <f t="shared" si="152"/>
+        <v>9.2565663064718987E-2</v>
+      </c>
+      <c r="CH19" s="8">
+        <f t="shared" si="153"/>
+        <v>6.8011981127897581E-2</v>
+      </c>
+      <c r="CI19" s="8">
+        <f t="shared" si="154"/>
+        <v>9.2565663064718987E-2</v>
+      </c>
+      <c r="CJ19" s="5">
+        <f t="shared" si="155"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK19" s="5">
+        <f t="shared" si="156"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL19" s="5">
+        <f t="shared" si="157"/>
+        <v>0.13471266860211489</v>
+      </c>
+      <c r="CM19" s="8">
+        <f t="shared" si="158"/>
+        <v>9.9999999781065246E-2</v>
+      </c>
+      <c r="CN19" s="8">
+        <f t="shared" si="159"/>
+        <v>9.9999999781065246E-2</v>
+      </c>
+      <c r="CO19" s="8">
+        <f t="shared" si="160"/>
+        <v>6.8011980413254264E-2</v>
+      </c>
+      <c r="CP19" s="8">
+        <f t="shared" si="161"/>
+        <v>9.2565662250307656E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="20"/>
+      <c r="L20" s="6">
+        <v>70</v>
+      </c>
+      <c r="M20" s="6">
+        <v>96</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="9">
+        <f t="shared" si="162"/>
+        <v>16.799996914087384</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="163"/>
+        <v>16.799996914087384</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="164"/>
+        <v>0.20403593579093424</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="165"/>
+        <v>0.27769697901849366</v>
+      </c>
+      <c r="W20" s="12">
+        <f t="shared" si="166"/>
+        <v>70</v>
+      </c>
+      <c r="X20" s="12">
+        <f t="shared" si="167"/>
+        <v>96</v>
+      </c>
+      <c r="Y20" s="12">
+        <f t="shared" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="9">
+        <f t="shared" si="169"/>
+        <v>0.99999994943453296</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" si="170"/>
+        <v>0.99999994943453296</v>
+      </c>
+      <c r="AB20" s="9">
+        <f t="shared" si="171"/>
+        <v>0.55083275607425508</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" si="172"/>
+        <v>0.56898151746565828</v>
+      </c>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="9">
+        <f t="shared" si="173"/>
+        <v>2.6172628889145991E-7</v>
+      </c>
+      <c r="AL20" s="9">
+        <f t="shared" si="174"/>
+        <v>4.9419124262963004E-7</v>
+      </c>
+      <c r="AM20" s="9">
+        <f t="shared" si="175"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="9">
+        <f t="shared" si="176"/>
+        <v>-2.709382341528927E-10</v>
+      </c>
+      <c r="AO20" s="9">
+        <f t="shared" si="177"/>
+        <v>-2.709382341528927E-10</v>
+      </c>
+      <c r="AP20" s="9">
+        <f t="shared" si="178"/>
+        <v>0.11113117670684458</v>
+      </c>
+      <c r="AQ20" s="9">
+        <f t="shared" si="179"/>
+        <v>-0.13953790940581437</v>
+      </c>
+      <c r="AR20" s="9">
+        <f t="shared" si="180"/>
+        <v>9.9999982691755279E-2</v>
+      </c>
+      <c r="AS20" s="9">
+        <f t="shared" si="130"/>
+        <v>9.9999982691755279E-2</v>
+      </c>
+      <c r="AT20" s="9">
+        <f t="shared" si="131"/>
+        <v>9.9999980480182757E-2</v>
+      </c>
+      <c r="AU20" s="9">
+        <f t="shared" si="132"/>
+        <v>9.9999980480182757E-2</v>
+      </c>
+      <c r="AV20" s="9">
+        <f t="shared" si="133"/>
+        <v>9.9999999785904931E-2</v>
+      </c>
+      <c r="AW20" s="9">
+        <f t="shared" si="134"/>
+        <v>9.9999999785904931E-2</v>
+      </c>
+      <c r="AX20" s="9">
+        <f t="shared" si="135"/>
+        <v>6.8011981127897581E-2</v>
+      </c>
+      <c r="AY20" s="9">
+        <f t="shared" si="136"/>
+        <v>9.2565663064718987E-2</v>
+      </c>
+      <c r="AZ20" s="9">
+        <f t="shared" si="137"/>
+        <v>6.8011981127897581E-2</v>
+      </c>
+      <c r="BA20" s="9">
+        <f t="shared" si="138"/>
+        <v>9.2565663064718987E-2</v>
+      </c>
+      <c r="BB20" s="7">
+        <f t="shared" si="139"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC20" s="7">
+        <f t="shared" si="140"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD20" s="7">
+        <f t="shared" si="141"/>
+        <v>0.13471266860211489</v>
+      </c>
+      <c r="BE20" s="9">
+        <f t="shared" si="142"/>
+        <v>9.9999999781065246E-2</v>
+      </c>
+      <c r="BF20" s="9">
+        <f t="shared" si="143"/>
+        <v>9.9999999781065246E-2</v>
+      </c>
+      <c r="BG20" s="9">
+        <f t="shared" si="199"/>
+        <v>6.8011980413254264E-2</v>
+      </c>
+      <c r="BH20" s="9">
+        <f t="shared" si="145"/>
+        <v>9.2565662250307656E-2</v>
+      </c>
+      <c r="BI20" s="9">
+        <f t="shared" si="181"/>
+        <v>-2.1558719012156223E-9</v>
+      </c>
+      <c r="BJ20" s="9">
+        <f t="shared" si="182"/>
+        <v>-2.1558719012156223E-9</v>
+      </c>
+      <c r="BK20" s="9">
+        <f t="shared" si="183"/>
+        <v>-2.8697548822887791E-9</v>
+      </c>
+      <c r="BL20" s="9">
+        <f t="shared" si="184"/>
+        <v>-2.8697548822887791E-9</v>
+      </c>
+      <c r="BM20" s="9">
+        <f t="shared" si="185"/>
+        <v>-3.0214227172719191E-11</v>
+      </c>
+      <c r="BN20" s="9">
+        <f t="shared" si="186"/>
+        <v>-3.0214227172719191E-11</v>
+      </c>
+      <c r="BO20" s="9">
+        <f t="shared" si="187"/>
+        <v>1.2095972152748781E-2</v>
+      </c>
+      <c r="BP20" s="9">
+        <f t="shared" si="188"/>
+        <v>-1.5249802384733745E-2</v>
+      </c>
+      <c r="BQ20" s="9">
+        <f t="shared" si="189"/>
+        <v>1.2095972152748781E-2</v>
+      </c>
+      <c r="BR20" s="9">
+        <f t="shared" si="190"/>
+        <v>-1.5249802384733745E-2</v>
+      </c>
+      <c r="BS20" s="7">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="BT20" s="7">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="BU20" s="7">
+        <f t="shared" si="193"/>
+        <v>6.8011981127897581E-3</v>
+      </c>
+      <c r="BV20" s="9">
+        <f t="shared" si="194"/>
+        <v>-3.0218365148332373E-11</v>
+      </c>
+      <c r="BW20" s="9">
+        <f t="shared" si="195"/>
+        <v>-3.0218365148332373E-11</v>
+      </c>
+      <c r="BX20" s="9">
+        <f t="shared" si="196"/>
+        <v>1.2095972751570169E-2</v>
+      </c>
+      <c r="BY20" s="9">
+        <f t="shared" si="197"/>
+        <v>-1.5249803138918772E-2</v>
+      </c>
+      <c r="BZ20" s="9">
+        <f t="shared" si="198"/>
+        <v>9.9999980535883382E-2</v>
+      </c>
+      <c r="CA20" s="9">
+        <f t="shared" si="146"/>
+        <v>9.9999980535883382E-2</v>
+      </c>
+      <c r="CB20" s="9">
+        <f t="shared" si="147"/>
+        <v>9.9999977610427879E-2</v>
+      </c>
+      <c r="CC20" s="9">
+        <f t="shared" si="148"/>
+        <v>9.9999977610427879E-2</v>
+      </c>
+      <c r="CD20" s="9">
+        <f t="shared" si="149"/>
+        <v>9.9999999755690697E-2</v>
+      </c>
+      <c r="CE20" s="9">
+        <f t="shared" si="150"/>
+        <v>9.9999999755690697E-2</v>
+      </c>
+      <c r="CF20" s="9">
+        <f t="shared" si="151"/>
+        <v>8.0107953280646363E-2</v>
+      </c>
+      <c r="CG20" s="9">
+        <f t="shared" si="152"/>
+        <v>7.7315860679985249E-2</v>
+      </c>
+      <c r="CH20" s="9">
+        <f t="shared" si="153"/>
+        <v>8.0107953280646363E-2</v>
+      </c>
+      <c r="CI20" s="9">
+        <f t="shared" si="154"/>
+        <v>7.7315860679985249E-2</v>
+      </c>
+      <c r="CJ20" s="7">
+        <f t="shared" si="155"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK20" s="7">
+        <f t="shared" si="156"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL20" s="7">
+        <f t="shared" si="157"/>
+        <v>0.14151386671490465</v>
+      </c>
+      <c r="CM20" s="9">
+        <f t="shared" si="158"/>
+        <v>9.9999999750846877E-2</v>
+      </c>
+      <c r="CN20" s="9">
+        <f t="shared" si="159"/>
+        <v>9.9999999750846877E-2</v>
+      </c>
+      <c r="CO20" s="9">
+        <f t="shared" si="160"/>
+        <v>8.0107953164824428E-2</v>
+      </c>
+      <c r="CP20" s="9">
+        <f t="shared" si="161"/>
+        <v>7.7315859111388885E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="20">
+        <v>4</v>
+      </c>
+      <c r="L21" s="10">
+        <v>85</v>
+      </c>
+      <c r="M21" s="10">
+        <v>85</v>
+      </c>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
+        <v>1</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="4">
+        <f>AR21*W21+AT21*X21+AV21*Y21+$L$4*BE21</f>
+        <v>17.199996441942993</v>
+      </c>
+      <c r="T21" s="4">
+        <f>AS21*W21+AU21*X21+AW21*Y21+$L$4*BF21</f>
+        <v>17.199996441942993</v>
+      </c>
+      <c r="U21" s="4">
+        <f>AX21*Z21+AZ21*AA21+BG21*$L$4</f>
+        <v>0.24032385429558895</v>
+      </c>
+      <c r="V21" s="4">
+        <f>AY21*Z21+BA21*AA21+BH21*$L$4</f>
+        <v>0.23194757523010748</v>
+      </c>
+      <c r="W21" s="10">
+        <f>L21</f>
+        <v>85</v>
+      </c>
+      <c r="X21" s="10">
+        <f t="shared" si="167"/>
+        <v>85</v>
+      </c>
+      <c r="Y21" s="10">
+        <f t="shared" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>1/(1+EXP(-S21))</f>
+        <v>0.99999996610493724</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="170"/>
+        <v>0.99999996610493724</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" si="171"/>
+        <v>0.5597934565233289</v>
+      </c>
+      <c r="AC21" s="4">
+        <f t="shared" si="172"/>
+        <v>0.55772831186474137</v>
+      </c>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="4">
+        <f>W21*(1-W21)*(AR21*AN21+AS21*AO21)</f>
+        <v>1.2661757364131524E-7</v>
+      </c>
+      <c r="AL21" s="4">
+        <f>X21*(1-X21)*(AT21*AN21+AU21*AO21)</f>
+        <v>1.2661756993717374E-7</v>
+      </c>
+      <c r="AM21" s="4">
+        <f>Y21*(1-Y21)*(AV21*AN21+AW21*AO21)</f>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="4">
+        <f>Z21*(1-Z21)*(AX21*AP21+AY21*AQ21)</f>
+        <v>-8.8667785914784478E-11</v>
+      </c>
+      <c r="AO21" s="4">
+        <f>AA21*(1-AA21)*(AZ21*AP21+BA21*AQ21)</f>
+        <v>-8.8667785914784478E-11</v>
+      </c>
+      <c r="AP21" s="4">
+        <f>AB21*(1-AB21)*(AI21-AB21)</f>
+        <v>-0.13794695840885046</v>
+      </c>
+      <c r="AQ21" s="4">
+        <f>AC21*(1-AC21)*(AJ21-AC21)</f>
+        <v>0.10909402598543576</v>
+      </c>
+      <c r="AR21" s="4">
+        <f>BZ20</f>
+        <v>9.9999980535883382E-2</v>
+      </c>
+      <c r="AS21" s="4">
+        <f t="shared" ref="AS21:AS24" si="200">CA20</f>
+        <v>9.9999980535883382E-2</v>
+      </c>
+      <c r="AT21" s="4">
+        <f t="shared" ref="AT21:AT24" si="201">CB20</f>
+        <v>9.9999977610427879E-2</v>
+      </c>
+      <c r="AU21" s="4">
+        <f t="shared" ref="AU21:AU24" si="202">CC20</f>
+        <v>9.9999977610427879E-2</v>
+      </c>
+      <c r="AV21" s="4">
+        <f t="shared" ref="AV21:AV24" si="203">CD20</f>
+        <v>9.9999999755690697E-2</v>
+      </c>
+      <c r="AW21" s="4">
+        <f t="shared" ref="AW21:AW24" si="204">CE20</f>
+        <v>9.9999999755690697E-2</v>
+      </c>
+      <c r="AX21" s="4">
+        <f t="shared" ref="AX21:AX24" si="205">CF20</f>
+        <v>8.0107953280646363E-2</v>
+      </c>
+      <c r="AY21" s="4">
+        <f t="shared" ref="AY21:AY24" si="206">CG20</f>
+        <v>7.7315860679985249E-2</v>
+      </c>
+      <c r="AZ21" s="4">
+        <f t="shared" ref="AZ21:AZ24" si="207">CH20</f>
+        <v>8.0107953280646363E-2</v>
+      </c>
+      <c r="BA21" s="4">
+        <f t="shared" ref="BA21:BA24" si="208">CI20</f>
+        <v>7.7315860679985249E-2</v>
+      </c>
+      <c r="BB21" s="3">
+        <f t="shared" ref="BB21:BB24" si="209">CJ20</f>
+        <v>0.1</v>
+      </c>
+      <c r="BC21" s="3">
+        <f t="shared" ref="BC21:BC24" si="210">CK20</f>
+        <v>0.1</v>
+      </c>
+      <c r="BD21" s="3">
+        <f t="shared" ref="BD21:BD24" si="211">CL20</f>
+        <v>0.14151386671490465</v>
+      </c>
+      <c r="BE21" s="4">
+        <f t="shared" ref="BE21:BE24" si="212">CM20</f>
+        <v>9.9999999750846877E-2</v>
+      </c>
+      <c r="BF21" s="4">
+        <f t="shared" ref="BF21:BF24" si="213">CN20</f>
+        <v>9.9999999750846877E-2</v>
+      </c>
+      <c r="BG21" s="4">
+        <f t="shared" si="199"/>
+        <v>8.0107953164824428E-2</v>
+      </c>
+      <c r="BH21" s="4">
+        <f t="shared" ref="BH21:BH24" si="214">CP20</f>
+        <v>7.7315859111388885E-2</v>
+      </c>
+      <c r="BI21" s="4">
+        <f t="shared" si="181"/>
+        <v>-9.6926337039723027E-10</v>
+      </c>
+      <c r="BJ21" s="4">
+        <f t="shared" si="182"/>
+        <v>-9.6926337039723027E-10</v>
+      </c>
+      <c r="BK21" s="4">
+        <f t="shared" si="183"/>
+        <v>-1.0406516685045461E-9</v>
+      </c>
+      <c r="BL21" s="4">
+        <f t="shared" si="184"/>
+        <v>-1.0406516685045461E-9</v>
+      </c>
+      <c r="BM21" s="4">
+        <f t="shared" si="185"/>
+        <v>-1.1888201308750368E-11</v>
+      </c>
+      <c r="BN21" s="4">
+        <f t="shared" si="186"/>
+        <v>-1.1888201308750368E-11</v>
+      </c>
+      <c r="BO21" s="4">
+        <f t="shared" si="187"/>
+        <v>-1.2585098158038087E-2</v>
+      </c>
+      <c r="BP21" s="4">
+        <f t="shared" si="188"/>
+        <v>9.3844219902953149E-3</v>
+      </c>
+      <c r="BQ21" s="4">
+        <f t="shared" si="189"/>
+        <v>-1.2585098158038087E-2</v>
+      </c>
+      <c r="BR21" s="4">
+        <f t="shared" si="190"/>
+        <v>9.3844219902953149E-3</v>
+      </c>
+      <c r="BS21" s="3">
+        <f t="shared" si="191"/>
+        <v>0</v>
+      </c>
+      <c r="BT21" s="3">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="3">
+        <f t="shared" si="193"/>
+        <v>0</v>
+      </c>
+      <c r="BV21" s="4">
+        <f t="shared" si="194"/>
+        <v>-1.1888615106311686E-11</v>
+      </c>
+      <c r="BW21" s="4">
+        <f t="shared" si="195"/>
+        <v>-1.1888615106311686E-11</v>
+      </c>
+      <c r="BX21" s="4">
+        <f t="shared" si="196"/>
+        <v>-1.258509856572803E-2</v>
+      </c>
+      <c r="BY21" s="4">
+        <f t="shared" si="197"/>
+        <v>9.3844222846516979E-3</v>
+      </c>
+      <c r="BZ21" s="4">
+        <f>AR21+BI21</f>
+        <v>9.9999979566620018E-2</v>
+      </c>
+      <c r="CA21" s="4">
+        <f t="shared" ref="CA21:CA24" si="215">AS21+BJ21</f>
+        <v>9.9999979566620018E-2</v>
+      </c>
+      <c r="CB21" s="4">
+        <f t="shared" ref="CB21:CB24" si="216">AT21+BK21</f>
+        <v>9.9999976569776217E-2</v>
+      </c>
+      <c r="CC21" s="4">
+        <f t="shared" ref="CC21:CC24" si="217">AU21+BL21</f>
+        <v>9.9999976569776217E-2</v>
+      </c>
+      <c r="CD21" s="4">
+        <f t="shared" ref="CD21:CD24" si="218">AV21+BM21</f>
+        <v>9.9999999743802498E-2</v>
+      </c>
+      <c r="CE21" s="4">
+        <f t="shared" ref="CE21:CE24" si="219">AW21+BN21</f>
+        <v>9.9999999743802498E-2</v>
+      </c>
+      <c r="CF21" s="4">
+        <f t="shared" ref="CF21:CF24" si="220">AX21+BO21</f>
+        <v>6.7522855122608277E-2</v>
+      </c>
+      <c r="CG21" s="4">
+        <f t="shared" ref="CG21:CG24" si="221">AY21+BP21</f>
+        <v>8.6700282670280571E-2</v>
+      </c>
+      <c r="CH21" s="4">
+        <f t="shared" ref="CH21:CH24" si="222">AZ21+BQ21</f>
+        <v>6.7522855122608277E-2</v>
+      </c>
+      <c r="CI21" s="4">
+        <f t="shared" ref="CI21:CI24" si="223">BA21+BR21</f>
+        <v>8.6700282670280571E-2</v>
+      </c>
+      <c r="CJ21" s="3">
+        <f t="shared" ref="CJ21:CJ24" si="224">BB21+BS21</f>
+        <v>0.1</v>
+      </c>
+      <c r="CK21" s="3">
+        <f t="shared" ref="CK21:CK24" si="225">BC21+BT21</f>
+        <v>0.1</v>
+      </c>
+      <c r="CL21" s="3">
+        <f t="shared" ref="CL21:CL24" si="226">BD21+BU21</f>
+        <v>0.14151386671490465</v>
+      </c>
+      <c r="CM21" s="4">
+        <f t="shared" ref="CM21:CM24" si="227">BE21+BV21</f>
+        <v>9.9999999738958262E-2</v>
+      </c>
+      <c r="CN21" s="4">
+        <f t="shared" ref="CN21:CN24" si="228">BF21+BW21</f>
+        <v>9.9999999738958262E-2</v>
+      </c>
+      <c r="CO21" s="4">
+        <f t="shared" ref="CO21:CO24" si="229">BG21+BX21</f>
+        <v>6.7522854599096405E-2</v>
+      </c>
+      <c r="CP21" s="4">
+        <f t="shared" ref="CP21:CP24" si="230">BH21+BY21</f>
+        <v>8.6700281396040579E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="20"/>
+      <c r="L22" s="11">
+        <v>80</v>
+      </c>
+      <c r="M22" s="11">
+        <v>90</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+      <c r="O22" s="11">
+        <v>1</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="8">
+        <f t="shared" ref="S22:S24" si="231">AR22*W22+AT22*X22+AV22*Y22+$L$4*BE22</f>
+        <v>17.099996256348419</v>
+      </c>
+      <c r="T22" s="8">
+        <f t="shared" ref="T22:T24" si="232">AS22*W22+AU22*X22+AW22*Y22+$L$4*BF22</f>
+        <v>17.099996256348419</v>
+      </c>
+      <c r="U22" s="8">
+        <f t="shared" ref="U22:U24" si="233">AX22*Z22+AZ22*AA22+BG22*$L$4</f>
+        <v>0.20256855978552166</v>
+      </c>
+      <c r="V22" s="8">
+        <f t="shared" ref="V22:V24" si="234">AY22*Z22+BA22*AA22+BH22*$L$4</f>
+        <v>0.26010084024104352</v>
+      </c>
+      <c r="W22" s="11">
+        <f t="shared" ref="W22:W24" si="235">L22</f>
+        <v>80</v>
+      </c>
+      <c r="X22" s="11">
+        <f t="shared" ref="X22:X24" si="236">M22</f>
+        <v>90</v>
+      </c>
+      <c r="Y22" s="11">
+        <f t="shared" ref="Y22:Y24" si="237">N22</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="8">
+        <f t="shared" ref="Z22:Z24" si="238">1/(1+EXP(-S22))</f>
+        <v>0.99999996254015555</v>
+      </c>
+      <c r="AA22" s="8">
+        <f t="shared" ref="AA22:AA24" si="239">1/(1+EXP(-T22))</f>
+        <v>0.99999996254015555</v>
+      </c>
+      <c r="AB22" s="8">
+        <f t="shared" ref="AB22:AB24" si="240">1/(1+EXP(-U22))</f>
+        <v>0.55046967670992375</v>
+      </c>
+      <c r="AC22" s="8">
+        <f t="shared" ref="AC22:AC24" si="241">1/(1+EXP(-V22))</f>
+        <v>0.5646610804062755</v>
+      </c>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="8">
+        <f t="shared" ref="AK22:AK24" si="242">W22*(1-W22)*(AR22*AN22+AS22*AO22)</f>
+        <v>-3.8138940261187063E-9</v>
+      </c>
+      <c r="AL22" s="8">
+        <f t="shared" ref="AL22:AL24" si="243">X22*(1-X22)*(AT22*AN22+AU22*AO22)</f>
+        <v>-4.833748454698752E-9</v>
+      </c>
+      <c r="AM22" s="8">
+        <f t="shared" ref="AM22:AM24" si="244">Y22*(1-Y22)*(AV22*AN22+AW22*AO22)</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="8">
+        <f t="shared" ref="AN22:AN24" si="245">Z22*(1-Z22)*(AX22*AP22+AY22*AQ22)</f>
+        <v>3.017321839736016E-12</v>
+      </c>
+      <c r="AO22" s="8">
+        <f t="shared" ref="AO22:AO24" si="246">AA22*(1-AA22)*(AZ22*AP22+BA22*AQ22)</f>
+        <v>3.017321839736016E-12</v>
+      </c>
+      <c r="AP22" s="8">
+        <f t="shared" ref="AP22:AP24" si="247">AB22*(1-AB22)*(AI22-AB22)</f>
+        <v>-0.13621526927551372</v>
+      </c>
+      <c r="AQ22" s="8">
+        <f t="shared" ref="AQ22:AQ24" si="248">AC22*(1-AC22)*(AJ22-AC22)</f>
+        <v>0.1070145537929625</v>
+      </c>
+      <c r="AR22" s="8">
+        <f t="shared" ref="AR22:AR24" si="249">BZ21</f>
+        <v>9.9999979566620018E-2</v>
+      </c>
+      <c r="AS22" s="8">
+        <f t="shared" si="200"/>
+        <v>9.9999979566620018E-2</v>
+      </c>
+      <c r="AT22" s="8">
+        <f t="shared" si="201"/>
+        <v>9.9999976569776217E-2</v>
+      </c>
+      <c r="AU22" s="8">
+        <f t="shared" si="202"/>
+        <v>9.9999976569776217E-2</v>
+      </c>
+      <c r="AV22" s="8">
+        <f t="shared" si="203"/>
+        <v>9.9999999743802498E-2</v>
+      </c>
+      <c r="AW22" s="8">
+        <f t="shared" si="204"/>
+        <v>9.9999999743802498E-2</v>
+      </c>
+      <c r="AX22" s="8">
+        <f t="shared" si="205"/>
+        <v>6.7522855122608277E-2</v>
+      </c>
+      <c r="AY22" s="8">
+        <f t="shared" si="206"/>
+        <v>8.6700282670280571E-2</v>
+      </c>
+      <c r="AZ22" s="8">
+        <f t="shared" si="207"/>
+        <v>6.7522855122608277E-2</v>
+      </c>
+      <c r="BA22" s="8">
+        <f t="shared" si="208"/>
+        <v>8.6700282670280571E-2</v>
+      </c>
+      <c r="BB22" s="5">
+        <f t="shared" si="209"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC22" s="5">
+        <f t="shared" si="210"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD22" s="5">
+        <f t="shared" si="211"/>
+        <v>0.14151386671490465</v>
+      </c>
+      <c r="BE22" s="8">
+        <f t="shared" si="212"/>
+        <v>9.9999999738958262E-2</v>
+      </c>
+      <c r="BF22" s="8">
+        <f t="shared" si="213"/>
+        <v>9.9999999738958262E-2</v>
+      </c>
+      <c r="BG22" s="8">
+        <f>CO21</f>
+        <v>6.7522854599096405E-2</v>
+      </c>
+      <c r="BH22" s="8">
+        <f t="shared" si="214"/>
+        <v>8.6700281396040579E-2</v>
+      </c>
+      <c r="BI22" s="8">
+        <f t="shared" ref="BI22:BI24" si="250">$L$2*AN22*W22+$L$3*BI21</f>
+        <v>-7.2787762321834898E-11</v>
+      </c>
+      <c r="BJ22" s="8">
+        <f t="shared" ref="BJ22:BJ24" si="251">$L$2*AO22*W22+$L$3*BJ21</f>
+        <v>-7.2787762321834898E-11</v>
+      </c>
+      <c r="BK22" s="8">
+        <f t="shared" ref="BK22:BK24" si="252">$L$2*AN22*X22+BK21*$L$3</f>
+        <v>-7.6909270292830468E-11</v>
+      </c>
+      <c r="BL22" s="8">
+        <f t="shared" ref="BL22:BL24" si="253">$L$2*AO22*X22+BL21*$L$3</f>
+        <v>-7.6909270292830468E-11</v>
+      </c>
+      <c r="BM22" s="8">
+        <f t="shared" ref="BM22:BM24" si="254">$L$2*AN22*Y22+BM21*$L$3</f>
+        <v>-1.1888201308750368E-12</v>
+      </c>
+      <c r="BN22" s="8">
+        <f t="shared" ref="BN22:BN24" si="255">$L$2*AO22*Y22+BN21*$L$3</f>
+        <v>-1.1888201308750368E-12</v>
+      </c>
+      <c r="BO22" s="8">
+        <f t="shared" ref="BO22:BO24" si="256">$L$2*AP22*Z22+BO21*$L$3</f>
+        <v>-1.48800362330949E-2</v>
+      </c>
+      <c r="BP22" s="8">
+        <f t="shared" ref="BP22:BP24" si="257">$L$2*AQ22*Z22+BP21*$L$3</f>
+        <v>1.1639897177450929E-2</v>
+      </c>
+      <c r="BQ22" s="8">
+        <f t="shared" ref="BQ22:BQ24" si="258">$L$2*AP22*AA22+BQ21*$L$3</f>
+        <v>-1.48800362330949E-2</v>
+      </c>
+      <c r="BR22" s="8">
+        <f t="shared" ref="BR22:BR24" si="259">$L$2*AQ22*AA22+BR21*$L$3</f>
+        <v>1.1639897177450929E-2</v>
+      </c>
+      <c r="BS22" s="5">
+        <f t="shared" ref="BS22:BS24" si="260">$L$2*AX22*AG22</f>
+        <v>0</v>
+      </c>
+      <c r="BT22" s="5">
+        <f t="shared" ref="BT22:BT24" si="261">$L$2*AY22*AH22</f>
+        <v>0</v>
+      </c>
+      <c r="BU22" s="5">
+        <f t="shared" ref="BU22:BU24" si="262">$L$2*AZ22*AI22</f>
+        <v>0</v>
+      </c>
+      <c r="BV22" s="8">
+        <f t="shared" ref="BV22:BV24" si="263">$L$2*AN22*$L$4+BV21*$L$3</f>
+        <v>-8.8712932665756705E-13</v>
+      </c>
+      <c r="BW22" s="8">
+        <f t="shared" ref="BW22:BW24" si="264">$L$2*AO22*$L$4+BW21*$L$3</f>
+        <v>-8.8712932665756705E-13</v>
+      </c>
+      <c r="BX22" s="8">
+        <f t="shared" ref="BX22:BX24" si="265">$L$2*AP22*$L$4+BX21*$L$3</f>
+        <v>-1.4880036784124176E-2</v>
+      </c>
+      <c r="BY22" s="8">
+        <f t="shared" ref="BY22:BY24" si="266">$L$2*AQ22*$L$4+BY21*$L$3</f>
+        <v>1.1639897607761421E-2</v>
+      </c>
+      <c r="BZ22" s="8">
+        <f t="shared" ref="BZ22:BZ24" si="267">AR22+BI22</f>
+        <v>9.9999979493832256E-2</v>
+      </c>
+      <c r="CA22" s="8">
+        <f t="shared" si="215"/>
+        <v>9.9999979493832256E-2</v>
+      </c>
+      <c r="CB22" s="8">
+        <f t="shared" si="216"/>
+        <v>9.9999976492866946E-2</v>
+      </c>
+      <c r="CC22" s="8">
+        <f t="shared" si="217"/>
+        <v>9.9999976492866946E-2</v>
+      </c>
+      <c r="CD22" s="8">
+        <f t="shared" si="218"/>
+        <v>9.9999999742613671E-2</v>
+      </c>
+      <c r="CE22" s="8">
+        <f t="shared" si="219"/>
+        <v>9.9999999742613671E-2</v>
+      </c>
+      <c r="CF22" s="8">
+        <f t="shared" si="220"/>
+        <v>5.2642818889513374E-2</v>
+      </c>
+      <c r="CG22" s="8">
+        <f t="shared" si="221"/>
+        <v>9.8340179847731496E-2</v>
+      </c>
+      <c r="CH22" s="8">
+        <f t="shared" si="222"/>
+        <v>5.2642818889513374E-2</v>
+      </c>
+      <c r="CI22" s="8">
+        <f t="shared" si="223"/>
+        <v>9.8340179847731496E-2</v>
+      </c>
+      <c r="CJ22" s="5">
+        <f t="shared" si="224"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK22" s="5">
+        <f t="shared" si="225"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL22" s="5">
+        <f t="shared" si="226"/>
+        <v>0.14151386671490465</v>
+      </c>
+      <c r="CM22" s="8">
+        <f t="shared" si="227"/>
+        <v>9.9999999738071138E-2</v>
+      </c>
+      <c r="CN22" s="8">
+        <f t="shared" si="228"/>
+        <v>9.9999999738071138E-2</v>
+      </c>
+      <c r="CO22" s="8">
+        <f t="shared" si="229"/>
+        <v>5.264281781497223E-2</v>
+      </c>
+      <c r="CP22" s="8">
+        <f t="shared" si="230"/>
+        <v>9.8340179003802E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="20"/>
+      <c r="L23" s="11">
+        <v>83</v>
+      </c>
+      <c r="M23" s="11">
+        <v>86</v>
+      </c>
+      <c r="N23" s="11">
+        <v>1</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="8">
+        <f t="shared" si="231"/>
+        <v>17.099996275855322</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" si="232"/>
+        <v>17.099996275855322</v>
+      </c>
+      <c r="U23" s="8">
+        <f t="shared" si="233"/>
+        <v>0.15792845165001546</v>
+      </c>
+      <c r="V23" s="8">
+        <f t="shared" si="234"/>
+        <v>0.29502053133164946</v>
+      </c>
+      <c r="W23" s="11">
+        <f t="shared" si="235"/>
+        <v>83</v>
+      </c>
+      <c r="X23" s="11">
+        <f t="shared" si="236"/>
+        <v>86</v>
+      </c>
+      <c r="Y23" s="11">
+        <f t="shared" si="237"/>
+        <v>1</v>
+      </c>
+      <c r="Z23" s="8">
+        <f t="shared" si="238"/>
+        <v>0.99999996254015644</v>
+      </c>
+      <c r="AA23" s="8">
+        <f t="shared" si="239"/>
+        <v>0.99999996254015644</v>
+      </c>
+      <c r="AB23" s="8">
+        <f t="shared" si="240"/>
+        <v>0.53940025548639248</v>
+      </c>
+      <c r="AC23" s="8">
+        <f t="shared" si="241"/>
+        <v>0.57322479543395333</v>
+      </c>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="8">
+        <f t="shared" si="242"/>
+        <v>3.9600754811642098E-7</v>
+      </c>
+      <c r="AL23" s="8">
+        <f t="shared" si="243"/>
+        <v>4.2533280779585959E-7</v>
+      </c>
+      <c r="AM23" s="8">
+        <f t="shared" si="244"/>
+        <v>0</v>
+      </c>
+      <c r="AN23" s="8">
+        <f t="shared" si="245"/>
+        <v>-2.9092538151807944E-10</v>
+      </c>
+      <c r="AO23" s="8">
+        <f t="shared" si="246"/>
+        <v>-2.9092538151807944E-10</v>
+      </c>
+      <c r="AP23" s="8">
+        <f t="shared" si="247"/>
+        <v>0.11443491023603367</v>
+      </c>
+      <c r="AQ23" s="8">
+        <f t="shared" si="248"/>
+        <v>-0.1402326416426298</v>
+      </c>
+      <c r="AR23" s="8">
+        <f t="shared" si="249"/>
+        <v>9.9999979493832256E-2</v>
+      </c>
+      <c r="AS23" s="8">
+        <f t="shared" si="200"/>
+        <v>9.9999979493832256E-2</v>
+      </c>
+      <c r="AT23" s="8">
+        <f t="shared" si="201"/>
+        <v>9.9999976492866946E-2</v>
+      </c>
+      <c r="AU23" s="8">
+        <f t="shared" si="202"/>
+        <v>9.9999976492866946E-2</v>
+      </c>
+      <c r="AV23" s="8">
+        <f t="shared" si="203"/>
+        <v>9.9999999742613671E-2</v>
+      </c>
+      <c r="AW23" s="8">
+        <f t="shared" si="204"/>
+        <v>9.9999999742613671E-2</v>
+      </c>
+      <c r="AX23" s="8">
+        <f t="shared" si="205"/>
+        <v>5.2642818889513374E-2</v>
+      </c>
+      <c r="AY23" s="8">
+        <f t="shared" si="206"/>
+        <v>9.8340179847731496E-2</v>
+      </c>
+      <c r="AZ23" s="8">
+        <f t="shared" si="207"/>
+        <v>5.2642818889513374E-2</v>
+      </c>
+      <c r="BA23" s="8">
+        <f t="shared" si="208"/>
+        <v>9.8340179847731496E-2</v>
+      </c>
+      <c r="BB23" s="5">
+        <f t="shared" si="209"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC23" s="5">
+        <f t="shared" si="210"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD23" s="5">
+        <f t="shared" si="211"/>
+        <v>0.14151386671490465</v>
+      </c>
+      <c r="BE23" s="8">
+        <f t="shared" si="212"/>
+        <v>9.9999999738071138E-2</v>
+      </c>
+      <c r="BF23" s="8">
+        <f t="shared" si="213"/>
+        <v>9.9999999738071138E-2</v>
+      </c>
+      <c r="BG23" s="8">
+        <f t="shared" ref="BG23:BG24" si="268">CO22</f>
+        <v>5.264281781497223E-2</v>
+      </c>
+      <c r="BH23" s="8">
+        <f t="shared" si="214"/>
+        <v>9.8340179003802E-2</v>
+      </c>
+      <c r="BI23" s="8">
+        <f t="shared" si="250"/>
+        <v>-2.421959442832243E-9</v>
+      </c>
+      <c r="BJ23" s="8">
+        <f t="shared" si="251"/>
+        <v>-2.421959442832243E-9</v>
+      </c>
+      <c r="BK23" s="8">
+        <f t="shared" si="252"/>
+        <v>-2.5096492080847666E-9</v>
+      </c>
+      <c r="BL23" s="8">
+        <f t="shared" si="253"/>
+        <v>-2.5096492080847666E-9</v>
+      </c>
+      <c r="BM23" s="8">
+        <f t="shared" si="254"/>
+        <v>-2.9211420164895451E-11</v>
+      </c>
+      <c r="BN23" s="8">
+        <f t="shared" si="255"/>
+        <v>-2.9211420164895451E-11</v>
+      </c>
+      <c r="BO23" s="8">
+        <f t="shared" si="256"/>
+        <v>9.9554869716224938E-3</v>
+      </c>
+      <c r="BP23" s="8">
+        <f t="shared" si="257"/>
+        <v>-1.2859273921208605E-2</v>
+      </c>
+      <c r="BQ23" s="8">
+        <f t="shared" si="258"/>
+        <v>9.9554869716224938E-3</v>
+      </c>
+      <c r="BR23" s="8">
+        <f t="shared" si="259"/>
+        <v>-1.2859273921208605E-2</v>
+      </c>
+      <c r="BS23" s="5">
+        <f t="shared" si="260"/>
+        <v>0</v>
+      </c>
+      <c r="BT23" s="5">
+        <f t="shared" si="261"/>
+        <v>0</v>
+      </c>
+      <c r="BU23" s="5">
+        <f t="shared" si="262"/>
+        <v>5.2642818889513379E-3</v>
+      </c>
+      <c r="BV23" s="8">
+        <f t="shared" si="263"/>
+        <v>-2.9181251084473702E-11</v>
+      </c>
+      <c r="BW23" s="8">
+        <f t="shared" si="264"/>
+        <v>-2.9181251084473702E-11</v>
+      </c>
+      <c r="BX23" s="8">
+        <f t="shared" si="265"/>
+        <v>9.9554873451909495E-3</v>
+      </c>
+      <c r="BY23" s="8">
+        <f t="shared" si="266"/>
+        <v>-1.2859274403486838E-2</v>
+      </c>
+      <c r="BZ23" s="8">
+        <f t="shared" si="267"/>
+        <v>9.9999977071872817E-2</v>
+      </c>
+      <c r="CA23" s="8">
+        <f t="shared" si="215"/>
+        <v>9.9999977071872817E-2</v>
+      </c>
+      <c r="CB23" s="8">
+        <f t="shared" si="216"/>
+        <v>9.9999973983217735E-2</v>
+      </c>
+      <c r="CC23" s="8">
+        <f t="shared" si="217"/>
+        <v>9.9999973983217735E-2</v>
+      </c>
+      <c r="CD23" s="8">
+        <f t="shared" si="218"/>
+        <v>9.9999999713402246E-2</v>
+      </c>
+      <c r="CE23" s="8">
+        <f t="shared" si="219"/>
+        <v>9.9999999713402246E-2</v>
+      </c>
+      <c r="CF23" s="8">
+        <f t="shared" si="220"/>
+        <v>6.2598305861135864E-2</v>
+      </c>
+      <c r="CG23" s="8">
+        <f t="shared" si="221"/>
+        <v>8.5480905926522896E-2</v>
+      </c>
+      <c r="CH23" s="8">
+        <f t="shared" si="222"/>
+        <v>6.2598305861135864E-2</v>
+      </c>
+      <c r="CI23" s="8">
+        <f t="shared" si="223"/>
+        <v>8.5480905926522896E-2</v>
+      </c>
+      <c r="CJ23" s="5">
+        <f t="shared" si="224"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK23" s="5">
+        <f t="shared" si="225"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL23" s="5">
+        <f t="shared" si="226"/>
+        <v>0.14677814860385599</v>
+      </c>
+      <c r="CM23" s="8">
+        <f t="shared" si="227"/>
+        <v>9.9999999708889883E-2</v>
+      </c>
+      <c r="CN23" s="8">
+        <f t="shared" si="228"/>
+        <v>9.9999999708889883E-2</v>
+      </c>
+      <c r="CO23" s="8">
+        <f t="shared" si="229"/>
+        <v>6.2598305160163181E-2</v>
+      </c>
+      <c r="CP23" s="8">
+        <f t="shared" si="230"/>
+        <v>8.5480904600315155E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="11:94" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="20"/>
+      <c r="L24" s="6">
+        <v>70</v>
+      </c>
+      <c r="M24" s="6">
+        <v>96</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="9">
+        <f t="shared" si="231"/>
+        <v>16.799995896842294</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" si="232"/>
+        <v>16.799995896842294</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="233"/>
+        <v>0.18779491055180333</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" si="234"/>
+        <v>0.25644270780858835</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="235"/>
+        <v>70</v>
+      </c>
+      <c r="X24" s="12">
+        <f t="shared" si="236"/>
+        <v>96</v>
+      </c>
+      <c r="Y24" s="12">
+        <f t="shared" si="237"/>
+        <v>1</v>
+      </c>
+      <c r="Z24" s="9">
+        <f t="shared" si="238"/>
+        <v>0.99999994943448167</v>
+      </c>
+      <c r="AA24" s="9">
+        <f t="shared" si="239"/>
+        <v>0.99999994943448167</v>
+      </c>
+      <c r="AB24" s="9">
+        <f t="shared" si="240"/>
+        <v>0.54681123439591273</v>
+      </c>
+      <c r="AC24" s="9">
+        <f t="shared" si="241"/>
+        <v>0.56376163040043759</v>
+      </c>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="9">
+        <f t="shared" si="242"/>
+        <v>2.3552423302263636E-7</v>
+      </c>
+      <c r="AL24" s="9">
+        <f t="shared" si="243"/>
+        <v>4.4471655048089105E-7</v>
+      </c>
+      <c r="AM24" s="9">
+        <f t="shared" si="244"/>
+        <v>0</v>
+      </c>
+      <c r="AN24" s="9">
+        <f t="shared" si="245"/>
+        <v>-2.4381396172250976E-10</v>
+      </c>
+      <c r="AO24" s="9">
+        <f t="shared" si="246"/>
+        <v>-2.4381396172250976E-10</v>
+      </c>
+      <c r="AP24" s="9">
+        <f t="shared" si="247"/>
+        <v>0.11230412263597872</v>
+      </c>
+      <c r="AQ24" s="9">
+        <f t="shared" si="248"/>
+        <v>-0.13864840903417933</v>
+      </c>
+      <c r="AR24" s="9">
+        <f t="shared" si="249"/>
+        <v>9.9999977071872817E-2</v>
+      </c>
+      <c r="AS24" s="9">
+        <f t="shared" si="200"/>
+        <v>9.9999977071872817E-2</v>
+      </c>
+      <c r="AT24" s="9">
+        <f t="shared" si="201"/>
+        <v>9.9999973983217735E-2</v>
+      </c>
+      <c r="AU24" s="9">
+        <f t="shared" si="202"/>
+        <v>9.9999973983217735E-2</v>
+      </c>
+      <c r="AV24" s="9">
+        <f t="shared" si="203"/>
+        <v>9.9999999713402246E-2</v>
+      </c>
+      <c r="AW24" s="9">
+        <f t="shared" si="204"/>
+        <v>9.9999999713402246E-2</v>
+      </c>
+      <c r="AX24" s="9">
+        <f t="shared" si="205"/>
+        <v>6.2598305861135864E-2</v>
+      </c>
+      <c r="AY24" s="9">
+        <f t="shared" si="206"/>
+        <v>8.5480905926522896E-2</v>
+      </c>
+      <c r="AZ24" s="9">
+        <f t="shared" si="207"/>
+        <v>6.2598305861135864E-2</v>
+      </c>
+      <c r="BA24" s="9">
+        <f t="shared" si="208"/>
+        <v>8.5480905926522896E-2</v>
+      </c>
+      <c r="BB24" s="7">
+        <f t="shared" si="209"/>
+        <v>0.1</v>
+      </c>
+      <c r="BC24" s="7">
+        <f t="shared" si="210"/>
+        <v>0.1</v>
+      </c>
+      <c r="BD24" s="7">
+        <f t="shared" si="211"/>
+        <v>0.14677814860385599</v>
+      </c>
+      <c r="BE24" s="9">
+        <f t="shared" si="212"/>
+        <v>9.9999999708889883E-2</v>
+      </c>
+      <c r="BF24" s="9">
+        <f t="shared" si="213"/>
+        <v>9.9999999708889883E-2</v>
+      </c>
+      <c r="BG24" s="9">
+        <f t="shared" si="268"/>
+        <v>6.2598305160163181E-2</v>
+      </c>
+      <c r="BH24" s="9">
+        <f t="shared" si="214"/>
+        <v>8.5480904600315155E-2</v>
+      </c>
+      <c r="BI24" s="9">
+        <f t="shared" si="250"/>
+        <v>-1.948893676340793E-9</v>
+      </c>
+      <c r="BJ24" s="9">
+        <f t="shared" si="251"/>
+        <v>-1.948893676340793E-9</v>
+      </c>
+      <c r="BK24" s="9">
+        <f t="shared" si="252"/>
+        <v>-2.5915789533445703E-9</v>
+      </c>
+      <c r="BL24" s="9">
+        <f t="shared" si="253"/>
+        <v>-2.5915789533445703E-9</v>
+      </c>
+      <c r="BM24" s="9">
+        <f t="shared" si="254"/>
+        <v>-2.7302538188740524E-11</v>
+      </c>
+      <c r="BN24" s="9">
+        <f t="shared" si="255"/>
+        <v>-2.7302538188740524E-11</v>
+      </c>
+      <c r="BO24" s="9">
+        <f t="shared" si="256"/>
+        <v>1.2225960392888504E-2</v>
+      </c>
+      <c r="BP24" s="9">
+        <f t="shared" si="257"/>
+        <v>-1.5150767594455928E-2</v>
+      </c>
+      <c r="BQ24" s="9">
+        <f t="shared" si="258"/>
+        <v>1.2225960392888504E-2</v>
+      </c>
+      <c r="BR24" s="9">
+        <f t="shared" si="259"/>
+        <v>-1.5150767594455928E-2</v>
+      </c>
+      <c r="BS24" s="7">
+        <f t="shared" si="260"/>
+        <v>0</v>
+      </c>
+      <c r="BT24" s="7">
+        <f t="shared" si="261"/>
+        <v>0</v>
+      </c>
+      <c r="BU24" s="7">
+        <f t="shared" si="262"/>
+        <v>6.2598305861135866E-3</v>
+      </c>
+      <c r="BV24" s="9">
+        <f t="shared" si="263"/>
+        <v>-2.7299521280698348E-11</v>
+      </c>
+      <c r="BW24" s="9">
+        <f t="shared" si="264"/>
+        <v>-2.7299521280698348E-11</v>
+      </c>
+      <c r="BX24" s="9">
+        <f t="shared" si="265"/>
+        <v>1.2225960998116969E-2</v>
+      </c>
+      <c r="BY24" s="9">
+        <f t="shared" si="266"/>
+        <v>-1.5150768343766618E-2</v>
+      </c>
+      <c r="BZ24" s="9">
+        <f t="shared" si="267"/>
+        <v>9.9999975122979146E-2</v>
+      </c>
+      <c r="CA24" s="9">
+        <f t="shared" si="215"/>
+        <v>9.9999975122979146E-2</v>
+      </c>
+      <c r="CB24" s="9">
+        <f t="shared" si="216"/>
+        <v>9.9999971391638784E-2</v>
+      </c>
+      <c r="CC24" s="9">
+        <f t="shared" si="217"/>
+        <v>9.9999971391638784E-2</v>
+      </c>
+      <c r="CD24" s="9">
+        <f t="shared" si="218"/>
+        <v>9.9999999686099711E-2</v>
+      </c>
+      <c r="CE24" s="9">
+        <f t="shared" si="219"/>
+        <v>9.9999999686099711E-2</v>
+      </c>
+      <c r="CF24" s="9">
+        <f t="shared" si="220"/>
+        <v>7.4824266254024371E-2</v>
+      </c>
+      <c r="CG24" s="9">
+        <f t="shared" si="221"/>
+        <v>7.0330138332066972E-2</v>
+      </c>
+      <c r="CH24" s="9">
+        <f t="shared" si="222"/>
+        <v>7.4824266254024371E-2</v>
+      </c>
+      <c r="CI24" s="9">
+        <f t="shared" si="223"/>
+        <v>7.0330138332066972E-2</v>
+      </c>
+      <c r="CJ24" s="7">
+        <f t="shared" si="224"/>
+        <v>0.1</v>
+      </c>
+      <c r="CK24" s="7">
+        <f t="shared" si="225"/>
+        <v>0.1</v>
+      </c>
+      <c r="CL24" s="7">
+        <f t="shared" si="226"/>
+        <v>0.15303797918996959</v>
+      </c>
+      <c r="CM24" s="9">
+        <f t="shared" si="227"/>
+        <v>9.999999968159036E-2</v>
+      </c>
+      <c r="CN24" s="9">
+        <f t="shared" si="228"/>
+        <v>9.999999968159036E-2</v>
+      </c>
+      <c r="CO24" s="9">
+        <f t="shared" si="229"/>
+        <v>7.4824266158280153E-2</v>
+      </c>
+      <c r="CP24" s="9">
+        <f t="shared" si="230"/>
+        <v>7.0330136256548534E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="11:94" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="K21:K24"/>
     <mergeCell ref="K13:K16"/>
     <mergeCell ref="BZ7:CP7"/>
     <mergeCell ref="AR6:CP6"/>
